--- a/jacobi/src/test/resources/jacobi/test/data/EigenFinderTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/EigenFinderTest.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="24915" windowHeight="6465"/>
+    <workbookView xWindow="1605" yWindow="285" windowWidth="24915" windowHeight="11235" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Find Eig 5x5" sheetId="1" r:id="rId1"/>
-    <sheet name="6x6" sheetId="2" r:id="rId2"/>
-    <sheet name="rand" sheetId="3" r:id="rId3"/>
+    <sheet name="Find Eig 6x6" sheetId="2" r:id="rId2"/>
+    <sheet name="7x7" sheetId="4" r:id="rId3"/>
+    <sheet name="Validate 7x7 by QR decomp" sheetId="5" r:id="rId4"/>
+    <sheet name="rand" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>#1</t>
   </si>
@@ -40,6 +42,36 @@
   </si>
   <si>
     <t>#0</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>Reflector</t>
+  </si>
+  <si>
+    <t>Unit reflector</t>
+  </si>
+  <si>
+    <t>Householder matrix</t>
+  </si>
+  <si>
+    <t>A=</t>
+  </si>
+  <si>
+    <t>Eigenvalue=</t>
+  </si>
+  <si>
+    <t>Det=</t>
+  </si>
+  <si>
+    <t>Real=</t>
+  </si>
+  <si>
+    <t>Imaginary</t>
   </si>
 </sst>
 </file>
@@ -380,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,704 +708,5439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.59676750941691414</v>
+      </c>
+      <c r="B3">
+        <v>0.56169440879408583</v>
+      </c>
+      <c r="C3">
+        <v>0.47260961934011658</v>
+      </c>
+      <c r="D3">
+        <v>9.5352993059563906E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.37560646005309206</v>
+      </c>
+      <c r="F3">
+        <v>0.43567435408269362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.62603525908844471</v>
+      </c>
+      <c r="C4">
+        <v>0.23929584042670704</v>
+      </c>
+      <c r="D4">
+        <v>4.3288117021369477E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.8703457943760213E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.86499592008879989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-1.1750613265997101</v>
+      </c>
+      <c r="C5">
+        <v>0.13142238559962138</v>
+      </c>
+      <c r="D5">
+        <v>0.58541947875940192</v>
+      </c>
+      <c r="E5">
+        <v>0.42193469126516869</v>
+      </c>
+      <c r="F5">
+        <v>0.94804747719395188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.77326169901508468</v>
+      </c>
+      <c r="E6">
+        <v>-1.4842306095112101</v>
+      </c>
+      <c r="F6">
+        <v>7.8305945752006112E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.79996767994149098</v>
+      </c>
+      <c r="E7">
+        <v>0.56003372349953395</v>
+      </c>
+      <c r="F7">
+        <v>0.88921005103063933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.37482584576676681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A3</f>
+        <v>0.59676750941691414</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>IF(H12 &lt; 0, -E12/2, (E12+SQRT(H12))/2)</f>
+        <v>-0.37872882234403304</v>
+      </c>
+      <c r="B12">
+        <f>IF(H12&lt;0, SQRT(-H12)/2, 0)</f>
+        <v>0.46907015898091536</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>B4+C5</f>
+        <v>0.75745764468806609</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>E12*E12-4*E13</f>
+        <v>-0.88010725618552488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>IF(H12 &lt; 0, -E12/2, (E12+SQRT(H12))/2)</f>
+        <v>-0.37872882234403304</v>
+      </c>
+      <c r="B13">
+        <f>IF(H12&lt;0, -SQRT(-H12)/2, 0)</f>
+        <v>-0.46907015898091536</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f>B4*C5-B5*C4</f>
+        <v>0.36346233492047936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>IF(H14 &lt; 0, -E14/2, (E14+SQRT(H14))/2)</f>
+        <v>-0.66664771125730926</v>
+      </c>
+      <c r="B14">
+        <f>IF(H14&lt;0, SQRT(-H14)/2, 0)</f>
+        <v>1.0844214931488645</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>D6+E7</f>
+        <v>1.3332954225146185</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f>E14*E14-4*E15</f>
+        <v>-4.7038798992128505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>IF(H14 &lt; 0, -E14/2, (E14-SQRT(H14))/2)</f>
+        <v>-0.66664771125730926</v>
+      </c>
+      <c r="B15">
+        <f>IF(H14&lt;0, -SQRT(-H14)/2, 0)</f>
+        <v>-1.0844214931488645</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>D6*E7-D7*E6</f>
+        <v>1.6203891457278214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>F8</f>
+        <v>0.37482584576676681</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A11</f>
+        <v>0.59676750941691414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A25" si="0">A12</f>
+        <v>-0.37872882234403304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>-0.37872882234403304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>-0.66664771125730926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>-0.66664771125730926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>0.37482584576676681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ref="A30:A34" si="1">B12</f>
+        <v>0.46907015898091536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>-0.46907015898091536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>1.0844214931488645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>-1.0844214931488645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.50541629260186172</v>
+      </c>
+      <c r="B3">
+        <v>0.84580173412536075</v>
+      </c>
+      <c r="C3">
+        <v>-0.34896486142290883</v>
+      </c>
+      <c r="D3">
+        <v>0.58798111371457495</v>
+      </c>
+      <c r="E3">
+        <v>0.41229797246666755</v>
+      </c>
+      <c r="F3">
+        <v>-0.4790198329743478</v>
+      </c>
+      <c r="G3">
+        <v>-0.41907929845220981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.89404621000099893</v>
+      </c>
+      <c r="B4">
+        <v>-0.21589937942225723</v>
+      </c>
+      <c r="C4">
+        <v>0.45700487741774465</v>
+      </c>
+      <c r="D4">
+        <v>0.55399165074879209</v>
+      </c>
+      <c r="E4">
+        <v>-0.87238280135800839</v>
+      </c>
+      <c r="F4">
+        <v>-0.68492870720658061</v>
+      </c>
+      <c r="G4">
+        <v>-0.91904474905823297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.34308337074500472</v>
+      </c>
+      <c r="B5">
+        <v>-0.78735419126086215</v>
+      </c>
+      <c r="C5">
+        <v>-0.84382744312749125</v>
+      </c>
+      <c r="D5">
+        <v>-0.40042796552689985</v>
+      </c>
+      <c r="E5">
+        <v>-0.45143600638530779</v>
+      </c>
+      <c r="F5">
+        <v>0.19336511065118667</v>
+      </c>
+      <c r="G5">
+        <v>0.69625666235286521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.360682702769062</v>
+      </c>
+      <c r="B6">
+        <v>0.47288373920538995</v>
+      </c>
+      <c r="C6">
+        <v>0.25903869635484122</v>
+      </c>
+      <c r="D6">
+        <v>-0.25934037612149763</v>
+      </c>
+      <c r="E6">
+        <v>-0.18228809353888487</v>
+      </c>
+      <c r="F6">
+        <v>-0.58836329953972677</v>
+      </c>
+      <c r="G6">
+        <v>-0.56719442650598917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.21750086989004447</v>
+      </c>
+      <c r="B7">
+        <v>-2.5587576357337438E-2</v>
+      </c>
+      <c r="C7">
+        <v>-0.11915738286641075</v>
+      </c>
+      <c r="D7">
+        <v>-0.36197601938081481</v>
+      </c>
+      <c r="E7">
+        <v>0.80385040903308935</v>
+      </c>
+      <c r="F7">
+        <v>-0.11478814730643672</v>
+      </c>
+      <c r="G7">
+        <v>0.15458726589559624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-0.38930295508893753</v>
+      </c>
+      <c r="B8">
+        <v>0.7708910482707636</v>
+      </c>
+      <c r="C8">
+        <v>0.48319161251448461</v>
+      </c>
+      <c r="D8">
+        <v>-0.94891241039580287</v>
+      </c>
+      <c r="E8">
+        <v>-0.33877200981955657</v>
+      </c>
+      <c r="F8">
+        <v>-0.37971439157966858</v>
+      </c>
+      <c r="G8">
+        <v>-0.9213805364500649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.79374043683645001</v>
+      </c>
+      <c r="B9">
+        <v>0.63805346059442503</v>
+      </c>
+      <c r="C9">
+        <v>-0.74608587694401063</v>
+      </c>
+      <c r="D9">
+        <v>-0.12682515455608789</v>
+      </c>
+      <c r="E9">
+        <v>0.8971368072392123</v>
+      </c>
+      <c r="F9">
+        <v>7.7900464427382854E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.67198955287449569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.76959344553964204</v>
+      </c>
+      <c r="B13">
+        <v>1.0576138466062901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.76959344553964204</v>
+      </c>
+      <c r="B14">
+        <v>-1.0576138466062901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.58410031491549</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-0.81558571873306196</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.33389745138487997</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.07308092797139</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-0.35383142020083502</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A13</f>
+        <v>0.76959344553964204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:A29" si="0">A14</f>
+        <v>0.76959344553964204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1.58410031491549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>-0.81558571873306196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>0.33389745138487997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>1.07308092797139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>-0.35383142020083502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>B13</f>
+        <v>1.0576138466062901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:A39" si="1">B14</f>
+        <v>-1.0576138466062901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'7x7'!A3</f>
+        <v>0.50541629260186172</v>
+      </c>
+      <c r="B2">
+        <f>'7x7'!B3</f>
+        <v>0.84580173412536075</v>
+      </c>
+      <c r="C2">
+        <f>'7x7'!C3</f>
+        <v>-0.34896486142290883</v>
+      </c>
+      <c r="D2">
+        <f>'7x7'!D3</f>
+        <v>0.58798111371457495</v>
+      </c>
+      <c r="E2">
+        <f>'7x7'!E3</f>
+        <v>0.41229797246666755</v>
+      </c>
+      <c r="F2">
+        <f>'7x7'!F3</f>
+        <v>-0.4790198329743478</v>
+      </c>
+      <c r="G2">
+        <f>'7x7'!G3</f>
+        <v>-0.41907929845220981</v>
+      </c>
+      <c r="I2">
+        <f>'7x7'!A19</f>
+        <v>-0.35383142020083502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>'7x7'!A4</f>
+        <v>0.89404621000099893</v>
+      </c>
+      <c r="B3">
+        <f>'7x7'!B4</f>
+        <v>-0.21589937942225723</v>
+      </c>
+      <c r="C3">
+        <f>'7x7'!C4</f>
+        <v>0.45700487741774465</v>
+      </c>
+      <c r="D3">
+        <f>'7x7'!D4</f>
+        <v>0.55399165074879209</v>
+      </c>
+      <c r="E3">
+        <f>'7x7'!E4</f>
+        <v>-0.87238280135800839</v>
+      </c>
+      <c r="F3">
+        <f>'7x7'!F4</f>
+        <v>-0.68492870720658061</v>
+      </c>
+      <c r="G3">
+        <f>'7x7'!G4</f>
+        <v>-0.91904474905823297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>'7x7'!A5</f>
+        <v>0.34308337074500472</v>
+      </c>
+      <c r="B4">
+        <f>'7x7'!B5</f>
+        <v>-0.78735419126086215</v>
+      </c>
+      <c r="C4">
+        <f>'7x7'!C5</f>
+        <v>-0.84382744312749125</v>
+      </c>
+      <c r="D4">
+        <f>'7x7'!D5</f>
+        <v>-0.40042796552689985</v>
+      </c>
+      <c r="E4">
+        <f>'7x7'!E5</f>
+        <v>-0.45143600638530779</v>
+      </c>
+      <c r="F4">
+        <f>'7x7'!F5</f>
+        <v>0.19336511065118667</v>
+      </c>
+      <c r="G4">
+        <f>'7x7'!G5</f>
+        <v>0.69625666235286521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'7x7'!A6</f>
+        <v>0.360682702769062</v>
+      </c>
+      <c r="B5">
+        <f>'7x7'!B6</f>
+        <v>0.47288373920538995</v>
+      </c>
+      <c r="C5">
+        <f>'7x7'!C6</f>
+        <v>0.25903869635484122</v>
+      </c>
+      <c r="D5">
+        <f>'7x7'!D6</f>
+        <v>-0.25934037612149763</v>
+      </c>
+      <c r="E5">
+        <f>'7x7'!E6</f>
+        <v>-0.18228809353888487</v>
+      </c>
+      <c r="F5">
+        <f>'7x7'!F6</f>
+        <v>-0.58836329953972677</v>
+      </c>
+      <c r="G5">
+        <f>'7x7'!G6</f>
+        <v>-0.56719442650598917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>'7x7'!A7</f>
+        <v>0.21750086989004447</v>
+      </c>
+      <c r="B6">
+        <f>'7x7'!B7</f>
+        <v>-2.5587576357337438E-2</v>
+      </c>
+      <c r="C6">
+        <f>'7x7'!C7</f>
+        <v>-0.11915738286641075</v>
+      </c>
+      <c r="D6">
+        <f>'7x7'!D7</f>
+        <v>-0.36197601938081481</v>
+      </c>
+      <c r="E6">
+        <f>'7x7'!E7</f>
+        <v>0.80385040903308935</v>
+      </c>
+      <c r="F6">
+        <f>'7x7'!F7</f>
+        <v>-0.11478814730643672</v>
+      </c>
+      <c r="G6">
+        <f>'7x7'!G7</f>
+        <v>0.15458726589559624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>'7x7'!A8</f>
+        <v>-0.38930295508893753</v>
+      </c>
+      <c r="B7">
+        <f>'7x7'!B8</f>
+        <v>0.7708910482707636</v>
+      </c>
+      <c r="C7">
+        <f>'7x7'!C8</f>
+        <v>0.48319161251448461</v>
+      </c>
+      <c r="D7">
+        <f>'7x7'!D8</f>
+        <v>-0.94891241039580287</v>
+      </c>
+      <c r="E7">
+        <f>'7x7'!E8</f>
+        <v>-0.33877200981955657</v>
+      </c>
+      <c r="F7">
+        <f>'7x7'!F8</f>
+        <v>-0.37971439157966858</v>
+      </c>
+      <c r="G7">
+        <f>'7x7'!G8</f>
+        <v>-0.9213805364500649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>'7x7'!A9</f>
+        <v>-0.79374043683645001</v>
+      </c>
+      <c r="B8">
+        <f>'7x7'!B9</f>
+        <v>0.63805346059442503</v>
+      </c>
+      <c r="C8">
+        <f>'7x7'!C9</f>
+        <v>-0.74608587694401063</v>
+      </c>
+      <c r="D8">
+        <f>'7x7'!D9</f>
+        <v>-0.12682515455608789</v>
+      </c>
+      <c r="E8">
+        <f>'7x7'!E9</f>
+        <v>0.8971368072392123</v>
+      </c>
+      <c r="F8">
+        <f>'7x7'!F9</f>
+        <v>7.7900464427382854E-2</v>
+      </c>
+      <c r="G8">
+        <f>'7x7'!G9</f>
+        <v>0.67198955287449569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A2-I2</f>
+        <v>0.85924771280269674</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:G12" si="0">B2</f>
+        <v>0.84580173412536075</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.34896486142290883</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.58798111371457495</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.41229797246666755</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-0.4790198329743478</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-0.41907929845220981</v>
+      </c>
+      <c r="I12">
+        <f>A12</f>
+        <v>0.85924771280269674</v>
+      </c>
+      <c r="J12">
+        <f>SQRT(SUMPRODUCT(I12:I18,I12:I18))</f>
+        <v>1.6168830413006345</v>
+      </c>
+      <c r="K12">
+        <f>I12+J12</f>
+        <v>2.4761307541033313</v>
+      </c>
+      <c r="L12">
+        <f>SQRT(SUMPRODUCT(K12:K18,K12:K18))</f>
+        <v>2.829704516147447</v>
+      </c>
+      <c r="M12">
+        <f>K12/L12</f>
+        <v>0.87504922862918022</v>
+      </c>
+      <c r="O12">
+        <f t="array" ref="O12:U18">MMULT(M12:M18,TRANSPOSE(M12:M18))</f>
+        <v>0.76571115252452326</v>
+      </c>
+      <c r="P12">
+        <v>0.27647213408887644</v>
+      </c>
+      <c r="Q12">
+        <v>0.10609405936654065</v>
+      </c>
+      <c r="R12">
+        <v>0.11153642333923104</v>
+      </c>
+      <c r="S12">
+        <v>6.7259308290810213E-2</v>
+      </c>
+      <c r="T12">
+        <v>-0.12038686322536317</v>
+      </c>
+      <c r="U12">
+        <v>-0.24545388149966563</v>
+      </c>
+      <c r="W12">
+        <f>1-2*O12</f>
+        <v>-0.53142230504904653</v>
+      </c>
+      <c r="X12">
+        <f>-2*P12</f>
+        <v>-0.55294426817775288</v>
+      </c>
+      <c r="Y12">
+        <f>-2*Q12</f>
+        <v>-0.2121881187330813</v>
+      </c>
+      <c r="Z12">
+        <f>-2*R12</f>
+        <v>-0.22307284667846208</v>
+      </c>
+      <c r="AA12">
+        <f>-2*S12</f>
+        <v>-0.13451861658162043</v>
+      </c>
+      <c r="AB12">
+        <f>-2*T12</f>
+        <v>0.24077372645072634</v>
+      </c>
+      <c r="AC12">
+        <f>-2*U12</f>
+        <v>0.49090776299933125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:G13" si="1">A3</f>
+        <v>0.89404621000099893</v>
+      </c>
+      <c r="B13">
+        <f>B3-I2</f>
+        <v>0.13793204077857779</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.45700487741774465</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.55399165074879209</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-0.87238280135800839</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-0.68492870720658061</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-0.91904474905823297</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I18" si="2">A13</f>
+        <v>0.89404621000099893</v>
+      </c>
+      <c r="K13">
+        <f>I13</f>
+        <v>0.89404621000099893</v>
+      </c>
+      <c r="M13">
+        <f>K13/L12</f>
+        <v>0.3159503774684625</v>
+      </c>
+      <c r="O13">
+        <v>0.27647213408887644</v>
+      </c>
+      <c r="P13">
+        <v>9.9824641022463939E-2</v>
+      </c>
+      <c r="Q13">
+        <v>3.8306939778156135E-2</v>
+      </c>
+      <c r="R13">
+        <v>4.0271991452089977E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.4285038084131093E-2</v>
+      </c>
+      <c r="T13">
+        <v>-4.3467582890032233E-2</v>
+      </c>
+      <c r="U13">
+        <v>-8.8625009855054129E-2</v>
+      </c>
+      <c r="W13">
+        <f>-2*O13</f>
+        <v>-0.55294426817775288</v>
+      </c>
+      <c r="X13">
+        <f>1-2*P13</f>
+        <v>0.80035071795507218</v>
+      </c>
+      <c r="Y13">
+        <f>-2*Q13</f>
+        <v>-7.661387955631227E-2</v>
+      </c>
+      <c r="Z13">
+        <f>-2*R13</f>
+        <v>-8.0543982904179953E-2</v>
+      </c>
+      <c r="AA13">
+        <f>-2*S13</f>
+        <v>-4.8570076168262186E-2</v>
+      </c>
+      <c r="AB13">
+        <f>-2*T13</f>
+        <v>8.6935165780064466E-2</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" ref="AC13:AC17" si="3">-2*U13</f>
+        <v>0.17725001971010826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:G14" si="4">A4</f>
+        <v>0.34308337074500472</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>-0.78735419126086215</v>
+      </c>
+      <c r="C14">
+        <f>C4-I2</f>
+        <v>-0.48999602292665623</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>-0.40042796552689985</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>-0.45143600638530779</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>0.19336511065118667</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0.69625666235286521</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.34308337074500472</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K18" si="5">I14</f>
+        <v>0.34308337074500472</v>
+      </c>
+      <c r="M14">
+        <f>K14/L12</f>
+        <v>0.12124353224417292</v>
+      </c>
+      <c r="O14">
+        <v>0.10609405936654065</v>
+      </c>
+      <c r="P14">
+        <v>3.8306939778156135E-2</v>
+      </c>
+      <c r="Q14">
+        <v>1.4699994111043798E-2</v>
+      </c>
+      <c r="R14">
+        <v>1.545406760796135E-2</v>
+      </c>
+      <c r="S14">
+        <v>9.3191969624983901E-3</v>
+      </c>
+      <c r="T14">
+        <v>-1.6680351294183656E-2</v>
+      </c>
+      <c r="U14">
+        <v>-3.4009167281574028E-2</v>
+      </c>
+      <c r="W14">
+        <f>-2*O14</f>
+        <v>-0.2121881187330813</v>
+      </c>
+      <c r="X14">
+        <f>-2*P14</f>
+        <v>-7.661387955631227E-2</v>
+      </c>
+      <c r="Y14">
+        <f>1-2*Q14</f>
+        <v>0.97060001177791244</v>
+      </c>
+      <c r="Z14">
+        <f>-2*R14</f>
+        <v>-3.09081352159227E-2</v>
+      </c>
+      <c r="AA14">
+        <f>-2*S14</f>
+        <v>-1.863839392499678E-2</v>
+      </c>
+      <c r="AB14">
+        <f>-2*T14</f>
+        <v>3.3360702588367312E-2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>6.8018334563148056E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ref="A15:G15" si="6">A5</f>
+        <v>0.360682702769062</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="6"/>
+        <v>0.47288373920538995</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="6"/>
+        <v>0.25903869635484122</v>
+      </c>
+      <c r="D15">
+        <f>D5-I2</f>
+        <v>9.4491044079337394E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>-0.18228809353888487</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>-0.58836329953972677</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>-0.56719442650598917</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.360682702769062</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0.360682702769062</v>
+      </c>
+      <c r="M15">
+        <f>K15/L12</f>
+        <v>0.12746302686759678</v>
+      </c>
+      <c r="O15">
+        <v>0.11153642333923104</v>
+      </c>
+      <c r="P15">
+        <v>4.0271991452089977E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.545406760796135E-2</v>
+      </c>
+      <c r="R15">
+        <v>1.62468232182497E-2</v>
+      </c>
+      <c r="S15">
+        <v>9.7972488167297513E-3</v>
+      </c>
+      <c r="T15">
+        <v>-1.7536012237664475E-2</v>
+      </c>
+      <c r="U15">
+        <v>-3.5753753810353901E-2</v>
+      </c>
+      <c r="W15">
+        <f>-2*O15</f>
+        <v>-0.22307284667846208</v>
+      </c>
+      <c r="X15">
+        <f>-2*P15</f>
+        <v>-8.0543982904179953E-2</v>
+      </c>
+      <c r="Y15">
+        <f>-2*Q15</f>
+        <v>-3.09081352159227E-2</v>
+      </c>
+      <c r="Z15">
+        <f>1-2*R15</f>
+        <v>0.96750635356350057</v>
+      </c>
+      <c r="AA15">
+        <f>-2*S15</f>
+        <v>-1.9594497633459503E-2</v>
+      </c>
+      <c r="AB15">
+        <f>-2*T15</f>
+        <v>3.507202447532895E-2</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>7.1507507620707803E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:G16" si="7">A6</f>
+        <v>0.21750086989004447</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="7"/>
+        <v>-2.5587576357337438E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="7"/>
+        <v>-0.11915738286641075</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>-0.36197601938081481</v>
+      </c>
+      <c r="E16">
+        <f>E6-I2</f>
+        <v>1.1576818292339244</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>-0.11478814730643672</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>0.15458726589559624</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.21750086989004447</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>0.21750086989004447</v>
+      </c>
+      <c r="M16">
+        <f>K16/L12</f>
+        <v>7.6863456466530644E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.7259308290810213E-2</v>
+      </c>
+      <c r="P16">
+        <v>2.4285038084131093E-2</v>
+      </c>
+      <c r="Q16">
+        <v>9.3191969624983901E-3</v>
+      </c>
+      <c r="R16">
+        <v>9.7972488167297513E-3</v>
+      </c>
+      <c r="S16">
+        <v>5.9079909399822519E-3</v>
+      </c>
+      <c r="T16">
+        <v>-1.0574662679448147E-2</v>
+      </c>
+      <c r="U16">
+        <v>-2.1560425537139181E-2</v>
+      </c>
+      <c r="W16">
+        <f>-2*O16</f>
+        <v>-0.13451861658162043</v>
+      </c>
+      <c r="X16">
+        <f>-2*P16</f>
+        <v>-4.8570076168262186E-2</v>
+      </c>
+      <c r="Y16">
+        <f>-2*Q16</f>
+        <v>-1.863839392499678E-2</v>
+      </c>
+      <c r="Z16">
+        <f>-2*R16</f>
+        <v>-1.9594497633459503E-2</v>
+      </c>
+      <c r="AA16">
+        <f>1-2*S16</f>
+        <v>0.98818401812003553</v>
+      </c>
+      <c r="AB16">
+        <f>-2*T16</f>
+        <v>2.1149325358896295E-2</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>4.3120851074278363E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:G17" si="8">A7</f>
+        <v>-0.38930295508893753</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="8"/>
+        <v>0.7708910482707636</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="8"/>
+        <v>0.48319161251448461</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="8"/>
+        <v>-0.94891241039580287</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>-0.33877200981955657</v>
+      </c>
+      <c r="F17">
+        <f>F7-I2</f>
+        <v>-2.5882971378833552E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>-0.9213805364500649</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-0.38930295508893753</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>-0.38930295508893753</v>
+      </c>
+      <c r="M17">
+        <f>K17/L12</f>
+        <v>-0.13757724626985476</v>
+      </c>
+      <c r="O17">
+        <v>-0.12038686322536317</v>
+      </c>
+      <c r="P17">
+        <v>-4.3467582890032233E-2</v>
+      </c>
+      <c r="Q17">
+        <v>-1.6680351294183656E-2</v>
+      </c>
+      <c r="R17">
+        <v>-1.7536012237664475E-2</v>
+      </c>
+      <c r="S17">
+        <v>-1.0574662679448147E-2</v>
+      </c>
+      <c r="T17">
+        <v>1.8927498691196268E-2</v>
+      </c>
+      <c r="U17">
+        <v>3.8590822091086587E-2</v>
+      </c>
+      <c r="W17">
+        <f>-2*O17</f>
+        <v>0.24077372645072634</v>
+      </c>
+      <c r="X17">
+        <f>-2*P17</f>
+        <v>8.6935165780064466E-2</v>
+      </c>
+      <c r="Y17">
+        <f>-2*Q17</f>
+        <v>3.3360702588367312E-2</v>
+      </c>
+      <c r="Z17">
+        <f>-2*R17</f>
+        <v>3.507202447532895E-2</v>
+      </c>
+      <c r="AA17">
+        <f>-2*S17</f>
+        <v>2.1149325358896295E-2</v>
+      </c>
+      <c r="AB17">
+        <f>1-2*T17</f>
+        <v>0.96214500261760749</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>-7.7181644182173173E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:F18" si="9">A8</f>
+        <v>-0.79374043683645001</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="9"/>
+        <v>0.63805346059442503</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="9"/>
+        <v>-0.74608587694401063</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="9"/>
+        <v>-0.12682515455608789</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="9"/>
+        <v>0.8971368072392123</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>7.7900464427382854E-2</v>
+      </c>
+      <c r="G18">
+        <f>G8-I2</f>
+        <v>1.0258209730753307</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>-0.79374043683645001</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>-0.79374043683645001</v>
+      </c>
+      <c r="M18">
+        <f>K18/L12</f>
+        <v>-0.28050294025649802</v>
+      </c>
+      <c r="O18">
+        <v>-0.24545388149966563</v>
+      </c>
+      <c r="P18">
+        <v>-8.8625009855054129E-2</v>
+      </c>
+      <c r="Q18">
+        <v>-3.4009167281574028E-2</v>
+      </c>
+      <c r="R18">
+        <v>-3.5753753810353901E-2</v>
+      </c>
+      <c r="S18">
+        <v>-2.1560425537139181E-2</v>
+      </c>
+      <c r="T18">
+        <v>3.8590822091086587E-2</v>
+      </c>
+      <c r="U18">
+        <v>7.8681899492540494E-2</v>
+      </c>
+      <c r="W18">
+        <f>-2*O18</f>
+        <v>0.49090776299933125</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:AB18" si="10">-2*P18</f>
+        <v>0.17725001971010826</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="10"/>
+        <v>6.8018334563148056E-2</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="10"/>
+        <v>7.1507507620707803E-2</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="10"/>
+        <v>4.3120851074278363E-2</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="10"/>
+        <v>-7.7181644182173173E-2</v>
+      </c>
+      <c r="AC18">
+        <f>1-2*U18</f>
+        <v>0.84263620101491898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="array" ref="A20:G26">MMULT(W12:AC18,A12:G18)</f>
+        <v>-1.6168830413006341</v>
+      </c>
+      <c r="B20">
+        <v>3.8110757025107855E-2</v>
+      </c>
+      <c r="C20">
+        <v>-0.25495429898564309</v>
+      </c>
+      <c r="D20">
+        <v>-0.79694523284919394</v>
+      </c>
+      <c r="E20">
+        <v>0.60284187745153961</v>
+      </c>
+      <c r="F20">
+        <v>0.77095846964926973</v>
+      </c>
+      <c r="G20">
+        <v>0.97062128571378758</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="array" ref="O20:U26">MMULT(M20:M26,TRANSPOSE(M20:M26))</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f>1-2*O20</f>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f>-2*P20</f>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f>-2*Q20</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>-2*R20</f>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f>-2*S20</f>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f>-2*T20</f>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f>-2*U20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.6653345369377348E-16</v>
+      </c>
+      <c r="B21">
+        <v>-0.15369757358319694</v>
+      </c>
+      <c r="C21">
+        <v>0.49094887932790887</v>
+      </c>
+      <c r="D21">
+        <v>5.3942067654685122E-2</v>
+      </c>
+      <c r="E21">
+        <v>-0.8035839078390733</v>
+      </c>
+      <c r="F21">
+        <v>-0.23360425182707642</v>
+      </c>
+      <c r="G21">
+        <v>-0.41727135189378928</v>
+      </c>
+      <c r="I21">
+        <f>B21</f>
+        <v>-0.15369757358319694</v>
+      </c>
+      <c r="J21">
+        <f>SQRT(SUMPRODUCT(I21:I27,I21:I27))</f>
+        <v>1.6057829852651515</v>
+      </c>
+      <c r="K21">
+        <f>I21+SIGN(I21)*J21</f>
+        <v>-1.7594805588483484</v>
+      </c>
+      <c r="L21">
+        <f>SQRT(SUMPRODUCT(K21:K27,K21:K27))</f>
+        <v>2.3771175588529476</v>
+      </c>
+      <c r="M21">
+        <f>K21/L21</f>
+        <v>-0.74017397763759174</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.54785751717185416</v>
+      </c>
+      <c r="Q21">
+        <v>0.28000820334724502</v>
+      </c>
+      <c r="R21">
+        <v>-0.11061033055703472</v>
+      </c>
+      <c r="S21">
+        <v>3.0058342781615184E-2</v>
+      </c>
+      <c r="T21">
+        <v>-0.27957640727838756</v>
+      </c>
+      <c r="U21">
+        <v>-0.2792918677745363</v>
+      </c>
+      <c r="W21">
+        <f>-2*O21</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f>1-2*P21</f>
+        <v>-9.5715034343708316E-2</v>
+      </c>
+      <c r="Y21">
+        <f>-2*Q21</f>
+        <v>-0.56001640669449004</v>
+      </c>
+      <c r="Z21">
+        <f>-2*R21</f>
+        <v>0.22122066111406943</v>
+      </c>
+      <c r="AA21">
+        <f>-2*S21</f>
+        <v>-6.0116685563230368E-2</v>
+      </c>
+      <c r="AB21">
+        <f>-2*T21</f>
+        <v>0.55915281455677512</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21:AC25" si="11">-2*U21</f>
+        <v>0.55858373554907259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8.3266726846886741E-17</v>
+      </c>
+      <c r="B22">
+        <v>-0.8992648173393416</v>
+      </c>
+      <c r="C22">
+        <v>-0.47697027273427967</v>
+      </c>
+      <c r="D22">
+        <v>-0.5923181548576828</v>
+      </c>
+      <c r="E22">
+        <v>-0.42503495907034128</v>
+      </c>
+      <c r="F22">
+        <v>0.36655740621617855</v>
+      </c>
+      <c r="G22">
+        <v>0.88880835210182907</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I26" si="12">B22</f>
+        <v>-0.8992648173393416</v>
+      </c>
+      <c r="K22">
+        <f>I22</f>
+        <v>-0.8992648173393416</v>
+      </c>
+      <c r="M22">
+        <f>K22/L21</f>
+        <v>-0.37830052367005024</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.28000820334724502</v>
+      </c>
+      <c r="Q22">
+        <v>0.14311128620903424</v>
+      </c>
+      <c r="R22">
+        <v>-5.6532581848657573E-2</v>
+      </c>
+      <c r="S22">
+        <v>1.5362721682315715E-2</v>
+      </c>
+      <c r="T22">
+        <v>-0.14289059663617354</v>
+      </c>
+      <c r="U22">
+        <v>-0.1427451694169469</v>
+      </c>
+      <c r="W22">
+        <f>-2*O22</f>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f>-2*P22</f>
+        <v>-0.56001640669449004</v>
+      </c>
+      <c r="Y22">
+        <f>1-2*Q22</f>
+        <v>0.71377742758193152</v>
+      </c>
+      <c r="Z22">
+        <f>-2*R22</f>
+        <v>0.11306516369731515</v>
+      </c>
+      <c r="AA22">
+        <f>-2*S22</f>
+        <v>-3.0725443364631431E-2</v>
+      </c>
+      <c r="AB22">
+        <f>-2*T22</f>
+        <v>0.28578119327234708</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="11"/>
+        <v>0.2854903388338938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7.6327832942979512E-17</v>
+      </c>
+      <c r="B23">
+        <v>0.3552323736060809</v>
+      </c>
+      <c r="C23">
+        <v>0.27273263545418885</v>
+      </c>
+      <c r="D23">
+        <v>-0.10724263940523737</v>
+      </c>
+      <c r="E23">
+        <v>-0.15453273751326888</v>
+      </c>
+      <c r="F23">
+        <v>-0.40628666572471112</v>
+      </c>
+      <c r="G23">
+        <v>-0.36476530926082645</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="12"/>
+        <v>0.3552323736060809</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K26" si="13">I23</f>
+        <v>0.3552323736060809</v>
+      </c>
+      <c r="M23">
+        <f>K23/L21</f>
+        <v>0.14943828599604239</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>-0.11061033055703472</v>
+      </c>
+      <c r="Q23">
+        <v>-5.6532581848657573E-2</v>
+      </c>
+      <c r="R23">
+        <v>2.233180132143496E-2</v>
+      </c>
+      <c r="S23">
+        <v>-6.0686640720641763E-3</v>
+      </c>
+      <c r="T23">
+        <v>5.6445403879180941E-2</v>
+      </c>
+      <c r="U23">
+        <v>5.6387956445147373E-2</v>
+      </c>
+      <c r="W23">
+        <f>-2*O23</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>-2*P23</f>
+        <v>0.22122066111406943</v>
+      </c>
+      <c r="Y23">
+        <f>-2*Q23</f>
+        <v>0.11306516369731515</v>
+      </c>
+      <c r="Z23">
+        <f>1-2*R23</f>
+        <v>0.95533639735713005</v>
+      </c>
+      <c r="AA23">
+        <f>-2*S23</f>
+        <v>1.2137328144128353E-2</v>
+      </c>
+      <c r="AB23">
+        <f>-2*T23</f>
+        <v>-0.11289080775836188</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="11"/>
+        <v>-0.11277591289029475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.4694469519536142E-17</v>
+      </c>
+      <c r="B24">
+        <v>-9.6534350807970515E-2</v>
+      </c>
+      <c r="C24">
+        <v>-0.1108995882911149</v>
+      </c>
+      <c r="D24">
+        <v>-0.48362657624744576</v>
+      </c>
+      <c r="E24">
+        <v>1.1744190168875965</v>
+      </c>
+      <c r="F24">
+        <v>-4.9912927930855161E-3</v>
+      </c>
+      <c r="G24">
+        <v>0.27665718705865039</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="12"/>
+        <v>-9.6534350807970515E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="13"/>
+        <v>-9.6534350807970515E-2</v>
+      </c>
+      <c r="M24">
+        <f>K24/L21</f>
+        <v>-4.0609834565587123E-2</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>3.0058342781615184E-2</v>
+      </c>
+      <c r="Q24">
+        <v>1.5362721682315715E-2</v>
+      </c>
+      <c r="R24">
+        <v>-6.0686640720641763E-3</v>
+      </c>
+      <c r="S24">
+        <v>1.6491586634443548E-3</v>
+      </c>
+      <c r="T24">
+        <v>-1.533903108057592E-2</v>
+      </c>
+      <c r="U24">
+        <v>-1.5323419747932675E-2</v>
+      </c>
+      <c r="W24">
+        <f>-2*O24</f>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f>-2*P24</f>
+        <v>-6.0116685563230368E-2</v>
+      </c>
+      <c r="Y24">
+        <f>-2*Q24</f>
+        <v>-3.0725443364631431E-2</v>
+      </c>
+      <c r="Z24">
+        <f>-2*R24</f>
+        <v>1.2137328144128353E-2</v>
+      </c>
+      <c r="AA24">
+        <f>1-2*S24</f>
+        <v>0.99670168267311132</v>
+      </c>
+      <c r="AB24">
+        <f>-2*T24</f>
+        <v>3.0678062161151841E-2</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="11"/>
+        <v>3.0646839495865351E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="B25">
+        <v>0.89787807577839018</v>
+      </c>
+      <c r="C25">
+        <v>0.46841105631576563</v>
+      </c>
+      <c r="D25">
+        <v>-0.73117111446288963</v>
+      </c>
+      <c r="E25">
+        <v>-0.36872975949084102</v>
+      </c>
+      <c r="F25">
+        <v>-0.22240742639883751</v>
+      </c>
+      <c r="G25">
+        <v>-1.1398724489664378</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="12"/>
+        <v>0.89787807577839018</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="13"/>
+        <v>0.89787807577839018</v>
+      </c>
+      <c r="M25">
+        <f>K25/L21</f>
+        <v>0.3777171526222925</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>-0.27957640727838756</v>
+      </c>
+      <c r="Q25">
+        <v>-0.14289059663617354</v>
+      </c>
+      <c r="R25">
+        <v>5.6445403879180941E-2</v>
+      </c>
+      <c r="S25">
+        <v>-1.533903108057592E-2</v>
+      </c>
+      <c r="T25">
+        <v>0.14267024738509221</v>
+      </c>
+      <c r="U25">
+        <v>0.14252504442680083</v>
+      </c>
+      <c r="W25">
+        <f>-2*O25</f>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f>-2*P25</f>
+        <v>0.55915281455677512</v>
+      </c>
+      <c r="Y25">
+        <f>-2*Q25</f>
+        <v>0.28578119327234708</v>
+      </c>
+      <c r="Z25">
+        <f>-2*R25</f>
+        <v>-0.11289080775836188</v>
+      </c>
+      <c r="AA25">
+        <f>-2*S25</f>
+        <v>3.0678062161151841E-2</v>
+      </c>
+      <c r="AB25">
+        <f>1-2*T25</f>
+        <v>0.71465950522981558</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="11"/>
+        <v>-0.28505008885360167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-2.2204460492503131E-16</v>
+      </c>
+      <c r="B26">
+        <v>0.89696425839054994</v>
+      </c>
+      <c r="C26">
+        <v>-0.77622159767383836</v>
+      </c>
+      <c r="D26">
+        <v>0.31712233952764374</v>
+      </c>
+      <c r="E26">
+        <v>0.8360566715765122</v>
+      </c>
+      <c r="F26">
+        <v>-0.32278852274197195</v>
+      </c>
+      <c r="G26">
+        <v>0.58034306488334808</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="12"/>
+        <v>0.89696425839054994</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="13"/>
+        <v>0.89696425839054994</v>
+      </c>
+      <c r="M26">
+        <f>K26/L21</f>
+        <v>0.3773327301588611</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>-0.2792918677745363</v>
+      </c>
+      <c r="Q26">
+        <v>-0.1427451694169469</v>
+      </c>
+      <c r="R26">
+        <v>5.6387956445147373E-2</v>
+      </c>
+      <c r="S26">
+        <v>-1.5323419747932675E-2</v>
+      </c>
+      <c r="T26">
+        <v>0.14252504442680083</v>
+      </c>
+      <c r="U26">
+        <v>0.14237998924913989</v>
+      </c>
+      <c r="W26">
+        <f>-2*O26</f>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26" si="14">-2*P26</f>
+        <v>0.55858373554907259</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" ref="Y26" si="15">-2*Q26</f>
+        <v>0.2854903388338938</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" ref="Z26" si="16">-2*R26</f>
+        <v>-0.11277591289029475</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ref="AA26" si="17">-2*S26</f>
+        <v>3.0646839495865351E-2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" ref="AB26" si="18">-2*T26</f>
+        <v>-0.28505008885360167</v>
+      </c>
+      <c r="AC26">
+        <f>1-2*U26</f>
+        <v>0.71524002150172028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="array" ref="A28:G34">MMULT(W20:AC26,A20:G26)</f>
+        <v>-1.6168830413006341</v>
+      </c>
+      <c r="B28">
+        <v>3.8110757025107855E-2</v>
+      </c>
+      <c r="C28">
+        <v>-0.25495429898564309</v>
+      </c>
+      <c r="D28">
+        <v>-0.79694523284919394</v>
+      </c>
+      <c r="E28">
+        <v>0.60284187745153961</v>
+      </c>
+      <c r="F28">
+        <v>0.77095846964926973</v>
+      </c>
+      <c r="G28">
+        <v>0.97062128571378758</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="array" ref="O28:U34">MMULT(M28:M34,TRANSPOSE(M28:M34))</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f>1-2*O28</f>
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <f>-2*P28</f>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f>-2*Q28</f>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f>-2*R28</f>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f>-2*S28</f>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f>-2*T28</f>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f>-2*U28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-2.3387984903355112E-16</v>
+      </c>
+      <c r="B29">
+        <v>1.6057829852651513</v>
+      </c>
+      <c r="C29">
+        <v>0.1154495998577636</v>
+      </c>
+      <c r="D29">
+        <v>0.10019755153548998</v>
+      </c>
+      <c r="E29">
+        <v>0.47098497463060413</v>
+      </c>
+      <c r="F29">
+        <v>-0.5771618245788438</v>
+      </c>
+      <c r="G29">
+        <v>-0.86832614478909775</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f>-2*O29</f>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f>1-2*P29</f>
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <f>-2*Q29</f>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f>-2*R29</f>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f>-2*S29</f>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f>-2*T29</f>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" ref="AC29:AC33" si="19">-2*U29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1.2138321584586767E-16</v>
+      </c>
+      <c r="B30">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="C30">
+        <v>-0.66888673879901162</v>
+      </c>
+      <c r="D30">
+        <v>-0.56867712679753701</v>
+      </c>
+      <c r="E30">
+        <v>0.22639307036507425</v>
+      </c>
+      <c r="F30">
+        <v>0.1909662430444834</v>
+      </c>
+      <c r="G30">
+        <v>0.65827570773517152</v>
+      </c>
+      <c r="I30">
+        <f>C30</f>
+        <v>-0.66888673879901162</v>
+      </c>
+      <c r="J30">
+        <f>SQRT(SUMPRODUCT(I30:I36,I30:I36))</f>
+        <v>1.167824271274291</v>
+      </c>
+      <c r="K30">
+        <f>I30+SIGN(I30)*J30</f>
+        <v>-1.8367110100733026</v>
+      </c>
+      <c r="L30">
+        <f>SQRT(SUMPRODUCT(K30:K36,K30:K36))</f>
+        <v>2.0712101278626087</v>
+      </c>
+      <c r="M30">
+        <f>K30/L30</f>
+        <v>-0.88678158983738742</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0.78638158807452441</v>
+      </c>
+      <c r="R30">
+        <v>-0.14922814491050743</v>
+      </c>
+      <c r="S30">
+        <v>5.6301900687966436E-2</v>
+      </c>
+      <c r="T30">
+        <v>-0.28259027808102172</v>
+      </c>
+      <c r="U30">
+        <v>0.25037846850616985</v>
+      </c>
+      <c r="W30">
+        <f>-2*O30</f>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f>-2*P30</f>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f>1-2*Q30</f>
+        <v>-0.57276317614904881</v>
+      </c>
+      <c r="Z30">
+        <f>-2*R30</f>
+        <v>0.29845628982101485</v>
+      </c>
+      <c r="AA30">
+        <f>-2*S30</f>
+        <v>-0.11260380137593287</v>
+      </c>
+      <c r="AB30">
+        <f>-2*T30</f>
+        <v>0.56518055616204343</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="19"/>
+        <v>-0.5007569370123397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.5716974235536851E-16</v>
+      </c>
+      <c r="B31">
+        <v>2.7755575615628914E-17</v>
+      </c>
+      <c r="C31">
+        <v>0.34854449916745533</v>
+      </c>
+      <c r="D31">
+        <v>-0.11658144411589084</v>
+      </c>
+      <c r="E31">
+        <v>-0.41186330429174395</v>
+      </c>
+      <c r="F31">
+        <v>-0.33692371003576838</v>
+      </c>
+      <c r="G31">
+        <v>-0.27369907729775417</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I34" si="20">C31</f>
+        <v>0.34854449916745533</v>
+      </c>
+      <c r="K31">
+        <f>I31</f>
+        <v>0.34854449916745533</v>
+      </c>
+      <c r="M31">
+        <f>K31/L30</f>
+        <v>0.16828060778513904</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>-0.14922814491050743</v>
+      </c>
+      <c r="R31">
+        <v>2.8318362956535798E-2</v>
+      </c>
+      <c r="S31">
+        <v>-1.0684161890378113E-2</v>
+      </c>
+      <c r="T31">
+        <v>5.3625903260312427E-2</v>
+      </c>
+      <c r="U31">
+        <v>-4.7513211076311138E-2</v>
+      </c>
+      <c r="W31">
+        <f>-2*O31</f>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f>-2*P31</f>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f>-2*Q31</f>
+        <v>0.29845628982101485</v>
+      </c>
+      <c r="Z31">
+        <f>1-2*R31</f>
+        <v>0.94336327408692844</v>
+      </c>
+      <c r="AA31">
+        <f>-2*S31</f>
+        <v>2.1368323780756225E-2</v>
+      </c>
+      <c r="AB31">
+        <f>-2*T31</f>
+        <v>-0.10725180652062485</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="19"/>
+        <v>9.5026422152622275E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.2725691268892652E-17</v>
+      </c>
+      <c r="B32">
+        <v>-1.3877787807814457E-17</v>
+      </c>
+      <c r="C32">
+        <v>-0.13150145228456384</v>
+      </c>
+      <c r="D32">
+        <v>-0.48108875729554745</v>
+      </c>
+      <c r="E32">
+        <v>1.2443485645660235</v>
+      </c>
+      <c r="F32">
+        <v>-2.3840666879072502E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.25190995049954207</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="20"/>
+        <v>-0.13150145228456384</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:K34" si="21">I32</f>
+        <v>-0.13150145228456384</v>
+      </c>
+      <c r="M32">
+        <f>K32/L30</f>
+        <v>-6.3490155110561927E-2</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>5.6301900687966436E-2</v>
+      </c>
+      <c r="R32">
+        <v>-1.0684161890378113E-2</v>
+      </c>
+      <c r="S32">
+        <v>4.0309997959632124E-3</v>
+      </c>
+      <c r="T32">
+        <v>-2.0232378292146254E-2</v>
+      </c>
+      <c r="U32">
+        <v>1.7926136473713539E-2</v>
+      </c>
+      <c r="W32">
+        <f>-2*O32</f>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f>-2*P32</f>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f>-2*Q32</f>
+        <v>-0.11260380137593287</v>
+      </c>
+      <c r="Z32">
+        <f>-2*R32</f>
+        <v>2.1368323780756225E-2</v>
+      </c>
+      <c r="AA32">
+        <f>1-2*S32</f>
+        <v>0.99193800040807356</v>
+      </c>
+      <c r="AB32">
+        <f>-2*T32</f>
+        <v>4.0464756584292508E-2</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="19"/>
+        <v>-3.5852272947427079E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9.3312052902116652E-17</v>
+      </c>
+      <c r="B33">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="C33">
+        <v>0.66003157113833699</v>
+      </c>
+      <c r="D33">
+        <v>-0.75477568608048096</v>
+      </c>
+      <c r="E33">
+        <v>-1.0191532324207995</v>
+      </c>
+      <c r="F33">
+        <v>-4.7087039486828006E-2</v>
+      </c>
+      <c r="G33">
+        <v>-0.90969530521865816</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="20"/>
+        <v>0.66003157113833699</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="21"/>
+        <v>0.66003157113833699</v>
+      </c>
+      <c r="M33">
+        <f>K33/L30</f>
+        <v>0.31866953635431405</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>-0.28259027808102172</v>
+      </c>
+      <c r="R33">
+        <v>5.3625903260312427E-2</v>
+      </c>
+      <c r="S33">
+        <v>-2.0232378292146254E-2</v>
+      </c>
+      <c r="T33">
+        <v>0.10155027340027349</v>
+      </c>
+      <c r="U33">
+        <v>-8.9974793552711679E-2</v>
+      </c>
+      <c r="W33">
+        <f>-2*O33</f>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f>-2*P33</f>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f>-2*Q33</f>
+        <v>0.56518055616204343</v>
+      </c>
+      <c r="Z33">
+        <f>-2*R33</f>
+        <v>-0.10725180652062485</v>
+      </c>
+      <c r="AA33">
+        <f>-2*S33</f>
+        <v>4.0464756584292508E-2</v>
+      </c>
+      <c r="AB33">
+        <f>1-2*T33</f>
+        <v>0.79689945319945299</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="19"/>
+        <v>0.17994958710542336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1.7918211300308401E-17</v>
+      </c>
+      <c r="B34">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="C34">
+        <v>-0.58479610505198176</v>
+      </c>
+      <c r="D34">
+        <v>0.29354179151476956</v>
+      </c>
+      <c r="E34">
+        <v>0.18629516856770084</v>
+      </c>
+      <c r="F34">
+        <v>-0.14764656853961983</v>
+      </c>
+      <c r="G34">
+        <v>0.8102859453364617</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="20"/>
+        <v>-0.58479610505198176</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="21"/>
+        <v>-0.58479610505198176</v>
+      </c>
+      <c r="M34">
+        <f>K34/L30</f>
+        <v>-0.28234513591118049</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0.25037846850616985</v>
+      </c>
+      <c r="R34">
+        <v>-4.7513211076311138E-2</v>
+      </c>
+      <c r="S34">
+        <v>1.7926136473713539E-2</v>
+      </c>
+      <c r="T34">
+        <v>-8.9974793552711679E-2</v>
+      </c>
+      <c r="U34">
+        <v>7.9718775772702977E-2</v>
+      </c>
+      <c r="W34">
+        <f>-2*O34</f>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34" si="22">-2*P34</f>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ref="Y34" si="23">-2*Q34</f>
+        <v>-0.5007569370123397</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" ref="Z34" si="24">-2*R34</f>
+        <v>9.5026422152622275E-2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" ref="AA34" si="25">-2*S34</f>
+        <v>-3.5852272947427079E-2</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" ref="AB34" si="26">-2*T34</f>
+        <v>0.17994958710542336</v>
+      </c>
+      <c r="AC34">
+        <f>1-2*U34</f>
+        <v>0.84056244845459405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="array" ref="A36:G42">MMULT(W28:AC34,A28:G34)</f>
+        <v>-1.6168830413006341</v>
+      </c>
+      <c r="B36">
+        <v>3.8110757025107855E-2</v>
+      </c>
+      <c r="C36">
+        <v>-0.25495429898564309</v>
+      </c>
+      <c r="D36">
+        <v>-0.79694523284919394</v>
+      </c>
+      <c r="E36">
+        <v>0.60284187745153961</v>
+      </c>
+      <c r="F36">
+        <v>0.77095846964926973</v>
+      </c>
+      <c r="G36">
+        <v>0.97062128571378758</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="array" ref="O36:U42">MMULT(M36:M42,TRANSPOSE(M36:M42))</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f>1-2*O36</f>
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f>-2*P36</f>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f>-2*Q36</f>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f>-2*R36</f>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f>-2*S36</f>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f>-2*T36</f>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f>-2*U36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-2.3387984903355112E-16</v>
+      </c>
+      <c r="B37">
+        <v>1.6057829852651513</v>
+      </c>
+      <c r="C37">
+        <v>0.1154495998577636</v>
+      </c>
+      <c r="D37">
+        <v>0.10019755153548998</v>
+      </c>
+      <c r="E37">
+        <v>0.47098497463060413</v>
+      </c>
+      <c r="F37">
+        <v>-0.5771618245788438</v>
+      </c>
+      <c r="G37">
+        <v>-0.86832614478909775</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f>-2*O37</f>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f>1-2*P37</f>
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f>-2*Q37</f>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f>-2*R37</f>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f>-2*S37</f>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f>-2*T37</f>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" ref="AC37:AC41" si="27">-2*U37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.7670999976588165E-16</v>
+      </c>
+      <c r="B38">
+        <v>8.0588462894714861E-17</v>
+      </c>
+      <c r="C38">
+        <v>1.1678242712742908</v>
+      </c>
+      <c r="D38">
+        <v>-0.22848235549483489</v>
+      </c>
+      <c r="E38">
+        <v>-1.0620053750656835</v>
+      </c>
+      <c r="F38">
+        <v>-0.15992851837840255</v>
+      </c>
+      <c r="G38">
+        <v>-1.4069877209448698</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f>-2*O38</f>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f>-2*P38</f>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f>1-2*Q38</f>
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <f>-2*R38</f>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f>-2*S38</f>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f>-2*T38</f>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.0060191542408288E-16</v>
+      </c>
+      <c r="B39">
+        <v>-8.6055491776848408E-18</v>
+      </c>
+      <c r="C39">
+        <v>4.8572257327350599E-17</v>
+      </c>
+      <c r="D39">
+        <v>-0.18113869647229455</v>
+      </c>
+      <c r="E39">
+        <v>-0.16736964773503313</v>
+      </c>
+      <c r="F39">
+        <v>-0.27033596802852555</v>
+      </c>
+      <c r="G39">
+        <v>0.11821680029554137</v>
+      </c>
+      <c r="I39">
+        <f>D39</f>
+        <v>-0.18113869647229455</v>
+      </c>
+      <c r="J39">
+        <f>SQRT(SUMPRODUCT(I39:I45,I39:I45))</f>
+        <v>1.0826265436162721</v>
+      </c>
+      <c r="K39">
+        <f>I39+SIGN(I39)*J39</f>
+        <v>-1.2637652400885666</v>
+      </c>
+      <c r="L39">
+        <f>SQRT(SUMPRODUCT(K39:K45,K39:K45))</f>
+        <v>1.6541981706068187</v>
+      </c>
+      <c r="M39">
+        <f>K39/L39</f>
+        <v>-0.76397451196852217</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0.58365705493754161</v>
+      </c>
+      <c r="S39">
+        <v>0.21093705917302863</v>
+      </c>
+      <c r="T39">
+        <v>0.40504569017227943</v>
+      </c>
+      <c r="U39">
+        <v>-0.18559375824491822</v>
+      </c>
+      <c r="W39">
+        <f>-2*O39</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f>-2*P39</f>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f>-2*Q39</f>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f>1-2*R39</f>
+        <v>-0.16731410987508322</v>
+      </c>
+      <c r="AA39">
+        <f>-2*S39</f>
+        <v>-0.42187411834605726</v>
+      </c>
+      <c r="AB39">
+        <f>-2*T39</f>
+        <v>-0.81009138034455885</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="27"/>
+        <v>0.37118751648983644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.4068020331076581E-17</v>
+      </c>
+      <c r="B40">
+        <v>-1.5919311347166105E-19</v>
+      </c>
+      <c r="C40">
+        <v>-1.0408340855860843E-17</v>
+      </c>
+      <c r="D40">
+        <v>-0.45673211858615409</v>
+      </c>
+      <c r="E40">
+        <v>1.1521041854742049</v>
+      </c>
+      <c r="F40">
+        <v>-4.8963383775245235E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.10404502306559353</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:I42" si="28">D40</f>
+        <v>-0.45673211858615409</v>
+      </c>
+      <c r="K40">
+        <f>I40</f>
+        <v>-0.45673211858615409</v>
+      </c>
+      <c r="M40">
+        <f>K40/L39</f>
+        <v>-0.27610483840555117</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0.21093705917302863</v>
+      </c>
+      <c r="S40">
+        <v>7.6233881790955527E-2</v>
+      </c>
+      <c r="T40">
+        <v>0.14638587162249475</v>
+      </c>
+      <c r="U40">
+        <v>-6.7074665223129118E-2</v>
+      </c>
+      <c r="W40">
+        <f>-2*O40</f>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f>-2*P40</f>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f>-2*Q40</f>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f>-2*R40</f>
+        <v>-0.42187411834605726</v>
+      </c>
+      <c r="AA40">
+        <f>1-2*S40</f>
+        <v>0.84753223641808895</v>
+      </c>
+      <c r="AB40">
+        <f>-2*T40</f>
+        <v>-0.2927717432449895</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="27"/>
+        <v>0.13414933044625824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-1.3809281029479739E-17</v>
+      </c>
+      <c r="B41">
+        <v>4.2165986029423254E-17</v>
+      </c>
+      <c r="C41">
+        <v>8.3266726846886741E-17</v>
+      </c>
+      <c r="D41">
+        <v>-0.87702643111576462</v>
+      </c>
+      <c r="E41">
+        <v>-0.55616060836291048</v>
+      </c>
+      <c r="F41">
+        <v>7.9008802164884095E-2</v>
+      </c>
+      <c r="G41">
+        <v>-0.16753224408916981</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="28"/>
+        <v>-0.87702643111576462</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:K42" si="29">I41</f>
+        <v>-0.87702643111576462</v>
+      </c>
+      <c r="M41">
+        <f>K41/L39</f>
+        <v>-0.53018220349865341</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0.40504569017227943</v>
+      </c>
+      <c r="S41">
+        <v>0.14638587162249475</v>
+      </c>
+      <c r="T41">
+        <v>0.28109316890668756</v>
+      </c>
+      <c r="U41">
+        <v>-0.12879815512214549</v>
+      </c>
+      <c r="W41">
+        <f>-2*O41</f>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f>-2*P41</f>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f>-2*Q41</f>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f>-2*R41</f>
+        <v>-0.81009138034455885</v>
+      </c>
+      <c r="AA41">
+        <f>-2*S41</f>
+        <v>-0.2927717432449895</v>
+      </c>
+      <c r="AB41">
+        <f>1-2*T41</f>
+        <v>0.43781366218662487</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="27"/>
+        <v>0.25759631024429097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7.6992610530728798E-17</v>
+      </c>
+      <c r="B42">
+        <v>1.7202984728170068E-16</v>
+      </c>
+      <c r="C42">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+      <c r="D42">
+        <v>0.40185745801089956</v>
+      </c>
+      <c r="E42">
+        <v>-0.22392200142294755</v>
+      </c>
+      <c r="F42">
+        <v>-0.25936903801785233</v>
+      </c>
+      <c r="G42">
+        <v>0.15272032811386538</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="28"/>
+        <v>0.40185745801089956</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="29"/>
+        <v>0.40185745801089956</v>
+      </c>
+      <c r="M42">
+        <f>K42/L39</f>
+        <v>0.24293187185878942</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>-0.18559375824491822</v>
+      </c>
+      <c r="S42">
+        <v>-6.7074665223129118E-2</v>
+      </c>
+      <c r="T42">
+        <v>-0.12879815512214549</v>
+      </c>
+      <c r="U42">
+        <v>5.9015894364815281E-2</v>
+      </c>
+      <c r="W42">
+        <f>-2*O42</f>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42" si="30">-2*P42</f>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42" si="31">-2*Q42</f>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" ref="Z42" si="32">-2*R42</f>
+        <v>0.37118751648983644</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" ref="AA42" si="33">-2*S42</f>
+        <v>0.13414933044625824</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" ref="AB42" si="34">-2*T42</f>
+        <v>0.25759631024429097</v>
+      </c>
+      <c r="AC42">
+        <f>1-2*U42</f>
+        <v>0.8819682112703694</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="array" ref="A44:G50">MMULT(W36:AC42,A36:G42)</f>
+        <v>-1.6168830413006341</v>
+      </c>
+      <c r="B44">
+        <v>3.8110757025107855E-2</v>
+      </c>
+      <c r="C44">
+        <v>-0.25495429898564309</v>
+      </c>
+      <c r="D44">
+        <v>-0.79694523284919394</v>
+      </c>
+      <c r="E44">
+        <v>0.60284187745153961</v>
+      </c>
+      <c r="F44">
+        <v>0.77095846964926973</v>
+      </c>
+      <c r="G44">
+        <v>0.97062128571378758</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="array" ref="O44:U50">MMULT(M44:M50,TRANSPOSE(M44:M50))</f>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f>1-2*O44</f>
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <f>-2*P44</f>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f>-2*Q44</f>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f>-2*R44</f>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f>-2*S44</f>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f>-2*T44</f>
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f>-2*U44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-2.3387984903355112E-16</v>
+      </c>
+      <c r="B45">
+        <v>1.6057829852651513</v>
+      </c>
+      <c r="C45">
+        <v>0.1154495998577636</v>
+      </c>
+      <c r="D45">
+        <v>0.10019755153548998</v>
+      </c>
+      <c r="E45">
+        <v>0.47098497463060413</v>
+      </c>
+      <c r="F45">
+        <v>-0.5771618245788438</v>
+      </c>
+      <c r="G45">
+        <v>-0.86832614478909775</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f>-2*O45</f>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f>1-2*P45</f>
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <f>-2*Q45</f>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f>-2*R45</f>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f>-2*S45</f>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f>-2*T45</f>
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" ref="AC45:AC49" si="35">-2*U45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.7670999976588165E-16</v>
+      </c>
+      <c r="B46">
+        <v>8.0588462894714861E-17</v>
+      </c>
+      <c r="C46">
+        <v>1.1678242712742908</v>
+      </c>
+      <c r="D46">
+        <v>-0.22848235549483489</v>
+      </c>
+      <c r="E46">
+        <v>-1.0620053750656835</v>
+      </c>
+      <c r="F46">
+        <v>-0.15992851837840255</v>
+      </c>
+      <c r="G46">
+        <v>-1.4069877209448698</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f>-2*O46</f>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f>-2*P46</f>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f>1-2*Q46</f>
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <f>-2*R46</f>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f>-2*S46</f>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f>-2*T46</f>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8.560939449830308E-18</v>
+      </c>
+      <c r="B47">
+        <v>3.120401920349866E-17</v>
+      </c>
+      <c r="C47">
+        <v>-1.1239956479155008E-16</v>
+      </c>
+      <c r="D47">
+        <v>1.0826265436162719</v>
+      </c>
+      <c r="E47">
+        <v>-9.0615770532477075E-2</v>
+      </c>
+      <c r="F47">
+        <v>-9.4391492461992757E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.12873106508869434</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f>-2*O47</f>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f>-2*P47</f>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f>-2*Q47</f>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f>1-2*R47</f>
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <f>-2*S47</f>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f>-2*T47</f>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8.0387552004221581E-19</v>
+      </c>
+      <c r="B48">
+        <v>1.422821677087052E-17</v>
+      </c>
+      <c r="C48">
+        <v>-6.8584494952239207E-17</v>
+      </c>
+      <c r="D48">
+        <v>-5.5511151231257827E-17</v>
+      </c>
+      <c r="E48">
+        <v>1.1798434837492295</v>
+      </c>
+      <c r="F48">
+        <v>1.462397448553477E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.10784493960231992</v>
+      </c>
+      <c r="I48">
+        <f>E48</f>
+        <v>1.1798434837492295</v>
+      </c>
+      <c r="J48">
+        <f>SQRT(SUMPRODUCT(I48:I54,I48:I54))</f>
+        <v>1.3063694425072858</v>
+      </c>
+      <c r="K48">
+        <f>I48+SIGN(I48)*J48</f>
+        <v>2.4862129262565151</v>
+      </c>
+      <c r="L48">
+        <f>SQRT(SUMPRODUCT(K48:K54,K48:K54))</f>
+        <v>2.5486908774616555</v>
+      </c>
+      <c r="M48">
+        <f>K48/L48</f>
+        <v>0.97548625776564768</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0.95157343908962766</v>
+      </c>
+      <c r="T48">
+        <v>-0.19247810746202701</v>
+      </c>
+      <c r="U48">
+        <v>-9.5045290554570103E-2</v>
+      </c>
+      <c r="W48">
+        <f>-2*O48</f>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f>-2*P48</f>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f>-2*Q48</f>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f>-2*R48</f>
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f>1-2*S48</f>
+        <v>-0.90314687817925532</v>
+      </c>
+      <c r="AB48">
+        <f>-2*T48</f>
+        <v>0.38495621492405402</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="35"/>
+        <v>0.19009058110914021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-7.7683777743326239E-17</v>
+      </c>
+      <c r="B49">
+        <v>6.9792987132224221E-17</v>
+      </c>
+      <c r="C49">
+        <v>-2.8444323738146981E-17</v>
+      </c>
+      <c r="D49">
+        <v>1.3877787807814457E-17</v>
+      </c>
+      <c r="E49">
+        <v>-0.50289503588005136</v>
+      </c>
+      <c r="F49">
+        <v>0.20111055855583926</v>
+      </c>
+      <c r="G49">
+        <v>-0.16023556600780489</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:I50" si="36">E49</f>
+        <v>-0.50289503588005136</v>
+      </c>
+      <c r="K49">
+        <f>I49</f>
+        <v>-0.50289503588005136</v>
+      </c>
+      <c r="M49">
+        <f>K49/L48</f>
+        <v>-0.19731503742851111</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>-0.19247810746202701</v>
+      </c>
+      <c r="T49">
+        <v>3.893322399541474E-2</v>
+      </c>
+      <c r="U49">
+        <v>1.9225145319970431E-2</v>
+      </c>
+      <c r="W49">
+        <f>-2*O49</f>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f>-2*P49</f>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f>-2*Q49</f>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f>-2*R49</f>
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <f>-2*S49</f>
+        <v>0.38495621492405402</v>
+      </c>
+      <c r="AB49">
+        <f>1-2*T49</f>
+        <v>0.92213355200917047</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="35"/>
+        <v>-3.8450290639940862E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.0626019240793195E-16</v>
+      </c>
+      <c r="B50">
+        <v>1.5937103103426824E-16</v>
+      </c>
+      <c r="C50">
+        <v>-5.9835796301331223E-17</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>-0.24832852646943349</v>
+      </c>
+      <c r="F50">
+        <v>-0.31531661234524289</v>
+      </c>
+      <c r="G50">
+        <v>0.14937695737648551</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="36"/>
+        <v>-0.24832852646943349</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50" si="37">I50</f>
+        <v>-0.24832852646943349</v>
+      </c>
+      <c r="M50">
+        <f>K50/L48</f>
+        <v>-9.7433756547500153E-2</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>-9.5045290554570103E-2</v>
+      </c>
+      <c r="T50">
+        <v>1.9225145319970431E-2</v>
+      </c>
+      <c r="U50">
+        <v>9.4933369149575297E-3</v>
+      </c>
+      <c r="W50">
+        <f>-2*O50</f>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" ref="X50" si="38">-2*P50</f>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" ref="Y50" si="39">-2*Q50</f>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" ref="Z50" si="40">-2*R50</f>
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" ref="AA50" si="41">-2*S50</f>
+        <v>0.19009058110914021</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" ref="AB50" si="42">-2*T50</f>
+        <v>-3.8450290639940862E-2</v>
+      </c>
+      <c r="AC50">
+        <f>1-2*U50</f>
+        <v>0.98101332617008496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="array" ref="A52:G58">MMULT(W44:AC50,A44:G50)</f>
+        <v>-1.6168830413006341</v>
+      </c>
+      <c r="B52">
+        <v>3.8110757025107855E-2</v>
+      </c>
+      <c r="C52">
+        <v>-0.25495429898564309</v>
+      </c>
+      <c r="D52">
+        <v>-0.79694523284919394</v>
+      </c>
+      <c r="E52">
+        <v>0.60284187745153961</v>
+      </c>
+      <c r="F52">
+        <v>0.77095846964926973</v>
+      </c>
+      <c r="G52">
+        <v>0.97062128571378758</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="array" ref="O52:U58">MMULT(M52:M58,TRANSPOSE(M52:M58))</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>1-2*O52</f>
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <f>-2*P52</f>
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f>-2*Q52</f>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f>-2*R52</f>
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <f>-2*S52</f>
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <f>-2*T52</f>
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <f>-2*U52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-2.3387984903355112E-16</v>
+      </c>
+      <c r="B53">
+        <v>1.6057829852651513</v>
+      </c>
+      <c r="C53">
+        <v>0.1154495998577636</v>
+      </c>
+      <c r="D53">
+        <v>0.10019755153548998</v>
+      </c>
+      <c r="E53">
+        <v>0.47098497463060413</v>
+      </c>
+      <c r="F53">
+        <v>-0.5771618245788438</v>
+      </c>
+      <c r="G53">
+        <v>-0.86832614478909775</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f>-2*O53</f>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f>1-2*P53</f>
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <f>-2*Q53</f>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f>-2*R53</f>
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <f>-2*S53</f>
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <f>-2*T53</f>
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" ref="AC53:AC57" si="43">-2*U53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.7670999976588165E-16</v>
+      </c>
+      <c r="B54">
+        <v>8.0588462894714861E-17</v>
+      </c>
+      <c r="C54">
+        <v>1.1678242712742908</v>
+      </c>
+      <c r="D54">
+        <v>-0.22848235549483489</v>
+      </c>
+      <c r="E54">
+        <v>-1.0620053750656835</v>
+      </c>
+      <c r="F54">
+        <v>-0.15992851837840255</v>
+      </c>
+      <c r="G54">
+        <v>-1.4069877209448698</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f>-2*O54</f>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f>-2*P54</f>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f>1-2*Q54</f>
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <f>-2*R54</f>
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f>-2*S54</f>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f>-2*T54</f>
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8.560939449830308E-18</v>
+      </c>
+      <c r="B55">
+        <v>3.120401920349866E-17</v>
+      </c>
+      <c r="C55">
+        <v>-1.1239956479155008E-16</v>
+      </c>
+      <c r="D55">
+        <v>1.0826265436162719</v>
+      </c>
+      <c r="E55">
+        <v>-9.0615770532477075E-2</v>
+      </c>
+      <c r="F55">
+        <v>-9.4391492461992757E-2</v>
+      </c>
+      <c r="G55">
+        <v>0.12873106508869434</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f>-2*O55</f>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f>-2*P55</f>
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <f>-2*Q55</f>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f>1-2*R55</f>
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <f>-2*S55</f>
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <f>-2*T55</f>
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-1.0431808983850363E-17</v>
+      </c>
+      <c r="B56">
+        <v>4.4312006497261679E-17</v>
+      </c>
+      <c r="C56">
+        <v>3.961783201525606E-17</v>
+      </c>
+      <c r="D56">
+        <v>5.5477063604662469E-17</v>
+      </c>
+      <c r="E56">
+        <v>-1.3063694425072856</v>
+      </c>
+      <c r="F56">
+        <v>4.2724444256616798E-3</v>
+      </c>
+      <c r="G56">
+        <v>-0.13068834488383216</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f>-2*O56</f>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f>-2*P56</f>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f>-2*Q56</f>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f>-2*R56</f>
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f>1-2*S56</f>
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <f>-2*T56</f>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-7.5411096308019821E-17</v>
+      </c>
+      <c r="B57">
+        <v>6.3707833139946868E-17</v>
+      </c>
+      <c r="C57">
+        <v>-5.0330789103989649E-17</v>
+      </c>
+      <c r="D57">
+        <v>-8.5721888988122498E-18</v>
+      </c>
+      <c r="E57">
+        <v>6.9388939039072284E-18</v>
+      </c>
+      <c r="F57">
+        <v>0.20320439896101788</v>
+      </c>
+      <c r="G57">
+        <v>-0.11198659931899065</v>
+      </c>
+      <c r="I57">
+        <f>F57</f>
+        <v>0.20320439896101788</v>
+      </c>
+      <c r="J57">
+        <f>SQRT(SUMPRODUCT(I57:I63,I57:I63))</f>
+        <v>0.37425342968622877</v>
+      </c>
+      <c r="K57">
+        <f>I57+SIGN(I57)*J57</f>
+        <v>0.57745782864724671</v>
+      </c>
+      <c r="L57">
+        <f>SQRT(SUMPRODUCT(K57:K63,K57:K63))</f>
+        <v>0.65744288401410922</v>
+      </c>
+      <c r="M57">
+        <f>K57/L57</f>
+        <v>0.87833915719263311</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0.77147967505786508</v>
+      </c>
+      <c r="U57">
+        <v>-0.4198794898902255</v>
+      </c>
+      <c r="W57">
+        <f>-2*O57</f>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f>-2*P57</f>
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <f>-2*Q57</f>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f>-2*R57</f>
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <f>-2*S57</f>
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <f>1-2*T57</f>
+        <v>-0.54295935011573015</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="43"/>
+        <v>0.839758979780451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.0738243779056223E-16</v>
+      </c>
+      <c r="B58">
+        <v>1.5636619460434123E-16</v>
+      </c>
+      <c r="C58">
+        <v>-7.0643287539364332E-17</v>
+      </c>
+      <c r="D58">
+        <v>-1.1085751970237058E-17</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>-0.31428267829264228</v>
+      </c>
+      <c r="G58">
+        <v>0.17320219713161372</v>
+      </c>
+      <c r="I58">
+        <f>F58</f>
+        <v>-0.31428267829264228</v>
+      </c>
+      <c r="K58">
+        <f>I58</f>
+        <v>-0.31428267829264228</v>
+      </c>
+      <c r="M58">
+        <f>K58/L57</f>
+        <v>-0.47803799529131041</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>-0.4198794898902255</v>
+      </c>
+      <c r="U58">
+        <v>0.22852032494213492</v>
+      </c>
+      <c r="W58">
+        <f>-2*O58</f>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f t="shared" ref="X58" si="44">-2*P58</f>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" ref="Y58" si="45">-2*Q58</f>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" ref="Z58" si="46">-2*R58</f>
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" ref="AA58" si="47">-2*S58</f>
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" ref="AB58" si="48">-2*T58</f>
+        <v>0.839758979780451</v>
+      </c>
+      <c r="AC58">
+        <f>1-2*U58</f>
+        <v>0.54295935011573015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="array" ref="A60:G66">MMULT(W52:AC58,A52:G58)</f>
+        <v>-1.6168830413006341</v>
+      </c>
+      <c r="B60">
+        <v>3.8110757025107855E-2</v>
+      </c>
+      <c r="C60">
+        <v>-0.25495429898564309</v>
+      </c>
+      <c r="D60">
+        <v>-0.79694523284919394</v>
+      </c>
+      <c r="E60">
+        <v>0.60284187745153961</v>
+      </c>
+      <c r="F60">
+        <v>0.77095846964926973</v>
+      </c>
+      <c r="G60">
+        <v>0.97062128571378758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-2.3387984903355112E-16</v>
+      </c>
+      <c r="B61">
+        <v>1.6057829852651513</v>
+      </c>
+      <c r="C61">
+        <v>0.1154495998577636</v>
+      </c>
+      <c r="D61">
+        <v>0.10019755153548998</v>
+      </c>
+      <c r="E61">
+        <v>0.47098497463060413</v>
+      </c>
+      <c r="F61">
+        <v>-0.5771618245788438</v>
+      </c>
+      <c r="G61">
+        <v>-0.86832614478909775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.7670999976588165E-16</v>
+      </c>
+      <c r="B62">
+        <v>8.0588462894714861E-17</v>
+      </c>
+      <c r="C62">
+        <v>1.1678242712742908</v>
+      </c>
+      <c r="D62">
+        <v>-0.22848235549483489</v>
+      </c>
+      <c r="E62">
+        <v>-1.0620053750656835</v>
+      </c>
+      <c r="F62">
+        <v>-0.15992851837840255</v>
+      </c>
+      <c r="G62">
+        <v>-1.4069877209448698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8.560939449830308E-18</v>
+      </c>
+      <c r="B63">
+        <v>3.120401920349866E-17</v>
+      </c>
+      <c r="C63">
+        <v>-1.1239956479155008E-16</v>
+      </c>
+      <c r="D63">
+        <v>1.0826265436162719</v>
+      </c>
+      <c r="E63">
+        <v>-9.0615770532477075E-2</v>
+      </c>
+      <c r="F63">
+        <v>-9.4391492461992757E-2</v>
+      </c>
+      <c r="G63">
+        <v>0.12873106508869434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-1.0431808983850363E-17</v>
+      </c>
+      <c r="B64">
+        <v>4.4312006497261679E-17</v>
+      </c>
+      <c r="C64">
+        <v>3.961783201525606E-17</v>
+      </c>
+      <c r="D64">
+        <v>5.5477063604662469E-17</v>
+      </c>
+      <c r="E64">
+        <v>-1.3063694425072856</v>
+      </c>
+      <c r="F64">
+        <v>4.2724444256616798E-3</v>
+      </c>
+      <c r="G64">
+        <v>-0.13068834488383216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.3112052624825746E-16</v>
+      </c>
+      <c r="B65">
+        <v>9.6719152374146119E-17</v>
+      </c>
+      <c r="C65">
+        <v>-3.1995762529679549E-17</v>
+      </c>
+      <c r="D65">
+        <v>-4.6550096510570206E-18</v>
+      </c>
+      <c r="E65">
+        <v>-3.7675373245874704E-18</v>
+      </c>
+      <c r="F65">
+        <v>-0.37425342968622877</v>
+      </c>
+      <c r="G65">
+        <v>0.2062522715468863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-5.0228466631415662E-18</v>
+      </c>
+      <c r="B66">
+        <v>1.3839971236406789E-16</v>
+      </c>
+      <c r="C66">
+        <v>-8.06221656019233E-17</v>
+      </c>
+      <c r="D66">
+        <v>-1.3217685289455971E-17</v>
+      </c>
+      <c r="E66">
+        <v>5.8269984655499249E-18</v>
+      </c>
+      <c r="F66">
+        <v>-2.7755575615628914E-17</v>
+      </c>
+      <c r="G66">
+        <v>-1.6653345369377348E-16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <f>A60*B61*C62*D63*E64*F65*G66</f>
+        <v>2.6727289435026248E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f ca="1">RAND()</f>
-        <v>0.42978990108523119</v>
+        <f ca="1">RAND()*2-1</f>
+        <v>0.43580389301203915</v>
       </c>
       <c r="B1">
-        <f t="shared" ref="B1:H16" ca="1" si="0">RAND()</f>
-        <v>0.48040239816356134</v>
+        <f t="shared" ref="B1:H16" ca="1" si="0">RAND()*2-1</f>
+        <v>-0.34818556971738057</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2893509129799159E-2</v>
+        <v>-0.10758347055983508</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22427012088764209</v>
+        <v>0.57312655988433847</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76751295385660379</v>
+        <v>-0.46468689253397755</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36290566276802416</v>
+        <v>-0.86894918400993304</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4961401979191401</v>
+        <v>0.48813759643090937</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66950984178418016</v>
+        <v>0.67724962235229991</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:H19" ca="1" si="1">RAND()</f>
-        <v>0.77276894283569608</v>
+        <f t="shared" ref="A2:H20" ca="1" si="1">RAND()*2-1</f>
+        <v>0.79309791786691597</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78433880998751915</v>
+        <v>0.34787026204953486</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28566005860845411</v>
+        <v>8.3772416254698889E-2</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80279633597341005</v>
+        <v>-0.55177383192699647</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97845573200599067</v>
+        <v>-0.76788650897009414</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52212968058521758</v>
+        <v>0.71547472576479909</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81206736376209798</v>
+        <v>-0.52769733966923327</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43979673782781248</v>
+        <v>0.11460323413094398</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92849720093591226</v>
+        <v>-0.62599566919296068</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92397854846052407</v>
+        <v>0.31526537681851385</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48077080186780996</v>
+        <v>0.97686156617872677</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62943951603534953</v>
+        <v>8.6084938772761355E-3</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2316938717707141</v>
+        <v>0.4583034007930944</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2826286285916324</v>
+        <v>0.30172242756746015</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75417689191051873</v>
+        <v>0.92447884222657928</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86628601484475964</v>
+        <v>-0.92956065976668611</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92202265157261465</v>
+        <v>0.43501605699008916</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63650567972080496</v>
+        <v>1.3930206499892517E-2</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9021180040304001</v>
+        <v>0.23019189391894823</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8980320039526436</v>
+        <v>0.16749250470382182</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90522957849844499</v>
+        <v>0.92504251322421061</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32378370332238249</v>
+        <v>9.7702533850353657E-2</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94084480081678212</v>
+        <v>-6.7394914233734893E-2</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4142786967586112E-2</v>
+        <v>-0.77933380215482728</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33234304568902495</v>
+        <v>0.76026364268493984</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99878147241389548</v>
+        <v>0.32247310347544134</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16145881628401049</v>
+        <v>0.88649460446238493</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43164131601156841</v>
+        <v>0.37650311339410836</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59460916150288179</v>
+        <v>0.32336125733890952</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3973653716561254</v>
+        <v>0.58011365249365077</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9786483140104757</v>
+        <v>-0.32718599272343507</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47783987135361272</v>
+        <v>0.51761910266155353</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79964860329968568</v>
+        <v>0.49822024940649934</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35756088786147844</v>
+        <v>-0.90120472390983819</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28240459740783275</v>
+        <v>-0.49755896085543183</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68217560822845791</v>
+        <v>-2.7968990260766935E-2</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69894123359004701</v>
+        <v>0.2248784959883825</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26369360332822589</v>
+        <v>0.26860259245265228</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16042116040494137</v>
+        <v>8.3376761433791469E-2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88808740379171469</v>
+        <v>0.72119697450024156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44310269036400574</v>
+        <v>-0.1325086141920655</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83188915280298459</v>
+        <v>0.78374172078814097</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34833500371845028</v>
+        <v>-0.21105524060822067</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71714999601652929</v>
+        <v>0.29890669656445445</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15190649830332426</v>
+        <v>-0.36941412440006971</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27189751703637433</v>
+        <v>-0.37972968509802008</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9233474585000909E-2</v>
+        <v>-0.45240941252862399</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64707545596741878</v>
+        <v>0.17937998248001108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26809191939457866</v>
+        <v>-7.997751189482738E-2</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2980476933737467</v>
+        <v>-0.57670173717223294</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93823750432511954</v>
+        <v>-0.93349984422748977</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6176192546852937E-2</v>
+        <v>0.42772224040814288</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5535584399824599</v>
+        <v>0.62255559493024304</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44353988522965715</v>
+        <v>-0.92720252128524705</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9590817833758525E-2</v>
+        <v>0.19724217927111232</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37269200819406134</v>
+        <v>-0.98382524345809919</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67291633175092758</v>
+        <v>-3.8628608281411791E-2</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46577477434771963</v>
+        <v>-0.2401381168454324</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9573155238102462E-2</v>
+        <v>-0.22993093773354278</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26901345747571104</v>
+        <v>-0.84239061271316151</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52806179842532541</v>
+        <v>0.59577919706718263</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51432086273567446</v>
+        <v>0.96211428159891721</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50548601841066532</v>
+        <v>-0.72787178917924988</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57454076633077922</v>
+        <v>-0.92380582019213175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30726347009384569</v>
+        <v>-0.1448173047879231</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77894206193295878</v>
+        <v>0.28811458876775609</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70566566189535551</v>
+        <v>0.64467817462813803</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34189283945556359</v>
+        <v>-3.194119330166334E-3</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77884267253355577</v>
+        <v>0.81471066639219214</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19063724651079028</v>
+        <v>-0.98289837704196281</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6877928877553412E-2</v>
+        <v>0.42299223782232764</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98168524346105301</v>
+        <v>0.73687517105921518</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84949195133281208</v>
+        <v>-0.54435748431652775</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99835499570833464</v>
+        <v>0.45911580693428578</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2764225989772674</v>
+        <v>-0.52352446351823034</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47216287769833465</v>
+        <v>-0.26277786612390108</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77203049397123902</v>
+        <v>-0.25550550175185238</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3873304046054984E-2</v>
+        <v>-0.83123810316656188</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83119673368839586</v>
+        <v>-0.58034234816175467</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93607008895408172</v>
+        <v>-0.36654508508378081</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14908889359560284</v>
+        <v>-0.32112040761849725</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13067946586200974</v>
+        <v>0.62845659558758427</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65628983173318689</v>
+        <v>0.24781809467021976</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72983754325680072</v>
+        <v>-0.77143560723580018</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65862350248259927</v>
+        <v>0.26397306934608711</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.298227030888671E-3</v>
+        <v>0.28567966990704319</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4014545212965287</v>
+        <v>-5.2446538141376786E-2</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61974005177667435</v>
+        <v>1.0247830514049872E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32582783847214647</v>
+        <v>-0.32747388980082692</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99765470046910076</v>
+        <v>0.80521830234345604</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72072627937388611</v>
+        <v>-0.40567239854373005</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87701647839185026</v>
+        <v>0.71949302440461249</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60737182552830515</v>
+        <v>0.40816300338700651</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85974530491509071</v>
+        <v>0.50325219376534069</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87137681619236773</v>
+        <v>0.60559164869813409</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4633450952383802E-3</v>
+        <v>-6.0821548835561012E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82493823810582778</v>
+        <v>0.59720124516319562</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5336571401334177</v>
+        <v>-0.6344083158526701</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67397790362402843</v>
+        <v>0.15343159370530857</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26834448484698981</v>
+        <v>-4.5494469255808356E-2</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.54266126598597E-2</v>
+        <v>0.93552889185248356</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32555335578035249</v>
+        <v>-0.50724510574537662</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37367857569740703</v>
+        <v>0.36982090495492947</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84949487822001368</v>
+        <v>-0.33887574330749093</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42528123540769747</v>
+        <v>0.14883988827726569</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52835435100817785</v>
+        <v>-0.2090791544901125</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7740831286419716</v>
+        <v>-0.4195775941247093</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34945283373508074</v>
+        <v>-0.88262951156135516</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53373135622310708</v>
+        <v>-0.52724884352039925</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40254747120708745</v>
+        <v>0.71252225271853198</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65350844968804578</v>
+        <v>0.58128027252139391</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8179901063823467</v>
+        <v>-0.75918708272187052</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90485040771514569</v>
+        <v>-0.33925650323382905</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2868871666568199</v>
+        <v>4.2039324660239075E-3</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17646620559398185</v>
+        <v>0.54469298155980761</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19854680748578868</v>
+        <v>0.91778063419859213</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5089403212539233</v>
+        <v>0.43550929712913522</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78704515185744983</v>
+        <v>0.82080879827901976</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4911294695002786E-2</v>
+        <v>0.58299561213064988</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41670484017288811</v>
+        <v>-0.46808664929382471</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59764263873045476</v>
+        <v>-0.63171395598540614</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45842007124198114</v>
+        <v>-0.481988332494244</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17667034492245448</v>
+        <v>-0.17427556288466839</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82228463517412664</v>
+        <v>2.7003118124542258E-3</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0858697536372945E-2</v>
+        <v>-0.81029832585125106</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67803297922810879</v>
+        <v>-0.64718807311983739</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33502658050328915</v>
+        <v>-0.80224872041752682</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64805862759768795</v>
+        <v>0.95826040266384926</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19228741888474432</v>
+        <v>0.13487038730797396</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19411394329565779</v>
+        <v>0.46428329871029783</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0186991591043553E-3</v>
+        <v>-0.4786070664175246</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34869062241636983</v>
+        <v>-0.81963927801148961</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78011021156671301</v>
+        <v>3.2620203400995473E-2</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90240356592665394</v>
+        <v>0.56208993708546573</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16996132528936903</v>
+        <v>5.1615477855975866E-2</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7068135581413606</v>
+        <v>-0.93189860422872117</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69811993767093306</v>
+        <v>-0.83172559619510666</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97753852774812822</v>
+        <v>-0.9624002217794918</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88754655113147063</v>
+        <v>0.84173433874057646</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81067251633687365</v>
+        <v>0.73281747027051369</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4523948510094353E-2</v>
+        <v>-0.74872095887398027</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8560406729365142</v>
+        <v>-0.38557208363227624</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54795602993022019</v>
+        <v>0.47078997940950451</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0342036634955734E-2</v>
+        <v>-0.23901239379938088</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f ca="1">RAND()</f>
-        <v>0.89132281572984629</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.55318070127981422</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:H20" ca="1" si="2">RAND()</f>
-        <v>0.90150973050629923</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.97462422918009772</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.18177631743353706</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.56068446210814593</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32108733272081025</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49105421717970588</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.73232446101426152</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9005359197854954E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.86991880082310991</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.93595344984697393</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.78377221957208876</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89779583779512229</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12113488938047667</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65216467373340392</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/EigenFinderTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/EigenFinderTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="285" windowWidth="24915" windowHeight="11235" activeTab="4"/>
+    <workbookView xWindow="1605" yWindow="285" windowWidth="24840" windowHeight="11235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Find Eig 5x5" sheetId="1" r:id="rId1"/>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,8 +526,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>IF(H10 &lt; 0, -E10/2, (E10+SQRT(H10))/2)</f>
-        <v>-0.48448010501666289</v>
+        <f>IF(H10 &lt; 0, E10/2, (E10+SQRT(H10))/2)</f>
+        <v>0.48448010501666289</v>
       </c>
       <c r="B10">
         <f>IF(H10&lt;0, SQRT(-H10)/2, 0)</f>
@@ -550,8 +550,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>IF(H10 &lt; 0, -E10/2, (E10+SQRT(H10))/2)</f>
-        <v>-0.48448010501666289</v>
+        <f>IF(H10 &lt; 0, E10/2, (E10+SQRT(H10))/2)</f>
+        <v>0.48448010501666289</v>
       </c>
       <c r="B11">
         <f>IF(H10&lt;0, -SQRT(-H10)/2, 0)</f>
@@ -576,7 +576,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>IF(H13 &lt; 0, -E13/2, (E13+SQRT(H13))/2)</f>
+        <f>IF(H13 &lt; 0, E13/2, (E13+SQRT(H13))/2)</f>
         <v>1.3942866439217905</v>
       </c>
       <c r="B13">
@@ -600,7 +600,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>IF(H13 &lt; 0, -E13/2, (E13-SQRT(H13))/2)</f>
+        <f>IF(H13 &lt; 0, E13/2, (E13-SQRT(H13))/2)</f>
         <v>-0.44717345526472146</v>
       </c>
       <c r="B14">
@@ -631,13 +631,13 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>A10</f>
-        <v>-0.48448010501666289</v>
+        <v>0.48448010501666289</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ref="A19:A22" si="0">A11</f>
-        <v>-0.48448010501666289</v>
+        <v>0.48448010501666289</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,8 +868,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>IF(H12 &lt; 0, -E12/2, (E12+SQRT(H12))/2)</f>
-        <v>-0.37872882234403304</v>
+        <f>IF(H12 &lt; 0, E12/2, (E12+SQRT(H12))/2)</f>
+        <v>0.37872882234403304</v>
       </c>
       <c r="B12">
         <f>IF(H12&lt;0, SQRT(-H12)/2, 0)</f>
@@ -892,8 +892,8 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>IF(H12 &lt; 0, -E12/2, (E12+SQRT(H12))/2)</f>
-        <v>-0.37872882234403304</v>
+        <f>IF(H12 &lt; 0, E12/2, (E12+SQRT(H12))/2)</f>
+        <v>0.37872882234403304</v>
       </c>
       <c r="B13">
         <f>IF(H12&lt;0, -SQRT(-H12)/2, 0)</f>
@@ -909,8 +909,8 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>IF(H14 &lt; 0, -E14/2, (E14+SQRT(H14))/2)</f>
-        <v>-0.66664771125730926</v>
+        <f>IF(H14 &lt; 0, E14/2, (E14+SQRT(H14))/2)</f>
+        <v>0.66664771125730926</v>
       </c>
       <c r="B14">
         <f>IF(H14&lt;0, SQRT(-H14)/2, 0)</f>
@@ -933,8 +933,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>IF(H14 &lt; 0, -E14/2, (E14-SQRT(H14))/2)</f>
-        <v>-0.66664771125730926</v>
+        <f>IF(H14 &lt; 0, E14/2, (E14-SQRT(H14))/2)</f>
+        <v>0.66664771125730926</v>
       </c>
       <c r="B15">
         <f>IF(H14&lt;0, -SQRT(-H14)/2, 0)</f>
@@ -979,25 +979,25 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ref="A21:A25" si="0">A12</f>
-        <v>-0.37872882234403304</v>
+        <v>0.37872882234403304</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>-0.37872882234403304</v>
+        <v>0.37872882234403304</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>-0.66664771125730926</v>
+        <v>0.66664771125730926</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>-0.66664771125730926</v>
+        <v>0.66664771125730926</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,33 +1762,33 @@
         <v>-0.53142230504904653</v>
       </c>
       <c r="X12">
-        <f>-2*P12</f>
+        <f t="shared" ref="X12:AC12" si="1">-2*P12</f>
         <v>-0.55294426817775288</v>
       </c>
       <c r="Y12">
-        <f>-2*Q12</f>
+        <f t="shared" si="1"/>
         <v>-0.2121881187330813</v>
       </c>
       <c r="Z12">
-        <f>-2*R12</f>
+        <f t="shared" si="1"/>
         <v>-0.22307284667846208</v>
       </c>
       <c r="AA12">
-        <f>-2*S12</f>
+        <f t="shared" si="1"/>
         <v>-0.13451861658162043</v>
       </c>
       <c r="AB12">
-        <f>-2*T12</f>
+        <f t="shared" si="1"/>
         <v>0.24077372645072634</v>
       </c>
       <c r="AC12">
-        <f>-2*U12</f>
+        <f t="shared" si="1"/>
         <v>0.49090776299933125</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ref="A13:G13" si="1">A3</f>
+        <f t="shared" ref="A13:G13" si="2">A3</f>
         <v>0.89404621000099893</v>
       </c>
       <c r="B13">
@@ -1796,27 +1796,27 @@
         <v>0.13793204077857779</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45700487741774465</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55399165074879209</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.87238280135800839</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.68492870720658061</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.91904474905823297</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I18" si="2">A13</f>
+        <f t="shared" ref="I13:I18" si="3">A13</f>
         <v>0.89404621000099893</v>
       </c>
       <c r="K13">
@@ -1849,7 +1849,7 @@
         <v>-8.8625009855054129E-2</v>
       </c>
       <c r="W13">
-        <f>-2*O13</f>
+        <f t="shared" ref="W13:W18" si="4">-2*O13</f>
         <v>-0.55294426817775288</v>
       </c>
       <c r="X13">
@@ -1873,17 +1873,17 @@
         <v>8.6935165780064466E-2</v>
       </c>
       <c r="AC13">
-        <f t="shared" ref="AC13:AC17" si="3">-2*U13</f>
+        <f t="shared" ref="AC13:AC17" si="5">-2*U13</f>
         <v>0.17725001971010826</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ref="A14:G14" si="4">A4</f>
+        <f t="shared" ref="A14:G14" si="6">A4</f>
         <v>0.34308337074500472</v>
       </c>
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.78735419126086215</v>
       </c>
       <c r="C14">
@@ -1891,27 +1891,27 @@
         <v>-0.48999602292665623</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.40042796552689985</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.45143600638530779</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19336511065118667</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.69625666235286521</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34308337074500472</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K18" si="5">I14</f>
+        <f t="shared" ref="K14:K18" si="7">I14</f>
         <v>0.34308337074500472</v>
       </c>
       <c r="M14">
@@ -1940,7 +1940,7 @@
         <v>-3.4009167281574028E-2</v>
       </c>
       <c r="W14">
-        <f>-2*O14</f>
+        <f t="shared" si="4"/>
         <v>-0.2121881187330813</v>
       </c>
       <c r="X14">
@@ -1964,21 +1964,21 @@
         <v>3.3360702588367312E-2</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.8018334563148056E-2</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ref="A15:G15" si="6">A5</f>
+        <f t="shared" ref="A15:G15" si="8">A5</f>
         <v>0.360682702769062</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.47288373920538995</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.25903869635484122</v>
       </c>
       <c r="D15">
@@ -1986,23 +1986,23 @@
         <v>9.4491044079337394E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.18228809353888487</v>
       </c>
       <c r="F15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.58836329953972677</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.56719442650598917</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.360682702769062</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.360682702769062</v>
       </c>
       <c r="M15">
@@ -2031,7 +2031,7 @@
         <v>-3.5753753810353901E-2</v>
       </c>
       <c r="W15">
-        <f>-2*O15</f>
+        <f t="shared" si="4"/>
         <v>-0.22307284667846208</v>
       </c>
       <c r="X15">
@@ -2055,25 +2055,25 @@
         <v>3.507202447532895E-2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.1507507620707803E-2</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ref="A16:G16" si="7">A6</f>
+        <f t="shared" ref="A16:G16" si="9">A6</f>
         <v>0.21750086989004447</v>
       </c>
       <c r="B16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.5587576357337438E-2</v>
       </c>
       <c r="C16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.11915738286641075</v>
       </c>
       <c r="D16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.36197601938081481</v>
       </c>
       <c r="E16">
@@ -2081,19 +2081,19 @@
         <v>1.1576818292339244</v>
       </c>
       <c r="F16">
+        <f t="shared" si="9"/>
+        <v>-0.11478814730643672</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>0.15458726589559624</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.21750086989004447</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="7"/>
-        <v>-0.11478814730643672</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="7"/>
-        <v>0.15458726589559624</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>0.21750086989004447</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
         <v>0.21750086989004447</v>
       </c>
       <c r="M16">
@@ -2122,7 +2122,7 @@
         <v>-2.1560425537139181E-2</v>
       </c>
       <c r="W16">
-        <f>-2*O16</f>
+        <f t="shared" si="4"/>
         <v>-0.13451861658162043</v>
       </c>
       <c r="X16">
@@ -2146,29 +2146,29 @@
         <v>2.1149325358896295E-2</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3120851074278363E-2</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" ref="A17:G17" si="8">A7</f>
+        <f t="shared" ref="A17:G17" si="10">A7</f>
         <v>-0.38930295508893753</v>
       </c>
       <c r="B17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.7708910482707636</v>
       </c>
       <c r="C17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.48319161251448461</v>
       </c>
       <c r="D17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.94891241039580287</v>
       </c>
       <c r="E17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.33877200981955657</v>
       </c>
       <c r="F17">
@@ -2176,15 +2176,15 @@
         <v>-2.5882971378833552E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.9213805364500649</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.38930295508893753</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.38930295508893753</v>
       </c>
       <c r="M17">
@@ -2213,7 +2213,7 @@
         <v>3.8590822091086587E-2</v>
       </c>
       <c r="W17">
-        <f>-2*O17</f>
+        <f t="shared" si="4"/>
         <v>0.24077372645072634</v>
       </c>
       <c r="X17">
@@ -2237,33 +2237,33 @@
         <v>0.96214500261760749</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.7181644182173173E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" ref="A18:F18" si="9">A8</f>
+        <f t="shared" ref="A18:F18" si="11">A8</f>
         <v>-0.79374043683645001</v>
       </c>
       <c r="B18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.63805346059442503</v>
       </c>
       <c r="C18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.74608587694401063</v>
       </c>
       <c r="D18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.12682515455608789</v>
       </c>
       <c r="E18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.8971368072392123</v>
       </c>
       <c r="F18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.7900464427382854E-2</v>
       </c>
       <c r="G18">
@@ -2271,11 +2271,11 @@
         <v>1.0258209730753307</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.79374043683645001</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.79374043683645001</v>
       </c>
       <c r="M18">
@@ -2304,27 +2304,27 @@
         <v>7.8681899492540494E-2</v>
       </c>
       <c r="W18">
-        <f>-2*O18</f>
+        <f t="shared" si="4"/>
         <v>0.49090776299933125</v>
       </c>
       <c r="X18">
-        <f t="shared" ref="X18:AB18" si="10">-2*P18</f>
+        <f t="shared" ref="X18:AB18" si="12">-2*P18</f>
         <v>0.17725001971010826</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.8018334563148056E-2</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.1507507620707803E-2</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.3120851074278363E-2</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-7.7181644182173173E-2</v>
       </c>
       <c r="AC18">
@@ -2391,27 +2391,27 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <f>-2*P20</f>
+        <f t="shared" ref="X20:AC20" si="13">-2*P20</f>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f>-2*Q20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f>-2*R20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f>-2*S20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f>-2*T20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f>-2*U20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>-0.2792918677745363</v>
       </c>
       <c r="W21">
-        <f>-2*O21</f>
+        <f t="shared" ref="W21:W26" si="14">-2*O21</f>
         <v>0</v>
       </c>
       <c r="X21">
@@ -2503,7 +2503,7 @@
         <v>0.55915281455677512</v>
       </c>
       <c r="AC21">
-        <f t="shared" ref="AC21:AC25" si="11">-2*U21</f>
+        <f t="shared" ref="AC21:AC25" si="15">-2*U21</f>
         <v>0.55858373554907259</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
         <v>0.88880835210182907</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I26" si="12">B22</f>
+        <f t="shared" ref="I22:I26" si="16">B22</f>
         <v>-0.8992648173393416</v>
       </c>
       <c r="K22">
@@ -2563,7 +2563,7 @@
         <v>-0.1427451694169469</v>
       </c>
       <c r="W22">
-        <f>-2*O22</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X22">
@@ -2587,7 +2587,7 @@
         <v>0.28578119327234708</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.2854903388338938</v>
       </c>
     </row>
@@ -2614,11 +2614,11 @@
         <v>-0.36476530926082645</v>
       </c>
       <c r="I23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.3552323736060809</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K26" si="13">I23</f>
+        <f t="shared" ref="K23:K26" si="17">I23</f>
         <v>0.3552323736060809</v>
       </c>
       <c r="M23">
@@ -2647,7 +2647,7 @@
         <v>5.6387956445147373E-2</v>
       </c>
       <c r="W23">
-        <f>-2*O23</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X23">
@@ -2671,7 +2671,7 @@
         <v>-0.11289080775836188</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.11277591289029475</v>
       </c>
     </row>
@@ -2698,11 +2698,11 @@
         <v>0.27665718705865039</v>
       </c>
       <c r="I24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-9.6534350807970515E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-9.6534350807970515E-2</v>
       </c>
       <c r="M24">
@@ -2731,7 +2731,7 @@
         <v>-1.5323419747932675E-2</v>
       </c>
       <c r="W24">
-        <f>-2*O24</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X24">
@@ -2755,7 +2755,7 @@
         <v>3.0678062161151841E-2</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.0646839495865351E-2</v>
       </c>
     </row>
@@ -2782,11 +2782,11 @@
         <v>-1.1398724489664378</v>
       </c>
       <c r="I25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.89787807577839018</v>
       </c>
       <c r="K25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.89787807577839018</v>
       </c>
       <c r="M25">
@@ -2815,7 +2815,7 @@
         <v>0.14252504442680083</v>
       </c>
       <c r="W25">
-        <f>-2*O25</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X25">
@@ -2839,7 +2839,7 @@
         <v>0.71465950522981558</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.28505008885360167</v>
       </c>
     </row>
@@ -2866,11 +2866,11 @@
         <v>0.58034306488334808</v>
       </c>
       <c r="I26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.89696425839054994</v>
       </c>
       <c r="K26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.89696425839054994</v>
       </c>
       <c r="M26">
@@ -2899,27 +2899,27 @@
         <v>0.14237998924913989</v>
       </c>
       <c r="W26">
-        <f>-2*O26</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X26">
-        <f t="shared" ref="X26" si="14">-2*P26</f>
+        <f t="shared" ref="X26" si="18">-2*P26</f>
         <v>0.55858373554907259</v>
       </c>
       <c r="Y26">
-        <f t="shared" ref="Y26" si="15">-2*Q26</f>
+        <f t="shared" ref="Y26" si="19">-2*Q26</f>
         <v>0.2854903388338938</v>
       </c>
       <c r="Z26">
-        <f t="shared" ref="Z26" si="16">-2*R26</f>
+        <f t="shared" ref="Z26" si="20">-2*R26</f>
         <v>-0.11277591289029475</v>
       </c>
       <c r="AA26">
-        <f t="shared" ref="AA26" si="17">-2*S26</f>
+        <f t="shared" ref="AA26" si="21">-2*S26</f>
         <v>3.0646839495865351E-2</v>
       </c>
       <c r="AB26">
-        <f t="shared" ref="AB26" si="18">-2*T26</f>
+        <f t="shared" ref="AB26" si="22">-2*T26</f>
         <v>-0.28505008885360167</v>
       </c>
       <c r="AC26">
@@ -2986,27 +2986,27 @@
         <v>1</v>
       </c>
       <c r="X28">
-        <f>-2*P28</f>
+        <f t="shared" ref="X28:AC28" si="23">-2*P28</f>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f>-2*Q28</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f>-2*R28</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA28">
-        <f>-2*S28</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f>-2*T28</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f>-2*U28</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <f>-2*O29</f>
+        <f t="shared" ref="W29:W34" si="24">-2*O29</f>
         <v>0</v>
       </c>
       <c r="X29">
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <f t="shared" ref="AC29:AC33" si="19">-2*U29</f>
+        <f t="shared" ref="AC29:AC33" si="25">-2*U29</f>
         <v>0</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
         <v>0.25037846850616985</v>
       </c>
       <c r="W30">
-        <f>-2*O30</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X30">
@@ -3179,7 +3179,7 @@
         <v>0.56518055616204343</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.5007569370123397</v>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
         <v>-0.27369907729775417</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:I34" si="20">C31</f>
+        <f t="shared" ref="I31:I34" si="26">C31</f>
         <v>0.34854449916745533</v>
       </c>
       <c r="K31">
@@ -3239,7 +3239,7 @@
         <v>-4.7513211076311138E-2</v>
       </c>
       <c r="W31">
-        <f>-2*O31</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X31">
@@ -3263,7 +3263,7 @@
         <v>-0.10725180652062485</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>9.5026422152622275E-2</v>
       </c>
     </row>
@@ -3290,11 +3290,11 @@
         <v>0.25190995049954207</v>
       </c>
       <c r="I32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-0.13150145228456384</v>
       </c>
       <c r="K32">
-        <f t="shared" ref="K32:K34" si="21">I32</f>
+        <f t="shared" ref="K32:K34" si="27">I32</f>
         <v>-0.13150145228456384</v>
       </c>
       <c r="M32">
@@ -3323,7 +3323,7 @@
         <v>1.7926136473713539E-2</v>
       </c>
       <c r="W32">
-        <f>-2*O32</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X32">
@@ -3347,7 +3347,7 @@
         <v>4.0464756584292508E-2</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-3.5852272947427079E-2</v>
       </c>
     </row>
@@ -3374,11 +3374,11 @@
         <v>-0.90969530521865816</v>
       </c>
       <c r="I33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.66003157113833699</v>
       </c>
       <c r="K33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.66003157113833699</v>
       </c>
       <c r="M33">
@@ -3407,7 +3407,7 @@
         <v>-8.9974793552711679E-2</v>
       </c>
       <c r="W33">
-        <f>-2*O33</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X33">
@@ -3431,7 +3431,7 @@
         <v>0.79689945319945299</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.17994958710542336</v>
       </c>
     </row>
@@ -3458,11 +3458,11 @@
         <v>0.8102859453364617</v>
       </c>
       <c r="I34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-0.58479610505198176</v>
       </c>
       <c r="K34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-0.58479610505198176</v>
       </c>
       <c r="M34">
@@ -3491,27 +3491,27 @@
         <v>7.9718775772702977E-2</v>
       </c>
       <c r="W34">
-        <f>-2*O34</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X34">
-        <f t="shared" ref="X34" si="22">-2*P34</f>
+        <f t="shared" ref="X34" si="28">-2*P34</f>
         <v>0</v>
       </c>
       <c r="Y34">
-        <f t="shared" ref="Y34" si="23">-2*Q34</f>
+        <f t="shared" ref="Y34" si="29">-2*Q34</f>
         <v>-0.5007569370123397</v>
       </c>
       <c r="Z34">
-        <f t="shared" ref="Z34" si="24">-2*R34</f>
+        <f t="shared" ref="Z34" si="30">-2*R34</f>
         <v>9.5026422152622275E-2</v>
       </c>
       <c r="AA34">
-        <f t="shared" ref="AA34" si="25">-2*S34</f>
+        <f t="shared" ref="AA34" si="31">-2*S34</f>
         <v>-3.5852272947427079E-2</v>
       </c>
       <c r="AB34">
-        <f t="shared" ref="AB34" si="26">-2*T34</f>
+        <f t="shared" ref="AB34" si="32">-2*T34</f>
         <v>0.17994958710542336</v>
       </c>
       <c r="AC34">
@@ -3578,27 +3578,27 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <f>-2*P36</f>
+        <f t="shared" ref="X36:AC36" si="33">-2*P36</f>
         <v>0</v>
       </c>
       <c r="Y36">
-        <f>-2*Q36</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z36">
-        <f>-2*R36</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA36">
-        <f>-2*S36</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB36">
-        <f>-2*T36</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AC36">
-        <f>-2*U36</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <f>-2*O37</f>
+        <f t="shared" ref="W37:W42" si="34">-2*O37</f>
         <v>0</v>
       </c>
       <c r="X37">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" ref="AC37:AC41" si="27">-2*U37</f>
+        <f t="shared" ref="AC37:AC41" si="35">-2*U37</f>
         <v>0</v>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <f>-2*O38</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X38">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
         <v>-0.18559375824491822</v>
       </c>
       <c r="W39">
-        <f>-2*O39</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X39">
@@ -3852,7 +3852,7 @@
         <v>-0.81009138034455885</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.37118751648983644</v>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
         <v>0.10404502306559353</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I42" si="28">D40</f>
+        <f t="shared" ref="I40:I42" si="36">D40</f>
         <v>-0.45673211858615409</v>
       </c>
       <c r="K40">
@@ -3912,7 +3912,7 @@
         <v>-6.7074665223129118E-2</v>
       </c>
       <c r="W40">
-        <f>-2*O40</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X40">
@@ -3936,7 +3936,7 @@
         <v>-0.2927717432449895</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.13414933044625824</v>
       </c>
     </row>
@@ -3963,11 +3963,11 @@
         <v>-0.16753224408916981</v>
       </c>
       <c r="I41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>-0.87702643111576462</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:K42" si="29">I41</f>
+        <f t="shared" ref="K41:K42" si="37">I41</f>
         <v>-0.87702643111576462</v>
       </c>
       <c r="M41">
@@ -3996,7 +3996,7 @@
         <v>-0.12879815512214549</v>
       </c>
       <c r="W41">
-        <f>-2*O41</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X41">
@@ -4020,7 +4020,7 @@
         <v>0.43781366218662487</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.25759631024429097</v>
       </c>
     </row>
@@ -4047,11 +4047,11 @@
         <v>0.15272032811386538</v>
       </c>
       <c r="I42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.40185745801089956</v>
       </c>
       <c r="K42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0.40185745801089956</v>
       </c>
       <c r="M42">
@@ -4080,27 +4080,27 @@
         <v>5.9015894364815281E-2</v>
       </c>
       <c r="W42">
-        <f>-2*O42</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="shared" ref="X42" si="30">-2*P42</f>
+        <f t="shared" ref="X42" si="38">-2*P42</f>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="shared" ref="Y42" si="31">-2*Q42</f>
+        <f t="shared" ref="Y42" si="39">-2*Q42</f>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="shared" ref="Z42" si="32">-2*R42</f>
+        <f t="shared" ref="Z42" si="40">-2*R42</f>
         <v>0.37118751648983644</v>
       </c>
       <c r="AA42">
-        <f t="shared" ref="AA42" si="33">-2*S42</f>
+        <f t="shared" ref="AA42" si="41">-2*S42</f>
         <v>0.13414933044625824</v>
       </c>
       <c r="AB42">
-        <f t="shared" ref="AB42" si="34">-2*T42</f>
+        <f t="shared" ref="AB42" si="42">-2*T42</f>
         <v>0.25759631024429097</v>
       </c>
       <c r="AC42">
@@ -4167,27 +4167,27 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <f>-2*P44</f>
+        <f t="shared" ref="X44:AC44" si="43">-2*P44</f>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f>-2*Q44</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f>-2*R44</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AA44">
-        <f>-2*S44</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f>-2*T44</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f>-2*U44</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <f>-2*O45</f>
+        <f t="shared" ref="W45:W50" si="44">-2*O45</f>
         <v>0</v>
       </c>
       <c r="X45">
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="shared" ref="AC45:AC49" si="35">-2*U45</f>
+        <f t="shared" ref="AC45:AC49" si="45">-2*U45</f>
         <v>0</v>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <f>-2*O46</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X46">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <f>-2*O47</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X47">
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
         <v>-9.5045290554570103E-2</v>
       </c>
       <c r="W48">
-        <f>-2*O48</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X48">
@@ -4522,7 +4522,7 @@
         <v>0.38495621492405402</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0.19009058110914021</v>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
         <v>-0.16023556600780489</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49:I50" si="36">E49</f>
+        <f t="shared" ref="I49:I50" si="46">E49</f>
         <v>-0.50289503588005136</v>
       </c>
       <c r="K49">
@@ -4582,7 +4582,7 @@
         <v>1.9225145319970431E-2</v>
       </c>
       <c r="W49">
-        <f>-2*O49</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X49">
@@ -4606,7 +4606,7 @@
         <v>0.92213355200917047</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>-3.8450290639940862E-2</v>
       </c>
     </row>
@@ -4633,11 +4633,11 @@
         <v>0.14937695737648551</v>
       </c>
       <c r="I50">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>-0.24832852646943349</v>
       </c>
       <c r="K50">
-        <f t="shared" ref="K50" si="37">I50</f>
+        <f t="shared" ref="K50" si="47">I50</f>
         <v>-0.24832852646943349</v>
       </c>
       <c r="M50">
@@ -4666,27 +4666,27 @@
         <v>9.4933369149575297E-3</v>
       </c>
       <c r="W50">
-        <f>-2*O50</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="shared" ref="X50" si="38">-2*P50</f>
+        <f t="shared" ref="X50" si="48">-2*P50</f>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="shared" ref="Y50" si="39">-2*Q50</f>
+        <f t="shared" ref="Y50" si="49">-2*Q50</f>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="shared" ref="Z50" si="40">-2*R50</f>
+        <f t="shared" ref="Z50" si="50">-2*R50</f>
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" ref="AA50" si="41">-2*S50</f>
+        <f t="shared" ref="AA50" si="51">-2*S50</f>
         <v>0.19009058110914021</v>
       </c>
       <c r="AB50">
-        <f t="shared" ref="AB50" si="42">-2*T50</f>
+        <f t="shared" ref="AB50" si="52">-2*T50</f>
         <v>-3.8450290639940862E-2</v>
       </c>
       <c r="AC50">
@@ -4753,27 +4753,27 @@
         <v>1</v>
       </c>
       <c r="X52">
-        <f>-2*P52</f>
+        <f t="shared" ref="X52:AC52" si="53">-2*P52</f>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f>-2*Q52</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f>-2*R52</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AA52">
-        <f>-2*S52</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AB52">
-        <f>-2*T52</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AC52">
-        <f>-2*U52</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <f>-2*O53</f>
+        <f t="shared" ref="W53:W58" si="54">-2*O53</f>
         <v>0</v>
       </c>
       <c r="X53">
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <f t="shared" ref="AC53:AC57" si="43">-2*U53</f>
+        <f t="shared" ref="AC53:AC57" si="55">-2*U53</f>
         <v>0</v>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <f>-2*O54</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X54">
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <f>-2*O55</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X55">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <f>-2*O56</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X56">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
         <v>-0.4198794898902255</v>
       </c>
       <c r="W57">
-        <f>-2*O57</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X57">
@@ -5189,7 +5189,7 @@
         <v>-0.54295935011573015</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>0.839758979780451</v>
       </c>
     </row>
@@ -5249,27 +5249,27 @@
         <v>0.22852032494213492</v>
       </c>
       <c r="W58">
-        <f>-2*O58</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X58">
-        <f t="shared" ref="X58" si="44">-2*P58</f>
+        <f t="shared" ref="X58" si="56">-2*P58</f>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="shared" ref="Y58" si="45">-2*Q58</f>
+        <f t="shared" ref="Y58" si="57">-2*Q58</f>
         <v>0</v>
       </c>
       <c r="Z58">
-        <f t="shared" ref="Z58" si="46">-2*R58</f>
+        <f t="shared" ref="Z58" si="58">-2*R58</f>
         <v>0</v>
       </c>
       <c r="AA58">
-        <f t="shared" ref="AA58" si="47">-2*S58</f>
+        <f t="shared" ref="AA58" si="59">-2*S58</f>
         <v>0</v>
       </c>
       <c r="AB58">
-        <f t="shared" ref="AB58" si="48">-2*T58</f>
+        <f t="shared" ref="AB58" si="60">-2*T58</f>
         <v>0.839758979780451</v>
       </c>
       <c r="AC58">
@@ -5457,7 +5457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
@@ -5466,681 +5466,681 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*2-1</f>
-        <v>0.43580389301203915</v>
+        <v>-0.69071974349754006</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">RAND()*2-1</f>
-        <v>-0.34818556971738057</v>
+        <v>0.46156770561012306</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10758347055983508</v>
+        <v>0.53693780197651164</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57312655988433847</v>
+        <v>0.52041753953118408</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46468689253397755</v>
+        <v>0.35474549123785071</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86894918400993304</v>
+        <v>-0.12350956503003152</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48813759643090937</v>
+        <v>-0.20398979446842969</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67724962235229991</v>
+        <v>-0.24447151968857095</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:H20" ca="1" si="1">RAND()*2-1</f>
-        <v>0.79309791786691597</v>
+        <v>-0.64310444147233015</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34787026204953486</v>
+        <v>0.76626690461916014</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3772416254698889E-2</v>
+        <v>-0.79263022711220921</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55177383192699647</v>
+        <v>0.30587694527024745</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76788650897009414</v>
+        <v>0.86784198366877607</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71547472576479909</v>
+        <v>-0.97647786203676445</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52769733966923327</v>
+        <v>0.49261744724549739</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11460323413094398</v>
+        <v>-0.97372883518099629</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.62599566919296068</v>
+        <v>-0.63315706366585944</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31526537681851385</v>
+        <v>0.24077832490905648</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97686156617872677</v>
+        <v>-0.38629175784483327</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6084938772761355E-3</v>
+        <v>-0.66993710926411087</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4583034007930944</v>
+        <v>-0.62443434094180317</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30172242756746015</v>
+        <v>-0.2692542861355034</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92447884222657928</v>
+        <v>-0.57662793193431217</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92956065976668611</v>
+        <v>-0.35784011064807308</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43501605699008916</v>
+        <v>7.5398302755732116E-2</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3930206499892517E-2</v>
+        <v>0.92333588715093451</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23019189391894823</v>
+        <v>-0.34623170734722253</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16749250470382182</v>
+        <v>-0.54680324781615686</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92504251322421061</v>
+        <v>0.84234080900886088</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7702533850353657E-2</v>
+        <v>-0.97567729848375917</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7394914233734893E-2</v>
+        <v>-0.14244393308040371</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77933380215482728</v>
+        <v>-0.78528390927945346</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76026364268493984</v>
+        <v>0.43085339132388345</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32247310347544134</v>
+        <v>-0.67665957221641571</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88649460446238493</v>
+        <v>-0.21939357687142236</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37650311339410836</v>
+        <v>2.0595012469012408E-2</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32336125733890952</v>
+        <v>0.52833611385829649</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58011365249365077</v>
+        <v>-0.49889238240447553</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32718599272343507</v>
+        <v>0.67582548373221063</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51761910266155353</v>
+        <v>-4.7477466771594923E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49822024940649934</v>
+        <v>-0.70109285031428326</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90120472390983819</v>
+        <v>0.49798221694665079</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49755896085543183</v>
+        <v>0.35412429945183455</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7968990260766935E-2</v>
+        <v>-0.41193307334257634</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2248784959883825</v>
+        <v>0.80471810733201266</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26860259245265228</v>
+        <v>0.1488677500003408</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3376761433791469E-2</v>
+        <v>0.14239736510870959</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72119697450024156</v>
+        <v>-0.56753056120826728</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1325086141920655</v>
+        <v>-0.57996319004929342</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78374172078814097</v>
+        <v>0.9430461665533747</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21105524060822067</v>
+        <v>-0.15362793927310503</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29890669656445445</v>
+        <v>0.84942051183117617</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36941412440006971</v>
+        <v>0.26798215556279659</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37972968509802008</v>
+        <v>0.1722563763569156</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45240941252862399</v>
+        <v>0.14697853466712751</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17937998248001108</v>
+        <v>-0.40477488310895149</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.997751189482738E-2</v>
+        <v>-0.63703173335845542</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57670173717223294</v>
+        <v>-3.9495165484323858E-2</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93349984422748977</v>
+        <v>-0.73120274070263847</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42772224040814288</v>
+        <v>-0.22162173815125041</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62255559493024304</v>
+        <v>0.47730893474747682</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92720252128524705</v>
+        <v>0.97611232129405612</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19724217927111232</v>
+        <v>0.24387328700933986</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98382524345809919</v>
+        <v>0.42122925480141094</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8628608281411791E-2</v>
+        <v>0.356846724099674</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2401381168454324</v>
+        <v>0.32923674863202645</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22993093773354278</v>
+        <v>0.72403054837897662</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84239061271316151</v>
+        <v>0.96407050997360044</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59577919706718263</v>
+        <v>-5.2576466631307994E-2</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96211428159891721</v>
+        <v>-0.24306496007227896</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72787178917924988</v>
+        <v>0.306340198581599</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92380582019213175</v>
+        <v>0.9500350221716567</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1448173047879231</v>
+        <v>-0.94817051170570577</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28811458876775609</v>
+        <v>-0.61900821236164671</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64467817462813803</v>
+        <v>-0.76097246884949898</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.194119330166334E-3</v>
+        <v>-0.54689701960379677</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81471066639219214</v>
+        <v>-0.24491739628030218</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98289837704196281</v>
+        <v>-0.13644814255452542</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42299223782232764</v>
+        <v>-0.70085753318349231</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73687517105921518</v>
+        <v>0.16493961562452641</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.54435748431652775</v>
+        <v>5.7592838004344005E-2</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45911580693428578</v>
+        <v>0.99617673993186462</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52352446351823034</v>
+        <v>-0.5236560956494023</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26277786612390108</v>
+        <v>-0.179531488178166</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25550550175185238</v>
+        <v>-0.81421897046995229</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.83123810316656188</v>
+        <v>-0.7412615234424591</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58034234816175467</v>
+        <v>0.6460032326881906</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36654508508378081</v>
+        <v>0.83999718783661526</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32112040761849725</v>
+        <v>-0.86888641959801194</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62845659558758427</v>
+        <v>0.93930615610900392</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24781809467021976</v>
+        <v>-2.7861074201484426E-2</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77143560723580018</v>
+        <v>0.43470985608601209</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26397306934608711</v>
+        <v>0.55428821919153526</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28567966990704319</v>
+        <v>-0.54702478496800855</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2446538141376786E-2</v>
+        <v>0.77716605587853316</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0247830514049872E-2</v>
+        <v>-0.36978594847899249</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32747388980082692</v>
+        <v>-1.1366238344818758E-2</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80521830234345604</v>
+        <v>-0.53957125179376297</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40567239854373005</v>
+        <v>-0.22836309625913431</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71949302440461249</v>
+        <v>0.99554606183343419</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40816300338700651</v>
+        <v>-0.73861882283453806</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50325219376534069</v>
+        <v>-0.95196483184348812</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60559164869813409</v>
+        <v>0.87149920090002975</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0821548835561012E-2</v>
+        <v>0.46024337216989375</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59720124516319562</v>
+        <v>0.17200193337676506</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6344083158526701</v>
+        <v>0.26547211363435164</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15343159370530857</v>
+        <v>-0.7936951539245487</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5494469255808356E-2</v>
+        <v>-0.90164031294911662</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93552889185248356</v>
+        <v>-0.23257134998659845</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50724510574537662</v>
+        <v>0.40496508043223578</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36982090495492947</v>
+        <v>-0.34779889079602988</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33887574330749093</v>
+        <v>5.7226156378699322E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14883988827726569</v>
+        <v>-0.93100472244245402</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2090791544901125</v>
+        <v>1.3519175454390631E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4195775941247093</v>
+        <v>-0.30583042269085481</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88262951156135516</v>
+        <v>-0.3725340459707891</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52724884352039925</v>
+        <v>-0.92284463542874229</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71252225271853198</v>
+        <v>0.38659197778038545</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58128027252139391</v>
+        <v>0.39621746442894135</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75918708272187052</v>
+        <v>8.8703737209886224E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33925650323382905</v>
+        <v>-0.53363381695784651</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2039324660239075E-3</v>
+        <v>0.12480024170360671</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54469298155980761</v>
+        <v>0.81568901054521126</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91778063419859213</v>
+        <v>0.47264743061392545</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43550929712913522</v>
+        <v>0.4086839237097899</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82080879827901976</v>
+        <v>0.60981790611230835</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58299561213064988</v>
+        <v>-0.7834781139393836</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46808664929382471</v>
+        <v>-0.76669910697037635</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63171395598540614</v>
+        <v>-0.23589502876922364</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.481988332494244</v>
+        <v>0.88885417444979464</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17427556288466839</v>
+        <v>-0.94776995365497219</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7003118124542258E-3</v>
+        <v>-4.0870672344017089E-2</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81029832585125106</v>
+        <v>-0.82357711475411044</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64718807311983739</v>
+        <v>0.43399646885964249</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80224872041752682</v>
+        <v>-0.10854501748797585</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95826040266384926</v>
+        <v>0.36948262934400256</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13487038730797396</v>
+        <v>0.31642214546231062</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46428329871029783</v>
+        <v>-0.24747071523903674</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4786070664175246</v>
+        <v>-0.56502361023556436</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81963927801148961</v>
+        <v>-0.10007293619462732</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2620203400995473E-2</v>
+        <v>-0.4441467701159334</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56208993708546573</v>
+        <v>0.99798082237119323</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1615477855975866E-2</v>
+        <v>-0.94855739693710328</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.93189860422872117</v>
+        <v>-0.74468831616740516</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.83172559619510666</v>
+        <v>-0.4943500055072958</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9624002217794918</v>
+        <v>0.96049238429770933</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84173433874057646</v>
+        <v>-0.85328266883400405</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73281747027051369</v>
+        <v>-0.79355547107904822</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.74872095887398027</v>
+        <v>0.52801950710254797</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38557208363227624</v>
+        <v>-0.81523452008883623</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47078997940950451</v>
+        <v>-0.48853118079288782</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23901239379938088</v>
+        <v>-0.11742746400618498</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55318070127981422</v>
+        <v>-5.1427655342425993E-2</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.97462422918009772</v>
+        <v>0.80789662913008797</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56068446210814593</v>
+        <v>-0.10149744808346783</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49105421717970588</v>
+        <v>0.25340714377499363</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9005359197854954E-2</v>
+        <v>0.25969819422243079</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.93595344984697393</v>
+        <v>0.34730739665680233</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89779583779512229</v>
+        <v>-0.8632648351605976</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65216467373340392</v>
+        <v>-0.834110700553097</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/EigenFinderTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/EigenFinderTest.xlsx
@@ -11,14 +11,15 @@
     <sheet name="Find Eig 6x6" sheetId="2" r:id="rId2"/>
     <sheet name="7x7" sheetId="4" r:id="rId3"/>
     <sheet name="Validate 7x7 by QR decomp" sheetId="5" r:id="rId4"/>
-    <sheet name="rand" sheetId="3" r:id="rId5"/>
+    <sheet name="Validate 7x7 Complex by QR" sheetId="6" r:id="rId5"/>
+    <sheet name="rand" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>#1</t>
   </si>
@@ -72,6 +73,21 @@
   </si>
   <si>
     <t>Imaginary</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>A^2</t>
+  </si>
+  <si>
+    <t>Re(z)*A=</t>
+  </si>
+  <si>
+    <t>|z|^2*I=</t>
+  </si>
+  <si>
+    <t>(A-zI)*(A-z'I)</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1270,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.76959344553964204</v>
+        <v>-0.76959344553964104</v>
       </c>
       <c r="B13">
         <v>1.0576138466062901</v>
@@ -1262,7 +1278,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.76959344553964204</v>
+        <v>-0.76959344553964104</v>
       </c>
       <c r="B14">
         <v>-1.0576138466062901</v>
@@ -1324,13 +1340,13 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A13</f>
-        <v>0.76959344553964204</v>
+        <v>-0.76959344553964104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:A29" si="0">A14</f>
-        <v>0.76959344553964204</v>
+        <v>-0.76959344553964104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,46 +1392,368 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>B13</f>
         <v>1.0576138466062901</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ref="A34:A39" si="1">B14</f>
         <v>-1.0576138466062901</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.50541629260186105</v>
+      </c>
+      <c r="C41">
+        <v>-1.0640025734152601</v>
+      </c>
+      <c r="D41">
+        <v>0.497910996881891</v>
+      </c>
+      <c r="E41">
+        <v>-0.43134182571154001</v>
+      </c>
+      <c r="F41">
+        <v>4.7227062968411497E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.42853441831401101</v>
+      </c>
+      <c r="H41">
+        <v>7.7531697400306396E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>-1.3696730037818901</v>
+      </c>
+      <c r="C42">
+        <v>8.2123293620696397E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.59020496652620402</v>
+      </c>
+      <c r="E42">
+        <v>-0.199821752825421</v>
+      </c>
+      <c r="F42">
+        <v>-0.252017182791966</v>
+      </c>
+      <c r="G42">
+        <v>0.108306350203837</v>
+      </c>
+      <c r="H42">
+        <v>1.5387411804686899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>-1.96971835644122</v>
+      </c>
+      <c r="D43">
+        <v>-0.81725637980832699</v>
+      </c>
+      <c r="E43">
+        <v>0.26573867862824702</v>
+      </c>
+      <c r="F43">
+        <v>0.39965392983599601</v>
+      </c>
+      <c r="G43">
+        <v>-0.57026998198020495</v>
+      </c>
+      <c r="H43">
+        <v>-0.258835320518224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>-0.55469819676188103</v>
+      </c>
+      <c r="E44">
+        <v>0.40324486662238901</v>
+      </c>
+      <c r="F44">
+        <v>0.61518884058783496</v>
+      </c>
+      <c r="G44">
+        <v>-0.61890615841421204</v>
+      </c>
+      <c r="H44">
+        <v>9.4406771983798904E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.44012600472561703</v>
+      </c>
+      <c r="F45">
+        <v>-0.74799862111456605</v>
+      </c>
+      <c r="G45">
+        <v>6.0028210943834502E-2</v>
+      </c>
+      <c r="H45">
+        <v>-0.61260106086078203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>-0.33624123769103798</v>
+      </c>
+      <c r="G46">
+        <v>0.56374943890596296</v>
+      </c>
+      <c r="H46">
+        <v>0.88683863082463998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.37113376647561602</v>
+      </c>
+      <c r="H47">
+        <v>0.293195773430516</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>-0.65274427365684096</v>
+      </c>
+      <c r="D50">
+        <v>0.33231536408094497</v>
+      </c>
+      <c r="E50">
+        <v>-0.32813602226023397</v>
+      </c>
+      <c r="F50">
+        <v>-6.7613963553705303E-2</v>
+      </c>
+      <c r="G50">
+        <v>-0.42976653014675997</v>
+      </c>
+      <c r="H50">
+        <v>0.408102002442223</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>-0.25048560481055898</v>
+      </c>
+      <c r="D51">
+        <v>-0.70134926116438101</v>
+      </c>
+      <c r="E51">
+        <v>0.25354829388609301</v>
+      </c>
+      <c r="F51">
+        <v>-0.537964977230176</v>
+      </c>
+      <c r="G51">
+        <v>-0.30109294052389202</v>
+      </c>
+      <c r="H51">
+        <v>-3.1877307833742097E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>-0.26333489947831001</v>
+      </c>
+      <c r="D52">
+        <v>0.38107863858540503</v>
+      </c>
+      <c r="E52">
+        <v>-0.115612625431198</v>
+      </c>
+      <c r="F52">
+        <v>-0.57755163336294701</v>
+      </c>
+      <c r="G52">
+        <v>0.32693689338426202</v>
+      </c>
+      <c r="H52">
+        <v>-0.57585927214518795</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>-0.15879766140493901</v>
+      </c>
+      <c r="D53">
+        <v>-4.2757583701991099E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.176489140473683</v>
+      </c>
+      <c r="F53">
+        <v>-0.219268749029773</v>
+      </c>
+      <c r="G53">
+        <v>0.70546617663046796</v>
+      </c>
+      <c r="H53">
+        <v>0.62932135224578001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0.28423058205426099</v>
+      </c>
+      <c r="D54">
+        <v>0.50046127634639903</v>
+      </c>
+      <c r="E54">
+        <v>0.66121622081656495</v>
+      </c>
+      <c r="F54">
+        <v>-0.30038725227598201</v>
+      </c>
+      <c r="G54">
+        <v>-0.32811617858990499</v>
+      </c>
+      <c r="H54">
+        <v>0.18344445603378001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.57951090124781501</v>
+      </c>
+      <c r="D55">
+        <v>-1.2848493589472701E-2</v>
+      </c>
+      <c r="E55">
+        <v>-0.58848825564110097</v>
+      </c>
+      <c r="F55">
+        <v>-0.48388517271671899</v>
+      </c>
+      <c r="G55">
+        <v>-0.11141492473848599</v>
+      </c>
+      <c r="H55">
+        <v>0.266693567020929</v>
       </c>
     </row>
   </sheetData>
@@ -1427,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5455,10 +5793,4780 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'7x7'!A3</f>
+        <v>0.50541629260186172</v>
+      </c>
+      <c r="B2">
+        <f>'7x7'!B3</f>
+        <v>0.84580173412536075</v>
+      </c>
+      <c r="C2">
+        <f>'7x7'!C3</f>
+        <v>-0.34896486142290883</v>
+      </c>
+      <c r="D2">
+        <f>'7x7'!D3</f>
+        <v>0.58798111371457495</v>
+      </c>
+      <c r="E2">
+        <f>'7x7'!E3</f>
+        <v>0.41229797246666755</v>
+      </c>
+      <c r="F2">
+        <f>'7x7'!F3</f>
+        <v>-0.4790198329743478</v>
+      </c>
+      <c r="G2">
+        <f>'7x7'!G3</f>
+        <v>-0.41907929845220981</v>
+      </c>
+      <c r="I2">
+        <v>-0.76959344553964104</v>
+      </c>
+      <c r="J2">
+        <v>1.0576138466062901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>'7x7'!A4</f>
+        <v>0.89404621000099893</v>
+      </c>
+      <c r="B3">
+        <f>'7x7'!B4</f>
+        <v>-0.21589937942225723</v>
+      </c>
+      <c r="C3">
+        <f>'7x7'!C4</f>
+        <v>0.45700487741774465</v>
+      </c>
+      <c r="D3">
+        <f>'7x7'!D4</f>
+        <v>0.55399165074879209</v>
+      </c>
+      <c r="E3">
+        <f>'7x7'!E4</f>
+        <v>-0.87238280135800839</v>
+      </c>
+      <c r="F3">
+        <f>'7x7'!F4</f>
+        <v>-0.68492870720658061</v>
+      </c>
+      <c r="G3">
+        <f>'7x7'!G4</f>
+        <v>-0.91904474905823297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>'7x7'!A5</f>
+        <v>0.34308337074500472</v>
+      </c>
+      <c r="B4">
+        <f>'7x7'!B5</f>
+        <v>-0.78735419126086215</v>
+      </c>
+      <c r="C4">
+        <f>'7x7'!C5</f>
+        <v>-0.84382744312749125</v>
+      </c>
+      <c r="D4">
+        <f>'7x7'!D5</f>
+        <v>-0.40042796552689985</v>
+      </c>
+      <c r="E4">
+        <f>'7x7'!E5</f>
+        <v>-0.45143600638530779</v>
+      </c>
+      <c r="F4">
+        <f>'7x7'!F5</f>
+        <v>0.19336511065118667</v>
+      </c>
+      <c r="G4">
+        <f>'7x7'!G5</f>
+        <v>0.69625666235286521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'7x7'!A6</f>
+        <v>0.360682702769062</v>
+      </c>
+      <c r="B5">
+        <f>'7x7'!B6</f>
+        <v>0.47288373920538995</v>
+      </c>
+      <c r="C5">
+        <f>'7x7'!C6</f>
+        <v>0.25903869635484122</v>
+      </c>
+      <c r="D5">
+        <f>'7x7'!D6</f>
+        <v>-0.25934037612149763</v>
+      </c>
+      <c r="E5">
+        <f>'7x7'!E6</f>
+        <v>-0.18228809353888487</v>
+      </c>
+      <c r="F5">
+        <f>'7x7'!F6</f>
+        <v>-0.58836329953972677</v>
+      </c>
+      <c r="G5">
+        <f>'7x7'!G6</f>
+        <v>-0.56719442650598917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>'7x7'!A7</f>
+        <v>0.21750086989004447</v>
+      </c>
+      <c r="B6">
+        <f>'7x7'!B7</f>
+        <v>-2.5587576357337438E-2</v>
+      </c>
+      <c r="C6">
+        <f>'7x7'!C7</f>
+        <v>-0.11915738286641075</v>
+      </c>
+      <c r="D6">
+        <f>'7x7'!D7</f>
+        <v>-0.36197601938081481</v>
+      </c>
+      <c r="E6">
+        <f>'7x7'!E7</f>
+        <v>0.80385040903308935</v>
+      </c>
+      <c r="F6">
+        <f>'7x7'!F7</f>
+        <v>-0.11478814730643672</v>
+      </c>
+      <c r="G6">
+        <f>'7x7'!G7</f>
+        <v>0.15458726589559624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>'7x7'!A8</f>
+        <v>-0.38930295508893753</v>
+      </c>
+      <c r="B7">
+        <f>'7x7'!B8</f>
+        <v>0.7708910482707636</v>
+      </c>
+      <c r="C7">
+        <f>'7x7'!C8</f>
+        <v>0.48319161251448461</v>
+      </c>
+      <c r="D7">
+        <f>'7x7'!D8</f>
+        <v>-0.94891241039580287</v>
+      </c>
+      <c r="E7">
+        <f>'7x7'!E8</f>
+        <v>-0.33877200981955657</v>
+      </c>
+      <c r="F7">
+        <f>'7x7'!F8</f>
+        <v>-0.37971439157966858</v>
+      </c>
+      <c r="G7">
+        <f>'7x7'!G8</f>
+        <v>-0.9213805364500649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>'7x7'!A9</f>
+        <v>-0.79374043683645001</v>
+      </c>
+      <c r="B8">
+        <f>'7x7'!B9</f>
+        <v>0.63805346059442503</v>
+      </c>
+      <c r="C8">
+        <f>'7x7'!C9</f>
+        <v>-0.74608587694401063</v>
+      </c>
+      <c r="D8">
+        <f>'7x7'!D9</f>
+        <v>-0.12682515455608789</v>
+      </c>
+      <c r="E8">
+        <f>'7x7'!E9</f>
+        <v>0.8971368072392123</v>
+      </c>
+      <c r="F8">
+        <f>'7x7'!F9</f>
+        <v>7.7900464427382854E-2</v>
+      </c>
+      <c r="G8">
+        <f>'7x7'!G9</f>
+        <v>0.67198955287449569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="array" ref="A11:G17">MMULT(A2:G8,A2:G8)</f>
+        <v>1.7127812295887579</v>
+      </c>
+      <c r="B11">
+        <v>0.15046275742805831</v>
+      </c>
+      <c r="C11">
+        <v>0.6890214122619589</v>
+      </c>
+      <c r="D11">
+        <v>1.1114460620849873</v>
+      </c>
+      <c r="E11">
+        <v>-0.361394484787188</v>
+      </c>
+      <c r="F11">
+        <v>-1.1329251214933216</v>
+      </c>
+      <c r="G11">
+        <v>-1.3421292115164141</v>
+      </c>
+      <c r="I11">
+        <f>$I$2*A2</f>
+        <v>-0.38896506605533815</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:O11" si="0">$I$2*B2</f>
+        <v>-0.65092347080893975</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.2685610700747198</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>-0.45250641121583524</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>-0.31730181721963074</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.36865052374055168</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.32252068125017169</v>
+      </c>
+      <c r="Q11">
+        <f>I2*I2+J2*J2</f>
+        <v>1.7108211199509298</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.4218312108123841</v>
+      </c>
+      <c r="B12">
+        <v>-0.38713561564927979</v>
+      </c>
+      <c r="C12">
+        <v>-0.19410041088610641</v>
+      </c>
+      <c r="D12">
+        <v>1.161682892953092</v>
+      </c>
+      <c r="E12">
+        <v>-1.044073662366416</v>
+      </c>
+      <c r="F12">
+        <v>-0.2293472601525457</v>
+      </c>
+      <c r="G12">
+        <v>-0.29365111588534909</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I17" si="1">$I$2*A3</f>
+        <v>-0.68805210322632626</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J17" si="2">$I$2*B3</f>
+        <v>0.16615474729944521</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K17" si="3">$I$2*C3</f>
+        <v>-0.3517079582403434</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L17" si="4">$I$2*D3</f>
+        <v>-0.42634834329995636</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M17" si="5">$I$2*E3</f>
+        <v>0.6713800859266339</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N17" si="6">$I$2*F3</f>
+        <v>0.52711664372812439</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O17" si="7">$I$2*G3</f>
+        <v>0.7072908150328403</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>Q11</f>
+        <v>1.7108211199509298</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1.6905741101181131</v>
+      </c>
+      <c r="B13">
+        <v>1.5400685506399228</v>
+      </c>
+      <c r="C13">
+        <v>-0.24347326082660398</v>
+      </c>
+      <c r="D13">
+        <v>9.8897736332081571E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.4784979481505709</v>
+      </c>
+      <c r="F13">
+        <v>0.48000278631265159</v>
+      </c>
+      <c r="G13">
+        <v>0.43936272379908425</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-0.26403471339900225</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.60594262491252437</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.64940406939739148</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0.30816673768027547</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0.34742219159472443</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>-0.1488125217532007</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>-0.53583456376007199</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>R12</f>
+        <v>1.7108211199509298</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.2400160146764538</v>
+      </c>
+      <c r="B14">
+        <v>-0.9344223573190078</v>
+      </c>
+      <c r="C14">
+        <v>-3.4914056077579303E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.1338030291184886</v>
+      </c>
+      <c r="E14">
+        <v>-0.78955396385342158</v>
+      </c>
+      <c r="F14">
+        <v>-9.3840595007377764E-2</v>
+      </c>
+      <c r="G14">
+        <v>-0.1255237919124213</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-0.27757904397059263</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>-0.36392822619474507</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>-0.19935448285581911</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.19958665362688982</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0.14028772198744277</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.45280053892185024</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>0.43650911298562489</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>S13</f>
+        <v>1.7108211199509298</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.2435966281719599E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.10171064709669092</v>
+      </c>
+      <c r="C15">
+        <v>-0.34739609136645466</v>
+      </c>
+      <c r="D15">
+        <v>5.3643817875234687E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.0555215983747828</v>
+      </c>
+      <c r="F15">
+        <v>6.662759198117689E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.38862230411249299</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-0.16738724386654849</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>1.9692031051851976E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>9.1702740841647243E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.27857437195800516</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>-0.61863800598622498</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>8.8340205792672502E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>-0.11896934659714455</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>T14</f>
+        <v>1.7108211199509298</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.1214485954307813</v>
+      </c>
+      <c r="B16">
+        <v>-2.1968163140455941</v>
+      </c>
+      <c r="C16">
+        <v>0.37894002657159659</v>
+      </c>
+      <c r="D16">
+        <v>0.85056955744119678</v>
+      </c>
+      <c r="E16">
+        <v>-1.8484653727294105</v>
+      </c>
+      <c r="F16">
+        <v>0.42151012264353316</v>
+      </c>
+      <c r="G16">
+        <v>7.642165455080896E-3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.29960500256565958</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>-0.59327269797436266</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>-0.37186109793087735</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0.73027677143183178</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0.26071671828942167</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0.29222570693678562</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0.70908842169976827</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>U15</f>
+        <v>1.7108211199509298</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-0.50101749397078899</v>
+      </c>
+      <c r="B17">
+        <v>0.18422037865823296</v>
+      </c>
+      <c r="C17">
+        <v>0.59467464243026047</v>
+      </c>
+      <c r="D17">
+        <v>-0.26547146975200636</v>
+      </c>
+      <c r="E17">
+        <v>0.77368416072474677</v>
+      </c>
+      <c r="F17">
+        <v>-0.20666373334449861</v>
+      </c>
+      <c r="G17">
+        <v>-0.18281232522577623</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.61085743764910339</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>-0.49104176117735515</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0.57418280070580574</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>9.7603807675917184E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>-0.69043060660365818</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>-5.9951686827807812E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>-0.51715875536332589</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>V16</f>
+        <v>1.7108211199509298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A11-2*I11+Q11</f>
+        <v>4.2015324816503643</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:G20" si="8">B11-2*J11+R11</f>
+        <v>1.4523096990459379</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="8"/>
+        <v>0.1518992721125193</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>2.0164588845166578</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>0.27320914965207349</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>-1.8702261689744248</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>-1.9871705740167576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A26" si="9">A12-2*I12+Q12</f>
+        <v>2.7979354172650366</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:B26" si="10">B12-2*J12+R12</f>
+        <v>0.99137600970275952</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C26" si="11">C12-2*K12+S12</f>
+        <v>0.50931550559458039</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D26" si="12">D12-2*L12+T12</f>
+        <v>2.0143795795530046</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E26" si="13">E12-2*M12+U12</f>
+        <v>-2.3868338342196838</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F26" si="14">F12-2*N12+V12</f>
+        <v>-1.2835805476087945</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G26" si="15">G12-2*O12+W12</f>
+        <v>-1.7082327459510296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="9"/>
+        <v>-1.1625046833201087</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="10"/>
+        <v>0.32818330081487401</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="11"/>
+        <v>0.1685397203295429</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="12"/>
+        <v>-0.5174357390284694</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="13"/>
+        <v>0.78365356496112204</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="14"/>
+        <v>0.77762782981905298</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="15"/>
+        <v>1.5110318513192282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="9"/>
+        <v>1.7951741026176391</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="10"/>
+        <v>-0.20656590492951765</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="11"/>
+        <v>0.36379490963405892</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="12"/>
+        <v>2.4454508418156387</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="13"/>
+        <v>-1.0701294078283072</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="14"/>
+        <v>-0.99944167285107821</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="15"/>
+        <v>-0.99854201788367103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="9"/>
+        <v>0.34721045401481659</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="10"/>
+        <v>6.2326584992986968E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="11"/>
+        <v>-0.53080157304974918</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="12"/>
+        <v>-0.50350492604077568</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="13"/>
+        <v>4.0036187302981627</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="14"/>
+        <v>-0.11005281960416811</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="15"/>
+        <v>0.62656099730678205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="9"/>
+        <v>0.52223859029946218</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="10"/>
+        <v>-1.0102709180968688</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="11"/>
+        <v>1.1226622224333513</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="12"/>
+        <v>-0.60998398542246679</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="13"/>
+        <v>-2.3698988093082538</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="14"/>
+        <v>1.5478798287208917</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="15"/>
+        <v>-1.4105346779444556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="9"/>
+        <v>-1.7227323692689958</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="10"/>
+        <v>1.1663039010129432</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="11"/>
+        <v>-0.55369095898135101</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="12"/>
+        <v>-0.4606790851038407</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="13"/>
+        <v>2.1545453739320632</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="14"/>
+        <v>-8.6760359688882988E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="15"/>
+        <v>2.5623263054518053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+      <c r="W28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A20</f>
+        <v>4.2015324816503643</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:G30" si="16">B20</f>
+        <v>1.4523096990459379</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="16"/>
+        <v>0.1518992721125193</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="16"/>
+        <v>2.0164588845166578</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="16"/>
+        <v>0.27320914965207349</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="16"/>
+        <v>-1.8702261689744248</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="16"/>
+        <v>-1.9871705740167576</v>
+      </c>
+      <c r="I30">
+        <f>A30</f>
+        <v>4.2015324816503643</v>
+      </c>
+      <c r="J30">
+        <f>SQRT(SUMPRODUCT(I30:I36,I30:I36))</f>
+        <v>5.7806989241528299</v>
+      </c>
+      <c r="K30">
+        <f>I30+J30</f>
+        <v>9.9822314058031942</v>
+      </c>
+      <c r="L30">
+        <f>SQRT(SUMPRODUCT(K30:K36,K30:K36))</f>
+        <v>10.74283708786195</v>
+      </c>
+      <c r="M30">
+        <f>K30/L30</f>
+        <v>0.92919880699688306</v>
+      </c>
+      <c r="O30">
+        <f t="array" ref="O30:U36">MMULT(M30:M36,TRANSPOSE(M30:M36))</f>
+        <v>0.86341042292443071</v>
+      </c>
+      <c r="P30">
+        <v>0.24200667202842413</v>
+      </c>
+      <c r="Q30">
+        <v>-0.10055053018441672</v>
+      </c>
+      <c r="R30">
+        <v>0.1552731015895906</v>
+      </c>
+      <c r="S30">
+        <v>3.0031874914303789E-2</v>
+      </c>
+      <c r="T30">
+        <v>4.5170886527012566E-2</v>
+      </c>
+      <c r="U30">
+        <v>-0.14900727333083383</v>
+      </c>
+      <c r="W30">
+        <f>1-2*O30</f>
+        <v>-0.72682084584886142</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ref="X30:AC35" si="17">-2*P30</f>
+        <v>-0.48401334405684826</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="17"/>
+        <v>0.20110106036883343</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="17"/>
+        <v>-0.31054620317918119</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="17"/>
+        <v>-6.0063749828607578E-2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="17"/>
+        <v>-9.0341773054025132E-2</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="17"/>
+        <v>0.29801454666166766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ref="A31:G31" si="18">A21</f>
+        <v>2.7979354172650366</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="18"/>
+        <v>0.99137600970275952</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="18"/>
+        <v>0.50931550559458039</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="18"/>
+        <v>2.0143795795530046</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="18"/>
+        <v>-2.3868338342196838</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="18"/>
+        <v>-1.2835805476087945</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="18"/>
+        <v>-1.7082327459510296</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I36" si="19">A31</f>
+        <v>2.7979354172650366</v>
+      </c>
+      <c r="K31">
+        <f>I31</f>
+        <v>2.7979354172650366</v>
+      </c>
+      <c r="M31">
+        <f>K31/L30</f>
+        <v>0.26044660217610022</v>
+      </c>
+      <c r="O31">
+        <v>0.24200667202842413</v>
+      </c>
+      <c r="P31">
+        <v>6.7832432585075805E-2</v>
+      </c>
+      <c r="Q31">
+        <v>-2.8183467021632307E-2</v>
+      </c>
+      <c r="R31">
+        <v>4.3521743047705994E-2</v>
+      </c>
+      <c r="S31">
+        <v>8.4176816839523997E-3</v>
+      </c>
+      <c r="T31">
+        <v>1.2661019175503602E-2</v>
+      </c>
+      <c r="U31">
+        <v>-4.1765484142158707E-2</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ref="W31:AB36" si="20">-2*O31</f>
+        <v>-0.48401334405684826</v>
+      </c>
+      <c r="X31">
+        <f>1-2*P31</f>
+        <v>0.86433513482984836</v>
+      </c>
+      <c r="Y31">
+        <f>-2*Q31</f>
+        <v>5.6366934043264615E-2</v>
+      </c>
+      <c r="Z31">
+        <f>-2*R31</f>
+        <v>-8.7043486095411987E-2</v>
+      </c>
+      <c r="AA31">
+        <f>-2*S31</f>
+        <v>-1.6835363367904799E-2</v>
+      </c>
+      <c r="AB31">
+        <f>-2*T31</f>
+        <v>-2.5322038351007204E-2</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="17"/>
+        <v>8.3530968284317414E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ref="A32:G32" si="21">A22</f>
+        <v>-1.1625046833201087</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="21"/>
+        <v>0.32818330081487401</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="21"/>
+        <v>0.1685397203295429</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="21"/>
+        <v>-0.5174357390284694</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="21"/>
+        <v>0.78365356496112204</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="21"/>
+        <v>0.77762782981905298</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="21"/>
+        <v>1.5110318513192282</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="19"/>
+        <v>-1.1625046833201087</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:K36" si="22">I32</f>
+        <v>-1.1625046833201087</v>
+      </c>
+      <c r="M32">
+        <f>K32/L30</f>
+        <v>-0.10821207413017482</v>
+      </c>
+      <c r="O32">
+        <v>-0.10055053018441672</v>
+      </c>
+      <c r="P32">
+        <v>-2.8183467021632307E-2</v>
+      </c>
+      <c r="Q32">
+        <v>1.1709852987554451E-2</v>
+      </c>
+      <c r="R32">
+        <v>-1.8082701197109162E-2</v>
+      </c>
+      <c r="S32">
+        <v>-3.4974339721743535E-3</v>
+      </c>
+      <c r="T32">
+        <v>-5.2604838540254335E-3</v>
+      </c>
+      <c r="U32">
+        <v>1.7352999149584037E-2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="20"/>
+        <v>0.20110106036883343</v>
+      </c>
+      <c r="X32">
+        <f>-2*P32</f>
+        <v>5.6366934043264615E-2</v>
+      </c>
+      <c r="Y32">
+        <f>1-2*Q32</f>
+        <v>0.9765802940248911</v>
+      </c>
+      <c r="Z32">
+        <f>-2*R32</f>
+        <v>3.6165402394218324E-2</v>
+      </c>
+      <c r="AA32">
+        <f>-2*S32</f>
+        <v>6.994867944348707E-3</v>
+      </c>
+      <c r="AB32">
+        <f>-2*T32</f>
+        <v>1.0520967708050867E-2</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="17"/>
+        <v>-3.4705998299168074E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:G33" si="23">A23</f>
+        <v>1.7951741026176391</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="23"/>
+        <v>-0.20656590492951765</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="23"/>
+        <v>0.36379490963405892</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="23"/>
+        <v>2.4454508418156387</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="23"/>
+        <v>-1.0701294078283072</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="23"/>
+        <v>-0.99944167285107821</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="23"/>
+        <v>-0.99854201788367103</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="19"/>
+        <v>1.7951741026176391</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="22"/>
+        <v>1.7951741026176391</v>
+      </c>
+      <c r="M33">
+        <f>K33/L30</f>
+        <v>0.16710428427197868</v>
+      </c>
+      <c r="O33">
+        <v>0.1552731015895906</v>
+      </c>
+      <c r="P33">
+        <v>4.3521743047705994E-2</v>
+      </c>
+      <c r="Q33">
+        <v>-1.8082701197109162E-2</v>
+      </c>
+      <c r="R33">
+        <v>2.7923841822050263E-2</v>
+      </c>
+      <c r="S33">
+        <v>5.4008409450284197E-3</v>
+      </c>
+      <c r="T33">
+        <v>8.1233946989479073E-3</v>
+      </c>
+      <c r="U33">
+        <v>-2.6797014345877876E-2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="20"/>
+        <v>-0.31054620317918119</v>
+      </c>
+      <c r="X33">
+        <f>-2*P33</f>
+        <v>-8.7043486095411987E-2</v>
+      </c>
+      <c r="Y33">
+        <f>-2*Q33</f>
+        <v>3.6165402394218324E-2</v>
+      </c>
+      <c r="Z33">
+        <f>1-2*R33</f>
+        <v>0.94415231635589947</v>
+      </c>
+      <c r="AA33">
+        <f>-2*S33</f>
+        <v>-1.0801681890056839E-2</v>
+      </c>
+      <c r="AB33">
+        <f>-2*T33</f>
+        <v>-1.6246789397895815E-2</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="17"/>
+        <v>5.3594028691755752E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:G34" si="24">A24</f>
+        <v>0.34721045401481659</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="24"/>
+        <v>6.2326584992986968E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="24"/>
+        <v>-0.53080157304974918</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="24"/>
+        <v>-0.50350492604077568</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="24"/>
+        <v>4.0036187302981627</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="24"/>
+        <v>-0.11005281960416811</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="24"/>
+        <v>0.62656099730678205</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="19"/>
+        <v>0.34721045401481659</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="22"/>
+        <v>0.34721045401481659</v>
+      </c>
+      <c r="M34">
+        <f>K34/L30</f>
+        <v>3.2320182385258411E-2</v>
+      </c>
+      <c r="O34">
+        <v>3.0031874914303789E-2</v>
+      </c>
+      <c r="P34">
+        <v>8.4176816839523997E-3</v>
+      </c>
+      <c r="Q34">
+        <v>-3.4974339721743535E-3</v>
+      </c>
+      <c r="R34">
+        <v>5.4008409450284197E-3</v>
+      </c>
+      <c r="S34">
+        <v>1.044594189416368E-3</v>
+      </c>
+      <c r="T34">
+        <v>1.5711721539713032E-3</v>
+      </c>
+      <c r="U34">
+        <v>-5.1828975828622174E-3</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="20"/>
+        <v>-6.0063749828607578E-2</v>
+      </c>
+      <c r="X34">
+        <f>-2*P34</f>
+        <v>-1.6835363367904799E-2</v>
+      </c>
+      <c r="Y34">
+        <f>-2*Q34</f>
+        <v>6.994867944348707E-3</v>
+      </c>
+      <c r="Z34">
+        <f>-2*R34</f>
+        <v>-1.0801681890056839E-2</v>
+      </c>
+      <c r="AA34">
+        <f>1-2*S34</f>
+        <v>0.99791081162116724</v>
+      </c>
+      <c r="AB34">
+        <f>-2*T34</f>
+        <v>-3.1423443079426064E-3</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="17"/>
+        <v>1.0365795165724435E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ref="A35:G35" si="25">A25</f>
+        <v>0.52223859029946218</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="25"/>
+        <v>-1.0102709180968688</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="25"/>
+        <v>1.1226622224333513</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="25"/>
+        <v>-0.60998398542246679</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="25"/>
+        <v>-2.3698988093082538</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="25"/>
+        <v>1.5478798287208917</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="25"/>
+        <v>-1.4105346779444556</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="19"/>
+        <v>0.52223859029946218</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="22"/>
+        <v>0.52223859029946218</v>
+      </c>
+      <c r="M35">
+        <f>K35/L30</f>
+        <v>4.8612725486596634E-2</v>
+      </c>
+      <c r="O35">
+        <v>4.5170886527012566E-2</v>
+      </c>
+      <c r="P35">
+        <v>1.2661019175503602E-2</v>
+      </c>
+      <c r="Q35">
+        <v>-5.2604838540254335E-3</v>
+      </c>
+      <c r="R35">
+        <v>8.1233946989479073E-3</v>
+      </c>
+      <c r="S35">
+        <v>1.5711721539713032E-3</v>
+      </c>
+      <c r="T35">
+        <v>2.3631970792352018E-3</v>
+      </c>
+      <c r="U35">
+        <v>-7.7955864981673348E-3</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="20"/>
+        <v>-9.0341773054025132E-2</v>
+      </c>
+      <c r="X35">
+        <f>-2*P35</f>
+        <v>-2.5322038351007204E-2</v>
+      </c>
+      <c r="Y35">
+        <f>-2*Q35</f>
+        <v>1.0520967708050867E-2</v>
+      </c>
+      <c r="Z35">
+        <f>-2*R35</f>
+        <v>-1.6246789397895815E-2</v>
+      </c>
+      <c r="AA35">
+        <f>-2*S35</f>
+        <v>-3.1423443079426064E-3</v>
+      </c>
+      <c r="AB35">
+        <f>1-2*T35</f>
+        <v>0.99527360584152957</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="17"/>
+        <v>1.559117299633467E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ref="A36:G36" si="26">A26</f>
+        <v>-1.7227323692689958</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="26"/>
+        <v>1.1663039010129432</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="26"/>
+        <v>-0.55369095898135101</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="26"/>
+        <v>-0.4606790851038407</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="26"/>
+        <v>2.1545453739320632</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="26"/>
+        <v>-8.6760359688882988E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="26"/>
+        <v>2.5623263054518053</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="19"/>
+        <v>-1.7227323692689958</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="22"/>
+        <v>-1.7227323692689958</v>
+      </c>
+      <c r="M36">
+        <f>K36/L30</f>
+        <v>-0.16036102522819282</v>
+      </c>
+      <c r="O36">
+        <v>-0.14900727333083383</v>
+      </c>
+      <c r="P36">
+        <v>-4.1765484142158707E-2</v>
+      </c>
+      <c r="Q36">
+        <v>1.7352999149584037E-2</v>
+      </c>
+      <c r="R36">
+        <v>-2.6797014345877876E-2</v>
+      </c>
+      <c r="S36">
+        <v>-5.1828975828622174E-3</v>
+      </c>
+      <c r="T36">
+        <v>-7.7955864981673348E-3</v>
+      </c>
+      <c r="U36">
+        <v>2.5715658412237094E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>0.29801454666166766</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="20"/>
+        <v>8.3530968284317414E-2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="20"/>
+        <v>-3.4705998299168074E-2</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="20"/>
+        <v>5.3594028691755752E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="20"/>
+        <v>1.0365795165724435E-2</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="20"/>
+        <v>1.559117299633467E-2</v>
+      </c>
+      <c r="AC36">
+        <f>1-2*U36</f>
+        <v>0.94856868317552578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="array" ref="A38:G44">MMULT(W30:AC36,A30:G36)</f>
+        <v>-5.780698924152829</v>
+      </c>
+      <c r="B38">
+        <v>-0.97016028837048696</v>
+      </c>
+      <c r="C38">
+        <v>-0.67054999288831862</v>
+      </c>
+      <c r="D38">
+        <v>-3.3560129383525839</v>
+      </c>
+      <c r="E38">
+        <v>2.0623178773920259</v>
+      </c>
+      <c r="F38">
+        <v>2.2882602047915439</v>
+      </c>
+      <c r="G38">
+        <v>3.7384950942516069</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="array" ref="O38:U44">MMULT(M38:M44,TRANSPOSE(M38:M44))</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f>1-2*O38</f>
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <f t="shared" ref="X38:AC43" si="27">-2*P38</f>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3.8857805861880479E-16</v>
+      </c>
+      <c r="B39">
+        <v>0.31237806830925041</v>
+      </c>
+      <c r="C39">
+        <v>0.27878990125809322</v>
+      </c>
+      <c r="D39">
+        <v>0.50852096133608826</v>
+      </c>
+      <c r="E39">
+        <v>-1.8853617213039819</v>
+      </c>
+      <c r="F39">
+        <v>-0.11799182957830291</v>
+      </c>
+      <c r="G39">
+        <v>-0.10337686659791712</v>
+      </c>
+      <c r="I39">
+        <f>B39</f>
+        <v>0.31237806830925041</v>
+      </c>
+      <c r="J39">
+        <f>SQRT(SUMPRODUCT(I39:I45,I39:I45))</f>
+        <v>2.1647146098518961</v>
+      </c>
+      <c r="K39">
+        <f>I39+SIGN(I39)*J39</f>
+        <v>2.4770926781611466</v>
+      </c>
+      <c r="L39">
+        <f>SQRT(SUMPRODUCT(K39:K45,K39:K45))</f>
+        <v>3.2748125779569719</v>
+      </c>
+      <c r="M39">
+        <f>K39/L39</f>
+        <v>0.75640746430334904</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0.57215225205382225</v>
+      </c>
+      <c r="Q39">
+        <v>0.14096496750370055</v>
+      </c>
+      <c r="R39">
+        <v>-0.14833722854908343</v>
+      </c>
+      <c r="S39">
+        <v>-5.0662161714080112E-3</v>
+      </c>
+      <c r="T39">
+        <v>-0.26262280394098847</v>
+      </c>
+      <c r="U39">
+        <v>0.36595435970964618</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ref="W39:AB44" si="28">-2*O39</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f>1-2*P39</f>
+        <v>-0.1443045041076445</v>
+      </c>
+      <c r="Y39">
+        <f>-2*Q39</f>
+        <v>-0.2819299350074011</v>
+      </c>
+      <c r="Z39">
+        <f>-2*R39</f>
+        <v>0.29667445709816687</v>
+      </c>
+      <c r="AA39">
+        <f>-2*S39</f>
+        <v>1.0132432342816022E-2</v>
+      </c>
+      <c r="AB39">
+        <f>-2*T39</f>
+        <v>0.52524560788197694</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="27"/>
+        <v>-0.73190871941929236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.3877787807814457E-16</v>
+      </c>
+      <c r="B40">
+        <v>0.61029784926511654</v>
+      </c>
+      <c r="C40">
+        <v>0.26432002069413107</v>
+      </c>
+      <c r="D40">
+        <v>0.10822834359938517</v>
+      </c>
+      <c r="E40">
+        <v>0.5752986200179051</v>
+      </c>
+      <c r="F40">
+        <v>0.2933413322915176</v>
+      </c>
+      <c r="G40">
+        <v>0.84423573290650666</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:I44" si="29">B40</f>
+        <v>0.61029784926511654</v>
+      </c>
+      <c r="K40">
+        <f>I40</f>
+        <v>0.61029784926511654</v>
+      </c>
+      <c r="M40">
+        <f>K40/L39</f>
+        <v>0.18636115342083412</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0.14096496750370055</v>
+      </c>
+      <c r="Q40">
+        <v>3.4730479504343673E-2</v>
+      </c>
+      <c r="R40">
+        <v>-3.6546832642797171E-2</v>
+      </c>
+      <c r="S40">
+        <v>-1.2481974778665585E-3</v>
+      </c>
+      <c r="T40">
+        <v>-6.4704132318594176E-2</v>
+      </c>
+      <c r="U40">
+        <v>9.0162617099084769E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f>-2*P40</f>
+        <v>-0.2819299350074011</v>
+      </c>
+      <c r="Y40">
+        <f>1-2*Q40</f>
+        <v>0.93053904099131268</v>
+      </c>
+      <c r="Z40">
+        <f>-2*R40</f>
+        <v>7.3093665285594342E-2</v>
+      </c>
+      <c r="AA40">
+        <f>-2*S40</f>
+        <v>2.4963949557331171E-3</v>
+      </c>
+      <c r="AB40">
+        <f>-2*T40</f>
+        <v>0.12940826463718835</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="27"/>
+        <v>-0.18032523419816954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4.9960036108132044E-16</v>
+      </c>
+      <c r="B41">
+        <v>-0.64221553165028133</v>
+      </c>
+      <c r="C41">
+        <v>0.21588813796894962</v>
+      </c>
+      <c r="D41">
+        <v>1.4792818670259964</v>
+      </c>
+      <c r="E41">
+        <v>-0.74838154162087889</v>
+      </c>
+      <c r="F41">
+        <v>-0.25159214494561533</v>
+      </c>
+      <c r="G41">
+        <v>3.1144262675484813E-2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="29"/>
+        <v>-0.64221553165028133</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:K44" si="30">I41</f>
+        <v>-0.64221553165028133</v>
+      </c>
+      <c r="M41">
+        <f>K41/L39</f>
+        <v>-0.19610756840653598</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>-0.14833722854908343</v>
+      </c>
+      <c r="Q41">
+        <v>-3.6546832642797171E-2</v>
+      </c>
+      <c r="R41">
+        <v>3.8458178386324191E-2</v>
+      </c>
+      <c r="S41">
+        <v>1.313476375212307E-3</v>
+      </c>
+      <c r="T41">
+        <v>6.8088063536505816E-2</v>
+      </c>
+      <c r="U41">
+        <v>-9.4877989730741685E-2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f>-2*P41</f>
+        <v>0.29667445709816687</v>
+      </c>
+      <c r="Y41">
+        <f>-2*Q41</f>
+        <v>7.3093665285594342E-2</v>
+      </c>
+      <c r="Z41">
+        <f>1-2*R41</f>
+        <v>0.92308364322735159</v>
+      </c>
+      <c r="AA41">
+        <f>-2*S41</f>
+        <v>-2.626952750424614E-3</v>
+      </c>
+      <c r="AB41">
+        <f>-2*T41</f>
+        <v>-0.13617612707301163</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="27"/>
+        <v>0.18975597946148337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-7.6327832942979512E-17</v>
+      </c>
+      <c r="B42">
+        <v>-2.1933824325829715E-2</v>
+      </c>
+      <c r="C42">
+        <v>-0.5594087021671007</v>
+      </c>
+      <c r="D42">
+        <v>-0.69037480562659626</v>
+      </c>
+      <c r="E42">
+        <v>4.0658490301567012</v>
+      </c>
+      <c r="F42">
+        <v>3.4591186645808514E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.82571596530930413</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="29"/>
+        <v>-2.1933824325829715E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="30"/>
+        <v>-2.1933824325829715E-2</v>
+      </c>
+      <c r="M42">
+        <f>K42/L39</f>
+        <v>-6.6977342378211381E-3</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>-5.0662161714080112E-3</v>
+      </c>
+      <c r="Q42">
+        <v>-1.2481974778665585E-3</v>
+      </c>
+      <c r="R42">
+        <v>1.313476375212307E-3</v>
+      </c>
+      <c r="S42">
+        <v>4.4859643920481503E-5</v>
+      </c>
+      <c r="T42">
+        <v>2.3254367898235435E-3</v>
+      </c>
+      <c r="U42">
+        <v>-3.2404030369592393E-3</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f>-2*P42</f>
+        <v>1.0132432342816022E-2</v>
+      </c>
+      <c r="Y42">
+        <f>-2*Q42</f>
+        <v>2.4963949557331171E-3</v>
+      </c>
+      <c r="Z42">
+        <f>-2*R42</f>
+        <v>-2.626952750424614E-3</v>
+      </c>
+      <c r="AA42">
+        <f>1-2*S42</f>
+        <v>0.99991028071215904</v>
+      </c>
+      <c r="AB42">
+        <f>-2*T42</f>
+        <v>-4.6508735796470871E-3</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="27"/>
+        <v>6.4808060739184785E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-4.8572257327350599E-17</v>
+      </c>
+      <c r="B43">
+        <v>-1.1370068411426555</v>
+      </c>
+      <c r="C43">
+        <v>1.0796342933776126</v>
+      </c>
+      <c r="D43">
+        <v>-0.8910546195461867</v>
+      </c>
+      <c r="E43">
+        <v>-2.2762983324324928</v>
+      </c>
+      <c r="F43">
+        <v>1.7654386062455767</v>
+      </c>
+      <c r="G43">
+        <v>-1.1109860654584576</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="29"/>
+        <v>-1.1370068411426555</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="30"/>
+        <v>-1.1370068411426555</v>
+      </c>
+      <c r="M43">
+        <f>K43/L39</f>
+        <v>-0.34719753087426758</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>-0.26262280394098847</v>
+      </c>
+      <c r="Q43">
+        <v>-6.4704132318594176E-2</v>
+      </c>
+      <c r="R43">
+        <v>6.8088063536505816E-2</v>
+      </c>
+      <c r="S43">
+        <v>2.3254367898235435E-3</v>
+      </c>
+      <c r="T43">
+        <v>0.12054612544518799</v>
+      </c>
+      <c r="U43">
+        <v>-0.16797619814722939</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f>-2*P43</f>
+        <v>0.52524560788197694</v>
+      </c>
+      <c r="Y43">
+        <f>-2*Q43</f>
+        <v>0.12940826463718835</v>
+      </c>
+      <c r="Z43">
+        <f>-2*R43</f>
+        <v>-0.13617612707301163</v>
+      </c>
+      <c r="AA43">
+        <f>-2*S43</f>
+        <v>-4.6508735796470871E-3</v>
+      </c>
+      <c r="AB43">
+        <f>1-2*T43</f>
+        <v>0.758907749109624</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="27"/>
+        <v>0.33595239629445878</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1.584373498004934</v>
+      </c>
+      <c r="C44">
+        <v>-0.41175275766147945</v>
+      </c>
+      <c r="D44">
+        <v>0.46650149566909543</v>
+      </c>
+      <c r="E44">
+        <v>1.8457811916443767</v>
+      </c>
+      <c r="F44">
+        <v>-0.80443146868420223</v>
+      </c>
+      <c r="G44">
+        <v>1.5741915707066487</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="29"/>
+        <v>1.584373498004934</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="30"/>
+        <v>1.584373498004934</v>
+      </c>
+      <c r="M44">
+        <f>K44/L39</f>
+        <v>0.48380585462187364</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0.36595435970964618</v>
+      </c>
+      <c r="Q44">
+        <v>9.0162617099084769E-2</v>
+      </c>
+      <c r="R44">
+        <v>-9.4877989730741685E-2</v>
+      </c>
+      <c r="S44">
+        <v>-3.2404030369592393E-3</v>
+      </c>
+      <c r="T44">
+        <v>-0.16797619814722939</v>
+      </c>
+      <c r="U44">
+        <v>0.23406810496640154</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="28"/>
+        <v>-0.73190871941929236</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="28"/>
+        <v>-0.18032523419816954</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="28"/>
+        <v>0.18975597946148337</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="28"/>
+        <v>6.4808060739184785E-3</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="28"/>
+        <v>0.33595239629445878</v>
+      </c>
+      <c r="AC44">
+        <f>1-2*U44</f>
+        <v>0.53186379006719697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="array" ref="A46:G52">MMULT(W38:AC44,A38:G44)</f>
+        <v>-5.780698924152829</v>
+      </c>
+      <c r="B46">
+        <v>-0.97016028837048696</v>
+      </c>
+      <c r="C46">
+        <v>-0.67054999288831862</v>
+      </c>
+      <c r="D46">
+        <v>-3.3560129383525839</v>
+      </c>
+      <c r="E46">
+        <v>2.0623178773920259</v>
+      </c>
+      <c r="F46">
+        <v>2.2882602047915439</v>
+      </c>
+      <c r="G46">
+        <v>3.7384950942516069</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="array" ref="O46:U52">MMULT(M46:M52,TRANSPOSE(M46:M52))</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f>1-2*O46</f>
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <f t="shared" ref="X46:AC51" si="31">-2*P46</f>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2.6733712257442111E-17</v>
+      </c>
+      <c r="B47">
+        <v>-2.1647146098518961</v>
+      </c>
+      <c r="C47">
+        <v>0.81206856488519041</v>
+      </c>
+      <c r="D47">
+        <v>-0.48148374384690912</v>
+      </c>
+      <c r="E47">
+        <v>-2.6175155112875719</v>
+      </c>
+      <c r="F47">
+        <v>1.3760938595755645</v>
+      </c>
+      <c r="G47">
+        <v>-1.9411964474014718</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" ref="W47:AB52" si="32">-2*O47</f>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f>1-2*P47</f>
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <f>-2*Q47</f>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f>-2*R47</f>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f>-2*S47</f>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f>-2*T47</f>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4.9627872388000049E-17</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.39570744286849846</v>
+      </c>
+      <c r="D48">
+        <v>-0.1356857205219667</v>
+      </c>
+      <c r="E48">
+        <v>0.39491300614979924</v>
+      </c>
+      <c r="F48">
+        <v>0.66144919145538672</v>
+      </c>
+      <c r="G48">
+        <v>0.39143986160533567</v>
+      </c>
+      <c r="I48">
+        <f>C48</f>
+        <v>0.39570744286849846</v>
+      </c>
+      <c r="J48">
+        <f>SQRT(SUMPRODUCT(I48:I54,I48:I54))</f>
+        <v>1.0875798147094033</v>
+      </c>
+      <c r="K48">
+        <f>I48+SIGN(I48)*J48</f>
+        <v>1.4832872575779019</v>
+      </c>
+      <c r="L48">
+        <f>SQRT(SUMPRODUCT(K48:K54,K48:K54))</f>
+        <v>1.7962145087697037</v>
+      </c>
+      <c r="M48">
+        <f>K48/L48</f>
+        <v>0.82578514444461448</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0.68192110478541279</v>
+      </c>
+      <c r="R48">
+        <v>3.568903416213251E-2</v>
+      </c>
+      <c r="S48">
+        <v>-0.25935140489441821</v>
+      </c>
+      <c r="T48">
+        <v>0.38381311859979766</v>
+      </c>
+      <c r="U48">
+        <v>-3.2486046915840013E-2</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f>-2*P48</f>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f>1-2*Q48</f>
+        <v>-0.36384220957082558</v>
+      </c>
+      <c r="Z48">
+        <f>-2*R48</f>
+        <v>-7.137806832426502E-2</v>
+      </c>
+      <c r="AA48">
+        <f>-2*S48</f>
+        <v>0.51870280978883643</v>
+      </c>
+      <c r="AB48">
+        <f>-2*T48</f>
+        <v>-0.76762623719959533</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="31"/>
+        <v>6.4972093831680025E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5.9341278131164396E-16</v>
+      </c>
+      <c r="B49">
+        <v>-5.5511151231257827E-17</v>
+      </c>
+      <c r="C49">
+        <v>7.7629346322419301E-2</v>
+      </c>
+      <c r="D49">
+        <v>1.7359522789491213</v>
+      </c>
+      <c r="E49">
+        <v>-0.55856202472128103</v>
+      </c>
+      <c r="F49">
+        <v>-0.63895150523540667</v>
+      </c>
+      <c r="G49">
+        <v>0.50762069392440456</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:I52" si="33">C49</f>
+        <v>7.7629346322419301E-2</v>
+      </c>
+      <c r="K49">
+        <f>I49</f>
+        <v>7.7629346322419301E-2</v>
+      </c>
+      <c r="M49">
+        <f>K49/L48</f>
+        <v>4.3218304909245289E-2</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>3.568903416213251E-2</v>
+      </c>
+      <c r="R49">
+        <v>1.8678218792284955E-3</v>
+      </c>
+      <c r="S49">
+        <v>-1.3573419394589108E-2</v>
+      </c>
+      <c r="T49">
+        <v>2.0087249691286887E-2</v>
+      </c>
+      <c r="U49">
+        <v>-1.7001902859963441E-3</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f>-2*P49</f>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f>-2*Q49</f>
+        <v>-7.137806832426502E-2</v>
+      </c>
+      <c r="Z49">
+        <f>1-2*R49</f>
+        <v>0.99626435624154297</v>
+      </c>
+      <c r="AA49">
+        <f>-2*S49</f>
+        <v>2.7146838789178215E-2</v>
+      </c>
+      <c r="AB49">
+        <f>-2*T49</f>
+        <v>-4.0174499382573774E-2</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="31"/>
+        <v>3.4003805719926882E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-7.3123822694854074E-17</v>
+      </c>
+      <c r="B50">
+        <v>1.7347234759768071E-18</v>
+      </c>
+      <c r="C50">
+        <v>-0.56413070575938973</v>
+      </c>
+      <c r="D50">
+        <v>-0.68160864621856454</v>
+      </c>
+      <c r="E50">
+        <v>4.0723320062482182</v>
+      </c>
+      <c r="F50">
+        <v>2.1361559299784262E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.8419892409050479</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="33"/>
+        <v>-0.56413070575938973</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:K52" si="34">I50</f>
+        <v>-0.56413070575938973</v>
+      </c>
+      <c r="M50">
+        <f>K50/L48</f>
+        <v>-0.31406644529655009</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-0.25935140489441821</v>
+      </c>
+      <c r="R50">
+        <v>-1.3573419394589108E-2</v>
+      </c>
+      <c r="S50">
+        <v>9.8637732061210889E-2</v>
+      </c>
+      <c r="T50">
+        <v>-0.14597358965314552</v>
+      </c>
+      <c r="U50">
+        <v>1.2355244394056945E-2</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f>-2*P50</f>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f>-2*Q50</f>
+        <v>0.51870280978883643</v>
+      </c>
+      <c r="Z50">
+        <f>-2*R50</f>
+        <v>2.7146838789178215E-2</v>
+      </c>
+      <c r="AA50">
+        <f>1-2*S50</f>
+        <v>0.80272453587757819</v>
+      </c>
+      <c r="AB50">
+        <f>-2*T50</f>
+        <v>0.29194717930629105</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="31"/>
+        <v>-2.4710488788113889E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.1751740934877733E-16</v>
+      </c>
+      <c r="B51">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="C51">
+        <v>0.83485480081961261</v>
+      </c>
+      <c r="D51">
+        <v>-0.43663394627848373</v>
+      </c>
+      <c r="E51">
+        <v>-1.9402334466415261</v>
+      </c>
+      <c r="F51">
+        <v>1.0796404264688035</v>
+      </c>
+      <c r="G51">
+        <v>-0.26741107345986193</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="33"/>
+        <v>0.83485480081961261</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="34"/>
+        <v>0.83485480081961261</v>
+      </c>
+      <c r="M51">
+        <f>K51/L48</f>
+        <v>0.46478569054173641</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0.38381311859979766</v>
+      </c>
+      <c r="R51">
+        <v>2.0087249691286887E-2</v>
+      </c>
+      <c r="S51">
+        <v>-0.14597358965314552</v>
+      </c>
+      <c r="T51">
+        <v>0.21602573813235876</v>
+      </c>
+      <c r="U51">
+        <v>-1.8284477324794796E-2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <f>-2*P51</f>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f>-2*Q51</f>
+        <v>-0.76762623719959533</v>
+      </c>
+      <c r="Z51">
+        <f>-2*R51</f>
+        <v>-4.0174499382573774E-2</v>
+      </c>
+      <c r="AA51">
+        <f>-2*S51</f>
+        <v>0.29194717930629105</v>
+      </c>
+      <c r="AB51">
+        <f>1-2*T51</f>
+        <v>0.56794852373528248</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="31"/>
+        <v>3.6568954649589591E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-2.3143929891369426E-16</v>
+      </c>
+      <c r="B52">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="C52">
+        <v>-7.0662337770740546E-2</v>
+      </c>
+      <c r="D52">
+        <v>-0.16671551377946586</v>
+      </c>
+      <c r="E52">
+        <v>1.3774882321031972</v>
+      </c>
+      <c r="F52">
+        <v>0.15120082982192101</v>
+      </c>
+      <c r="G52">
+        <v>0.39870360305368258</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="33"/>
+        <v>-7.0662337770740546E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="34"/>
+        <v>-7.0662337770740546E-2</v>
+      </c>
+      <c r="M52">
+        <f>K52/L48</f>
+        <v>-3.9339587463381474E-2</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-3.2486046915840013E-2</v>
+      </c>
+      <c r="R52">
+        <v>-1.7001902859963441E-3</v>
+      </c>
+      <c r="S52">
+        <v>1.2355244394056945E-2</v>
+      </c>
+      <c r="T52">
+        <v>-1.8284477324794796E-2</v>
+      </c>
+      <c r="U52">
+        <v>1.5476031417890408E-3</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="32"/>
+        <v>6.4972093831680025E-2</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="32"/>
+        <v>3.4003805719926882E-3</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="32"/>
+        <v>-2.4710488788113889E-2</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="32"/>
+        <v>3.6568954649589591E-2</v>
+      </c>
+      <c r="AC52">
+        <f>1-2*U52</f>
+        <v>0.99690479371642193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="array" ref="A54:G60">MMULT(W46:AC52,A46:G52)</f>
+        <v>-5.780698924152829</v>
+      </c>
+      <c r="B54">
+        <v>-0.97016028837048696</v>
+      </c>
+      <c r="C54">
+        <v>-0.67054999288831862</v>
+      </c>
+      <c r="D54">
+        <v>-3.3560129383525839</v>
+      </c>
+      <c r="E54">
+        <v>2.0623178773920259</v>
+      </c>
+      <c r="F54">
+        <v>2.2882602047915439</v>
+      </c>
+      <c r="G54">
+        <v>3.7384950942516069</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="array" ref="O54:U60">MMULT(M54:M60,TRANSPOSE(M54:M60))</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f>1-2*O54</f>
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <f t="shared" ref="X54:AC59" si="35">-2*P54</f>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.6733712257442111E-17</v>
+      </c>
+      <c r="B55">
+        <v>-2.1647146098518961</v>
+      </c>
+      <c r="C55">
+        <v>0.81206856488519041</v>
+      </c>
+      <c r="D55">
+        <v>-0.48148374384690912</v>
+      </c>
+      <c r="E55">
+        <v>-2.6175155112875719</v>
+      </c>
+      <c r="F55">
+        <v>1.3760938595755645</v>
+      </c>
+      <c r="G55">
+        <v>-1.9411964474014718</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f t="shared" ref="W55:AB60" si="36">-2*O55</f>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f>1-2*P55</f>
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <f>-2*Q55</f>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f>-2*R55</f>
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <f>-2*S55</f>
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <f>-2*T55</f>
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-2.0358944767843032E-16</v>
+      </c>
+      <c r="B56">
+        <v>-7.3148196144993376E-17</v>
+      </c>
+      <c r="C56">
+        <v>-1.0875798147094036</v>
+      </c>
+      <c r="D56">
+        <v>-0.10375323077161994</v>
+      </c>
+      <c r="E56">
+        <v>3.5873855062545359</v>
+      </c>
+      <c r="F56">
+        <v>-1.0029121939073062</v>
+      </c>
+      <c r="G56">
+        <v>0.48926322034921849</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f>-2*P56</f>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f>1-2*Q56</f>
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <f>-2*R56</f>
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f>-2*S56</f>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f>-2*T56</f>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5.8016039548155834E-16</v>
+      </c>
+      <c r="B57">
+        <v>-5.9339436428470692E-17</v>
+      </c>
+      <c r="C57">
+        <v>2.5478751053409354E-18</v>
+      </c>
+      <c r="D57">
+        <v>1.7376234982581946</v>
+      </c>
+      <c r="E57">
+        <v>-0.39148073141864881</v>
+      </c>
+      <c r="F57">
+        <v>-0.72605755008943007</v>
+      </c>
+      <c r="G57">
+        <v>0.51274037883746126</v>
+      </c>
+      <c r="I57">
+        <f>D57</f>
+        <v>1.7376234982581946</v>
+      </c>
+      <c r="J57">
+        <f>SQRT(SUMPRODUCT(I57:I63,I57:I63))</f>
+        <v>1.9246323827744458</v>
+      </c>
+      <c r="K57">
+        <f>I57+SIGN(I57)*J57</f>
+        <v>3.6622558810326407</v>
+      </c>
+      <c r="L57">
+        <f>SQRT(SUMPRODUCT(K57:K63,K57:K63))</f>
+        <v>3.7545961867134472</v>
+      </c>
+      <c r="M57">
+        <f>K57/L57</f>
+        <v>0.97540606204002034</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0.95141698586442003</v>
+      </c>
+      <c r="S57">
+        <v>-0.18023009624773603</v>
+      </c>
+      <c r="T57">
+        <v>-0.10876389624806063</v>
+      </c>
+      <c r="U57">
+        <v>-4.3706202678278717E-2</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f>-2*P57</f>
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <f>-2*Q57</f>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f>1-2*R57</f>
+        <v>-0.90283397172884006</v>
+      </c>
+      <c r="AA57">
+        <f>-2*S57</f>
+        <v>0.36046019249547206</v>
+      </c>
+      <c r="AB57">
+        <f>-2*T57</f>
+        <v>0.21752779249612125</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="35"/>
+        <v>8.7412405356557435E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2.318096570657553E-17</v>
+      </c>
+      <c r="B58">
+        <v>2.9554785507443531E-17</v>
+      </c>
+      <c r="C58">
+        <v>4.4885969940899884E-17</v>
+      </c>
+      <c r="D58">
+        <v>-0.69375335917789593</v>
+      </c>
+      <c r="E58">
+        <v>2.8581560228703373</v>
+      </c>
+      <c r="F58">
+        <v>0.65435921917081563</v>
+      </c>
+      <c r="G58">
+        <v>0.80478460631656379</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:I60" si="37">D58</f>
+        <v>-0.69375335917789593</v>
+      </c>
+      <c r="K58">
+        <f>I58</f>
+        <v>-0.69375335917789593</v>
+      </c>
+      <c r="M58">
+        <f>K58/L57</f>
+        <v>-0.18477442704302294</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>-0.18023009624773603</v>
+      </c>
+      <c r="S58">
+        <v>3.4141588889077409E-2</v>
+      </c>
+      <c r="T58">
+        <v>2.0603508009957021E-2</v>
+      </c>
+      <c r="U58">
+        <v>8.2794119007370288E-3</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f>-2*P58</f>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f>-2*Q58</f>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f>-2*R58</f>
+        <v>0.36046019249547206</v>
+      </c>
+      <c r="AA58">
+        <f>1-2*S58</f>
+        <v>0.93171682222184515</v>
+      </c>
+      <c r="AB58">
+        <f>-2*T58</f>
+        <v>-4.1207016019914042E-2</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="35"/>
+        <v>-1.6558823801474058E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-2.5003666206968928E-17</v>
+      </c>
+      <c r="B59">
+        <v>6.9851502665676485E-17</v>
+      </c>
+      <c r="C59">
+        <v>5.5944832100252029E-17</v>
+      </c>
+      <c r="D59">
+        <v>-0.41866103359147516</v>
+      </c>
+      <c r="E59">
+        <v>-0.14337920982350891</v>
+      </c>
+      <c r="F59">
+        <v>0.14286969256674312</v>
+      </c>
+      <c r="G59">
+        <v>-0.2123520818435056</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="37"/>
+        <v>-0.41866103359147516</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ref="K59:K60" si="38">I59</f>
+        <v>-0.41866103359147516</v>
+      </c>
+      <c r="M59">
+        <f>K59/L57</f>
+        <v>-0.11150627464892474</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>-0.10876389624806063</v>
+      </c>
+      <c r="S59">
+        <v>2.0603508009957021E-2</v>
+      </c>
+      <c r="T59">
+        <v>1.2433649286081436E-2</v>
+      </c>
+      <c r="U59">
+        <v>4.9963969154681745E-3</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f>-2*P59</f>
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <f>-2*Q59</f>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f>-2*R59</f>
+        <v>0.21752779249612125</v>
+      </c>
+      <c r="AA59">
+        <f>-2*S59</f>
+        <v>-4.1207016019914042E-2</v>
+      </c>
+      <c r="AB59">
+        <f>1-2*T59</f>
+        <v>0.97513270142783715</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="35"/>
+        <v>-9.9927938309363491E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-2.193762762533677E-16</v>
+      </c>
+      <c r="B60">
+        <v>1.145070101729818E-16</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>-0.16823674600543689</v>
+      </c>
+      <c r="E60">
+        <v>1.225402000003712</v>
+      </c>
+      <c r="F60">
+        <v>0.2304893599324816</v>
+      </c>
+      <c r="G60">
+        <v>0.39404339500422086</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="37"/>
+        <v>-0.16823674600543689</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="38"/>
+        <v>-0.16823674600543689</v>
+      </c>
+      <c r="M60">
+        <f>K60/L57</f>
+        <v>-4.4808213091139755E-2</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>-4.3706202678278717E-2</v>
+      </c>
+      <c r="S60">
+        <v>8.2794119007370288E-3</v>
+      </c>
+      <c r="T60">
+        <v>4.9963969154681745E-3</v>
+      </c>
+      <c r="U60">
+        <v>2.0077759604209882E-3</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="36"/>
+        <v>8.7412405356557435E-2</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="36"/>
+        <v>-1.6558823801474058E-2</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="36"/>
+        <v>-9.9927938309363491E-3</v>
+      </c>
+      <c r="AC60">
+        <f>1-2*U60</f>
+        <v>0.99598444807915798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="array" ref="A62:G68">MMULT(W54:AC60,A54:G60)</f>
+        <v>-5.780698924152829</v>
+      </c>
+      <c r="B62">
+        <v>-0.97016028837048696</v>
+      </c>
+      <c r="C62">
+        <v>-0.67054999288831862</v>
+      </c>
+      <c r="D62">
+        <v>-3.3560129383525839</v>
+      </c>
+      <c r="E62">
+        <v>2.0623178773920259</v>
+      </c>
+      <c r="F62">
+        <v>2.2882602047915439</v>
+      </c>
+      <c r="G62">
+        <v>3.7384950942516069</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="array" ref="O62:U68">MMULT(M62:M68,TRANSPOSE(M62:M68))</f>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f>1-2*O62</f>
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <f t="shared" ref="X62:AC67" si="39">-2*P62</f>
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2.6733712257442111E-17</v>
+      </c>
+      <c r="B63">
+        <v>-2.1647146098518961</v>
+      </c>
+      <c r="C63">
+        <v>0.81206856488519041</v>
+      </c>
+      <c r="D63">
+        <v>-0.48148374384690912</v>
+      </c>
+      <c r="E63">
+        <v>-2.6175155112875719</v>
+      </c>
+      <c r="F63">
+        <v>1.3760938595755645</v>
+      </c>
+      <c r="G63">
+        <v>-1.9411964474014718</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="shared" ref="W63:AB68" si="40">-2*O63</f>
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <f>1-2*P63</f>
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <f>-2*Q63</f>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f>-2*R63</f>
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <f>-2*S63</f>
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <f>-2*T63</f>
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-2.0358944767843032E-16</v>
+      </c>
+      <c r="B64">
+        <v>-7.3148196144993376E-17</v>
+      </c>
+      <c r="C64">
+        <v>-1.0875798147094036</v>
+      </c>
+      <c r="D64">
+        <v>-0.10375323077161994</v>
+      </c>
+      <c r="E64">
+        <v>3.5873855062545359</v>
+      </c>
+      <c r="F64">
+        <v>-1.0029121939073062</v>
+      </c>
+      <c r="G64">
+        <v>0.48926322034921849</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <f>-2*P64</f>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f>1-2*Q64</f>
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <f>-2*R64</f>
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <f>-2*S64</f>
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <f>-2*T64</f>
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-5.4004789903135015E-16</v>
+      </c>
+      <c r="B65">
+        <v>8.9430959110852347E-17</v>
+      </c>
+      <c r="C65">
+        <v>2.6048852992752719E-17</v>
+      </c>
+      <c r="D65">
+        <v>-1.9246323827744454</v>
+      </c>
+      <c r="E65">
+        <v>1.4596199471342595</v>
+      </c>
+      <c r="F65">
+        <v>0.94260562995388497</v>
+      </c>
+      <c r="G65">
+        <v>-0.18457481720450436</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f>-2*P65</f>
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <f>-2*Q65</f>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f>1-2*R65</f>
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <f>-2*S65</f>
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f>-2*T65</f>
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2.3538576311634599E-16</v>
+      </c>
+      <c r="B66">
+        <v>1.3727127620165548E-18</v>
+      </c>
+      <c r="C66">
+        <v>4.0434101234019631E-17</v>
+      </c>
+      <c r="D66">
+        <v>-9.4976110309730188E-17</v>
+      </c>
+      <c r="E66">
+        <v>2.5074958408296282</v>
+      </c>
+      <c r="F66">
+        <v>0.3382587815997789</v>
+      </c>
+      <c r="G66">
+        <v>0.93687935211665785</v>
+      </c>
+      <c r="I66">
+        <f>E66</f>
+        <v>2.5074958408296282</v>
+      </c>
+      <c r="J66">
+        <f>SQRT(SUMPRODUCT(I66:I72,I66:I72))</f>
+        <v>2.7774071151872128</v>
+      </c>
+      <c r="K66">
+        <f>I66+SIGN(I66)*J66</f>
+        <v>5.2849029560168415</v>
+      </c>
+      <c r="L66">
+        <f>SQRT(SUMPRODUCT(K66:K72,K66:K72))</f>
+        <v>5.4181781205706248</v>
+      </c>
+      <c r="M66">
+        <f>K66/L66</f>
+        <v>0.97540221794337256</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0.95140948676885051</v>
+      </c>
+      <c r="T66">
+        <v>-6.3907261585957623E-2</v>
+      </c>
+      <c r="U66">
+        <v>0.20529329548640093</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f>-2*P66</f>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f>-2*Q66</f>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f>-2*R66</f>
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <f>1-2*S66</f>
+        <v>-0.90281897353770102</v>
+      </c>
+      <c r="AB66">
+        <f>-2*T66</f>
+        <v>0.12781452317191525</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="39"/>
+        <v>-0.41058659097280187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.0305608102354904E-16</v>
+      </c>
+      <c r="B67">
+        <v>5.2844398414199843E-17</v>
+      </c>
+      <c r="C67">
+        <v>5.3258252021642138E-17</v>
+      </c>
+      <c r="D67">
+        <v>-7.9363599025938925E-17</v>
+      </c>
+      <c r="E67">
+        <v>-0.35499296608193842</v>
+      </c>
+      <c r="F67">
+        <v>-4.7888210312502906E-2</v>
+      </c>
+      <c r="G67">
+        <v>-0.13263654306153114</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I68" si="41">E67</f>
+        <v>-0.35499296608193842</v>
+      </c>
+      <c r="K67">
+        <f>I67</f>
+        <v>-0.35499296608193842</v>
+      </c>
+      <c r="M67">
+        <f>K67/L66</f>
+        <v>-6.5518880734868071E-2</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>-6.3907261585957623E-2</v>
+      </c>
+      <c r="T67">
+        <v>4.292723732749866E-3</v>
+      </c>
+      <c r="U67">
+        <v>-1.3789785070411242E-2</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f>-2*P67</f>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f>-2*Q67</f>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f>-2*R67</f>
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <f>-2*S67</f>
+        <v>0.12781452317191525</v>
+      </c>
+      <c r="AB67">
+        <f>1-2*T67</f>
+        <v>0.99141455253450028</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="39"/>
+        <v>2.7579570140822483E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-1.6791613680947606E-16</v>
+      </c>
+      <c r="B68">
+        <v>1.0767279430698933E-16</v>
+      </c>
+      <c r="C68">
+        <v>-1.0795881489878471E-18</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1.1403661191683221</v>
+      </c>
+      <c r="F68">
+        <v>0.15383429466423637</v>
+      </c>
+      <c r="G68">
+        <v>0.42607666720942916</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="41"/>
+        <v>1.1403661191683221</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68" si="42">I68</f>
+        <v>1.1403661191683221</v>
+      </c>
+      <c r="M68">
+        <f>K68/L66</f>
+        <v>0.21047040052795873</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0.20529329548640093</v>
+      </c>
+      <c r="T68">
+        <v>-1.3789785070411242E-2</v>
+      </c>
+      <c r="U68">
+        <v>4.4297789498399374E-2</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="40"/>
+        <v>-0.41058659097280187</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="40"/>
+        <v>2.7579570140822483E-2</v>
+      </c>
+      <c r="AC68">
+        <f>1-2*U68</f>
+        <v>0.91140442100320129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="array" ref="A70:G76">MMULT(W62:AC68,A62:G68)</f>
+        <v>-5.780698924152829</v>
+      </c>
+      <c r="B70">
+        <v>-0.97016028837048696</v>
+      </c>
+      <c r="C70">
+        <v>-0.67054999288831862</v>
+      </c>
+      <c r="D70">
+        <v>-3.3560129383525839</v>
+      </c>
+      <c r="E70">
+        <v>2.0623178773920259</v>
+      </c>
+      <c r="F70">
+        <v>2.2882602047915439</v>
+      </c>
+      <c r="G70">
+        <v>3.7384950942516069</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="array" ref="O70:U76">MMULT(M70:M76,TRANSPOSE(M70:M76))</f>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f>1-2*O70</f>
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <f t="shared" ref="X70:AC75" si="43">-2*P70</f>
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2.6733712257442111E-17</v>
+      </c>
+      <c r="B71">
+        <v>-2.1647146098518961</v>
+      </c>
+      <c r="C71">
+        <v>0.81206856488519041</v>
+      </c>
+      <c r="D71">
+        <v>-0.48148374384690912</v>
+      </c>
+      <c r="E71">
+        <v>-2.6175155112875719</v>
+      </c>
+      <c r="F71">
+        <v>1.3760938595755645</v>
+      </c>
+      <c r="G71">
+        <v>-1.9411964474014718</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="shared" ref="W71:AB76" si="44">-2*O71</f>
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <f>1-2*P71</f>
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <f>-2*Q71</f>
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <f>-2*R71</f>
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <f>-2*S71</f>
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <f>-2*T71</f>
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-2.0358944767843032E-16</v>
+      </c>
+      <c r="B72">
+        <v>-7.3148196144993376E-17</v>
+      </c>
+      <c r="C72">
+        <v>-1.0875798147094036</v>
+      </c>
+      <c r="D72">
+        <v>-0.10375323077161994</v>
+      </c>
+      <c r="E72">
+        <v>3.5873855062545359</v>
+      </c>
+      <c r="F72">
+        <v>-1.0029121939073062</v>
+      </c>
+      <c r="G72">
+        <v>0.48926322034921849</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <f>-2*P72</f>
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <f>1-2*Q72</f>
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <f>-2*R72</f>
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <f>-2*S72</f>
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <f>-2*T72</f>
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-5.4004789903135015E-16</v>
+      </c>
+      <c r="B73">
+        <v>8.9430959110852347E-17</v>
+      </c>
+      <c r="C73">
+        <v>2.6048852992752719E-17</v>
+      </c>
+      <c r="D73">
+        <v>-1.9246323827744454</v>
+      </c>
+      <c r="E73">
+        <v>1.4596199471342595</v>
+      </c>
+      <c r="F73">
+        <v>0.94260562995388497</v>
+      </c>
+      <c r="G73">
+        <v>-0.18457481720450436</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <f>-2*P73</f>
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <f>-2*Q73</f>
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <f>1-2*R73</f>
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <f>-2*S73</f>
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <f>-2*T73</f>
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-1.3039455500417135E-16</v>
+      </c>
+      <c r="B74">
+        <v>-3.8694035096170674E-17</v>
+      </c>
+      <c r="C74">
+        <v>-2.9254231267153654E-17</v>
+      </c>
+      <c r="D74">
+        <v>7.5602413853726613E-17</v>
+      </c>
+      <c r="E74">
+        <v>-2.777407115187212</v>
+      </c>
+      <c r="F74">
+        <v>-0.37466955338156899</v>
+      </c>
+      <c r="G74">
+        <v>-1.0377266977957809</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <f>-2*P74</f>
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <f>-2*Q74</f>
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <f>-2*R74</f>
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <f>1-2*S74</f>
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <f>-2*T74</f>
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.2762596265518137E-16</v>
+      </c>
+      <c r="B75">
+        <v>5.5535727617745912E-17</v>
+      </c>
+      <c r="C75">
+        <v>5.7939296888838939E-17</v>
+      </c>
+      <c r="D75">
+        <v>-9.0821553267790128E-17</v>
+      </c>
+      <c r="E75">
+        <v>-1.5265566588595902E-16</v>
+      </c>
+      <c r="F75">
+        <v>-3.0852057020247514E-15</v>
+      </c>
+      <c r="G75">
+        <v>2.9542340795885025E-15</v>
+      </c>
+      <c r="I75">
+        <f>F75</f>
+        <v>-3.0852057020247514E-15</v>
+      </c>
+      <c r="J75">
+        <f>SQRT(SUMPRODUCT(I75:I81,I75:I81))</f>
+        <v>5.5911960190964669E-15</v>
+      </c>
+      <c r="K75">
+        <f>I75+SIGN(I75)*J75</f>
+        <v>-8.6764017211212191E-15</v>
+      </c>
+      <c r="L75">
+        <f>SQRT(SUMPRODUCT(K75:K81,K75:K81))</f>
+        <v>9.8500216003026808E-15</v>
+      </c>
+      <c r="M75">
+        <f>K75/L75</f>
+        <v>-0.88085103497180173</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0.77589854581089424</v>
+      </c>
+      <c r="U75">
+        <v>0.41698919940381424</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f>-2*P75</f>
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <f>-2*Q75</f>
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <f>-2*R75</f>
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <f>-2*S75</f>
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <f>1-2*T75</f>
+        <v>-0.55179709162178847</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="43"/>
+        <v>-0.83397839880762847</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-2.4684350507237961E-16</v>
+      </c>
+      <c r="B76">
+        <v>9.902726909243116E-17</v>
+      </c>
+      <c r="C76">
+        <v>-1.611680149936699E-17</v>
+      </c>
+      <c r="D76">
+        <v>3.6807103409964901E-17</v>
+      </c>
+      <c r="E76">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="F76">
+        <v>-4.6629367034256575E-15</v>
+      </c>
+      <c r="G76">
+        <v>-4.0523140398818214E-15</v>
+      </c>
+      <c r="I76">
+        <f>F76</f>
+        <v>-4.6629367034256575E-15</v>
+      </c>
+      <c r="K76">
+        <f>I76</f>
+        <v>-4.6629367034256575E-15</v>
+      </c>
+      <c r="M76">
+        <f>K76/L75</f>
+        <v>-0.47339355106412867</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0.41698919940381424</v>
+      </c>
+      <c r="U76">
+        <v>0.22410145418910579</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="44"/>
+        <v>-0.83397839880762847</v>
+      </c>
+      <c r="AC76">
+        <f>1-2*U76</f>
+        <v>0.55179709162178847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="array" ref="A78:G84">MMULT(W70:AC76,A70:G76)</f>
+        <v>-5.780698924152829</v>
+      </c>
+      <c r="B78">
+        <v>-0.97016028837048696</v>
+      </c>
+      <c r="C78">
+        <v>-0.67054999288831862</v>
+      </c>
+      <c r="D78">
+        <v>-3.3560129383525839</v>
+      </c>
+      <c r="E78">
+        <v>2.0623178773920259</v>
+      </c>
+      <c r="F78">
+        <v>2.2882602047915439</v>
+      </c>
+      <c r="G78">
+        <v>3.7384950942516069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2.6733712257442111E-17</v>
+      </c>
+      <c r="B79">
+        <v>-2.1647146098518961</v>
+      </c>
+      <c r="C79">
+        <v>0.81206856488519041</v>
+      </c>
+      <c r="D79">
+        <v>-0.48148374384690912</v>
+      </c>
+      <c r="E79">
+        <v>-2.6175155112875719</v>
+      </c>
+      <c r="F79">
+        <v>1.3760938595755645</v>
+      </c>
+      <c r="G79">
+        <v>-1.9411964474014718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-2.0358944767843032E-16</v>
+      </c>
+      <c r="B80">
+        <v>-7.3148196144993376E-17</v>
+      </c>
+      <c r="C80">
+        <v>-1.0875798147094036</v>
+      </c>
+      <c r="D80">
+        <v>-0.10375323077161994</v>
+      </c>
+      <c r="E80">
+        <v>3.5873855062545359</v>
+      </c>
+      <c r="F80">
+        <v>-1.0029121939073062</v>
+      </c>
+      <c r="G80">
+        <v>0.48926322034921849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-5.4004789903135015E-16</v>
+      </c>
+      <c r="B81">
+        <v>8.9430959110852347E-17</v>
+      </c>
+      <c r="C81">
+        <v>2.6048852992752719E-17</v>
+      </c>
+      <c r="D81">
+        <v>-1.9246323827744454</v>
+      </c>
+      <c r="E81">
+        <v>1.4596199471342595</v>
+      </c>
+      <c r="F81">
+        <v>0.94260562995388497</v>
+      </c>
+      <c r="G81">
+        <v>-0.18457481720450436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-1.3039455500417135E-16</v>
+      </c>
+      <c r="B82">
+        <v>-3.8694035096170674E-17</v>
+      </c>
+      <c r="C82">
+        <v>-2.9254231267153654E-17</v>
+      </c>
+      <c r="D82">
+        <v>7.5602413853726613E-17</v>
+      </c>
+      <c r="E82">
+        <v>-2.777407115187212</v>
+      </c>
+      <c r="F82">
+        <v>-0.37466955338156899</v>
+      </c>
+      <c r="G82">
+        <v>-1.0377266977957809</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1.3543851610776577E-16</v>
+      </c>
+      <c r="B83">
+        <v>-1.1323105629656994E-16</v>
+      </c>
+      <c r="C83">
+        <v>-1.8529671205530197E-17</v>
+      </c>
+      <c r="D83">
+        <v>1.9418739783150607E-17</v>
+      </c>
+      <c r="E83">
+        <v>-1.009454516237904E-16</v>
+      </c>
+      <c r="F83">
+        <v>5.5911960190964677E-15</v>
+      </c>
+      <c r="G83">
+        <v>1.7494046013594067E-15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-2.4264482416611762E-16</v>
+      </c>
+      <c r="B84">
+        <v>8.3273618811874105E-18</v>
+      </c>
+      <c r="C84">
+        <v>-5.7213326240990089E-17</v>
+      </c>
+      <c r="D84">
+        <v>9.6053266184134398E-17</v>
+      </c>
+      <c r="E84">
+        <v>2.4983509501242577E-16</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>-4.6998225089430765E-15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86">
+        <f>A78*B79*C80*D81*E82*F83*G84</f>
+        <v>1.9116819740489804E-27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,681 +10574,681 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*2-1</f>
-        <v>-0.69071974349754006</v>
+        <v>5.1686621222539753E-2</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">RAND()*2-1</f>
-        <v>0.46156770561012306</v>
+        <v>-0.88633739935650291</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53693780197651164</v>
+        <v>0.74684896341809837</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52041753953118408</v>
+        <v>-0.84659327722942401</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35474549123785071</v>
+        <v>-0.37926688373828643</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12350956503003152</v>
+        <v>0.66768134546323465</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20398979446842969</v>
+        <v>0.44352839398029764</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24447151968857095</v>
+        <v>-0.75311422866668631</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:H20" ca="1" si="1">RAND()*2-1</f>
-        <v>-0.64310444147233015</v>
+        <v>-0.46764067340839133</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76626690461916014</v>
+        <v>0.25263662165972089</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79263022711220921</v>
+        <v>-7.3272648703610832E-2</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30587694527024745</v>
+        <v>0.25581450186390908</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86784198366877607</v>
+        <v>-0.12034219711264771</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97647786203676445</v>
+        <v>-0.44895665403088292</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49261744724549739</v>
+        <v>-0.27305954116084785</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97372883518099629</v>
+        <v>-0.70217561757429792</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63315706366585944</v>
+        <v>0.74505826535377606</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24077832490905648</v>
+        <v>-0.67262142009017745</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.38629175784483327</v>
+        <v>-0.34999767857678843</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66993710926411087</v>
+        <v>-0.52002704933834543</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62443434094180317</v>
+        <v>0.35525982561675162</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2692542861355034</v>
+        <v>-0.74751149374828718</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57662793193431217</v>
+        <v>0.94800758436159427</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35784011064807308</v>
+        <v>0.3878608243704369</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5398302755732116E-2</v>
+        <v>0.9712029774163331</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92333588715093451</v>
+        <v>-0.99472899414833904</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34623170734722253</v>
+        <v>-0.30047393359930674</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54680324781615686</v>
+        <v>-5.2642735289226472E-2</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84234080900886088</v>
+        <v>0.12626288698632293</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97567729848375917</v>
+        <v>-0.26690074011822262</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14244393308040371</v>
+        <v>0.77443554887658728</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78528390927945346</v>
+        <v>-8.1123904959871984E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43085339132388345</v>
+        <v>0.72564869287877398</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67665957221641571</v>
+        <v>-0.3310414275840905</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21939357687142236</v>
+        <v>-0.25156091954073823</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0595012469012408E-2</v>
+        <v>0.1119593562174992</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52833611385829649</v>
+        <v>0.71608892636428978</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49889238240447553</v>
+        <v>0.31414411359440741</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67582548373221063</v>
+        <v>-0.83528012724595158</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7477466771594923E-2</v>
+        <v>-0.86200989262213534</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.70109285031428326</v>
+        <v>-0.9465476205330563</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49798221694665079</v>
+        <v>-0.54666544153706975</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35412429945183455</v>
+        <v>0.30096280126546415</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41193307334257634</v>
+        <v>0.22777382382516875</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80471810733201266</v>
+        <v>-0.99247773998738431</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1488677500003408</v>
+        <v>-7.1109532612126269E-2</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14239736510870959</v>
+        <v>2.2000732862833994E-2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56753056120826728</v>
+        <v>-0.76979374743900797</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57996319004929342</v>
+        <v>-0.46054135445833233</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9430461665533747</v>
+        <v>0.56531456392771973</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15362793927310503</v>
+        <v>-4.1209093266034058E-2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84942051183117617</v>
+        <v>0.33299732931988002</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26798215556279659</v>
+        <v>-0.53772228723419624</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1722563763569156</v>
+        <v>-0.41931279845211544</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14697853466712751</v>
+        <v>-0.99921067856655266</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40477488310895149</v>
+        <v>0.92814166707462231</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63703173335845542</v>
+        <v>-0.92645292137569379</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9495165484323858E-2</v>
+        <v>-0.33783764831373664</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.73120274070263847</v>
+        <v>-0.62161225280674803</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22162173815125041</v>
+        <v>0.85984415075241083</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47730893474747682</v>
+        <v>-0.93123150745255612</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97611232129405612</v>
+        <v>0.7613267486331774</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24387328700933986</v>
+        <v>-0.16296418755030206</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42122925480141094</v>
+        <v>0.92747525086008409</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.356846724099674</v>
+        <v>-0.84968832366592983</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32923674863202645</v>
+        <v>0.15353316485564616</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72403054837897662</v>
+        <v>0.77904849902757878</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96407050997360044</v>
+        <v>0.80691282651879304</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2576466631307994E-2</v>
+        <v>0.34197784991537006</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24306496007227896</v>
+        <v>-0.31927156539506796</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.306340198581599</v>
+        <v>0.80295534162748172</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9500350221716567</v>
+        <v>0.82047813048211582</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94817051170570577</v>
+        <v>0.14677494556632698</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61900821236164671</v>
+        <v>-3.1032050260355382E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76097246884949898</v>
+        <v>0.92517236897322541</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54689701960379677</v>
+        <v>-0.40966185576590752</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24491739628030218</v>
+        <v>-0.32071482437027643</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13644814255452542</v>
+        <v>0.97655895929024372</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.70085753318349231</v>
+        <v>-2.8308097653924724E-2</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16493961562452641</v>
+        <v>0.67458985401079263</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7592838004344005E-2</v>
+        <v>-0.20946756276893619</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99617673993186462</v>
+        <v>-0.8810726492880141</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5236560956494023</v>
+        <v>0.12306503305492833</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.179531488178166</v>
+        <v>-0.85721875170447936</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.81421897046995229</v>
+        <v>-0.87289137657104821</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7412615234424591</v>
+        <v>0.16081729531387756</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6460032326881906</v>
+        <v>-0.29420978254613717</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83999718783661526</v>
+        <v>0.82426079650880357</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86888641959801194</v>
+        <v>-0.84732845834677861</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93930615610900392</v>
+        <v>0.6068074578200946</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7861074201484426E-2</v>
+        <v>0.67214697226243736</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43470985608601209</v>
+        <v>-0.32505570306702536</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55428821919153526</v>
+        <v>0.74563294591492868</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54702478496800855</v>
+        <v>-0.39884881182719534</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77716605587853316</v>
+        <v>-0.8803453734042066</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36978594847899249</v>
+        <v>0.66302697238938535</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1366238344818758E-2</v>
+        <v>0.65355331462483512</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53957125179376297</v>
+        <v>-1.1437676382464623E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22836309625913431</v>
+        <v>0.90378861629791474</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99554606183343419</v>
+        <v>0.72949985907292181</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.73861882283453806</v>
+        <v>0.91087356064928326</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95196483184348812</v>
+        <v>0.48947852513906787</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87149920090002975</v>
+        <v>-0.12388919130197706</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46024337216989375</v>
+        <v>-0.13235396263754295</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17200193337676506</v>
+        <v>-0.39857780528709363</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26547211363435164</v>
+        <v>0.98198657961357583</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7936951539245487</v>
+        <v>-0.5361603303078073</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90164031294911662</v>
+        <v>-6.8786558627584871E-2</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23257134998659845</v>
+        <v>-0.7304982278607659</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40496508043223578</v>
+        <v>-6.9944263029729559E-2</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34779889079602988</v>
+        <v>0.65986585251501673</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7226156378699322E-2</v>
+        <v>-0.61860386265503653</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.93100472244245402</v>
+        <v>-0.89265088334937448</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3519175454390631E-2</v>
+        <v>-4.3365956998735466E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30583042269085481</v>
+        <v>-0.24182801558025147</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3725340459707891</v>
+        <v>0.47404851244231105</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92284463542874229</v>
+        <v>0.57251638538483651</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38659197778038545</v>
+        <v>-0.98056837522977247</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39621746442894135</v>
+        <v>0.73394723091242264</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8703737209886224E-2</v>
+        <v>-0.92970834200341601</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53363381695784651</v>
+        <v>-0.43414811952481713</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12480024170360671</v>
+        <v>0.32404946088400988</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81568901054521126</v>
+        <v>0.37303656589431244</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47264743061392545</v>
+        <v>-9.2304475686067589E-2</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4086839237097899</v>
+        <v>0.46095989437814877</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60981790611230835</v>
+        <v>-0.36445102301396326</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7834781139393836</v>
+        <v>0.50218069603429338</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76669910697037635</v>
+        <v>0.44749059225300036</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23589502876922364</v>
+        <v>-0.26943571128502963</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88885417444979464</v>
+        <v>0.38352074388649626</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94776995365497219</v>
+        <v>-7.6015383160884076E-2</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0870672344017089E-2</v>
+        <v>-0.44652565994323412</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.82357711475411044</v>
+        <v>-0.51323853152345733</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43399646885964249</v>
+        <v>-0.7098857976074584</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10854501748797585</v>
+        <v>-0.8082171191778369</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36948262934400256</v>
+        <v>0.42731942734050432</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31642214546231062</v>
+        <v>0.66127753298246694</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24747071523903674</v>
+        <v>0.87626732136279095</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56502361023556436</v>
+        <v>-0.85910240933368409</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10007293619462732</v>
+        <v>0.9227078936159907</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4441467701159334</v>
+        <v>0.66542746204911829</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99798082237119323</v>
+        <v>-0.8912439635490208</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94855739693710328</v>
+        <v>-0.84494645324964468</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.74468831616740516</v>
+        <v>-0.39127709807052868</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4943500055072958</v>
+        <v>0.40217766370331098</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96049238429770933</v>
+        <v>0.20188126491521197</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.85328266883400405</v>
+        <v>-0.7779136733774632</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79355547107904822</v>
+        <v>0.959038862335583</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52801950710254797</v>
+        <v>0.39118409074022087</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81523452008883623</v>
+        <v>-0.59016021164784194</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48853118079288782</v>
+        <v>-0.23943276679020498</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11742746400618498</v>
+        <v>-0.24221199050558595</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1427655342425993E-2</v>
+        <v>0.92478015654394286</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80789662913008797</v>
+        <v>-0.46251649456725907</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10149744808346783</v>
+        <v>-4.0264878501367507E-2</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25340714377499363</v>
+        <v>-0.72690895164022473</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25969819422243079</v>
+        <v>-0.87858182420516973</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34730739665680233</v>
+        <v>-0.85333476204379144</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.8632648351605976</v>
+        <v>-0.15793865469207558</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.834110700553097</v>
+        <v>0.93406694030379955</v>
       </c>
     </row>
   </sheetData>
